--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_146.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_146.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32406-d76968-Reviews-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>188</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-By-Marriott-Huntington-Beach-Fountain-Valley.h16743.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528252255719&amp;cancellable=false&amp;regionId=7155&amp;vip=false&amp;c=5779e1dc-2189-4bcf-8c22-a9af66db5126&amp;mctc=9&amp;exp_dp=149&amp;exp_ts=1528252256245&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_146.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_146.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="840">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2438 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r575462151-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>32406</t>
+  </si>
+  <si>
+    <t>76968</t>
+  </si>
+  <si>
+    <t>575462151</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Short Disney Trip</t>
+  </si>
+  <si>
+    <t>Came to OC for a short Disney trip with a few of my YMCA co-workers in Austin, Tx. The hotel is very updated and modern, which is good for a younger guests like us. Front desk at check in and check out were great! Cheryl was fantastic, very friendly! Very informative of the area, gave us a great restaurant recommendation. Jacobii at the bistro was nice as well. Definitely coming back to this hotel on my next disney trip.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r568154964-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>568154964</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>FYI:  No more free parking</t>
+  </si>
+  <si>
+    <t>If I knew about the parking fee and the no breakfast I would have booked at Ayres across the street.   It’s been a few years since we’ve been back to this hotel (we’ve stayed at Ayres since it opened) and it looks like it was recently renovated.  The room with double beds is small and so is the sink area.  It’s clean but I prefer the other one.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>If I knew about the parking fee and the no breakfast I would have booked at Ayres across the street.   It’s been a few years since we’ve been back to this hotel (we’ve stayed at Ayres since it opened) and it looks like it was recently renovated.  The room with double beds is small and so is the sink area.  It’s clean but I prefer the other one.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r565932034-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>565932034</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Quick stay</t>
+  </si>
+  <si>
+    <t>Stayed here one night. Room was clean, recently renovated. Lobby very trendy with lots of places to sit and relax. Enjoyed breakfast and Starbucks coffee in the morning. Right off 405 so convenient for travelMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here one night. Room was clean, recently renovated. Lobby very trendy with lots of places to sit and relax. Enjoyed breakfast and Starbucks coffee in the morning. Right off 405 so convenient for travelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r552622909-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>552622909</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Lost my business</t>
+  </si>
+  <si>
+    <t>A month ago I booked a king suite and a queen suite for my family of 5 to stay in the first weekend in January. After driving 10 hours I called the hotel at noon to see if we could check-in at 2pm instead of 3pm. I was told, yes, our rooms would be ready. We arrived at 2pm and were told the king room was available but the queen room was not. They told me the guest wasn’t checking out till 4pm and they needed to clean room afterwards. WHAT? I was lied to on the phone when I called and you’re letting a guest stay till 4pm in a room I reserved. They told me sorry but nothing they could do about it. They would let me know when it was available. The customer service was horrible and pretty much tough cookies to me and my family of 5. Needless to say we headed to the 1 room. Turned the corner and the hall to the rooms was trashed with remodeling material everywhere. The floors were covered in debris. WHAT? Remodeling and the mess we’d be walking through was never mentioned when I made reservations or when we checked-in. 
+At 4:00 my husband went down to see if queen room might be ready. It wasn’t. My family of 5 had dinner plans with local relatives and we ended up with all of us in the same room getting...A month ago I booked a king suite and a queen suite for my family of 5 to stay in the first weekend in January. After driving 10 hours I called the hotel at noon to see if we could check-in at 2pm instead of 3pm. I was told, yes, our rooms would be ready. We arrived at 2pm and were told the king room was available but the queen room was not. They told me the guest wasn’t checking out till 4pm and they needed to clean room afterwards. WHAT? I was lied to on the phone when I called and you’re letting a guest stay till 4pm in a room I reserved. They told me sorry but nothing they could do about it. They would let me know when it was available. The customer service was horrible and pretty much tough cookies to me and my family of 5. Needless to say we headed to the 1 room. Turned the corner and the hall to the rooms was trashed with remodeling material everywhere. The floors were covered in debris. WHAT? Remodeling and the mess we’d be walking through was never mentioned when I made reservations or when we checked-in. At 4:00 my husband went down to see if queen room might be ready. It wasn’t. My family of 5 had dinner plans with local relatives and we ended up with all of us in the same room getting ready to go out. When the room was finally ready around 5pm we were offered 4 free breakfasts for the inconvenience. Charged us full price for a room that my family didn’t get to use for the full time reserved. Nope, that was our 2nd stay there and we will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2018</t>
+  </si>
+  <si>
+    <t>A month ago I booked a king suite and a queen suite for my family of 5 to stay in the first weekend in January. After driving 10 hours I called the hotel at noon to see if we could check-in at 2pm instead of 3pm. I was told, yes, our rooms would be ready. We arrived at 2pm and were told the king room was available but the queen room was not. They told me the guest wasn’t checking out till 4pm and they needed to clean room afterwards. WHAT? I was lied to on the phone when I called and you’re letting a guest stay till 4pm in a room I reserved. They told me sorry but nothing they could do about it. They would let me know when it was available. The customer service was horrible and pretty much tough cookies to me and my family of 5. Needless to say we headed to the 1 room. Turned the corner and the hall to the rooms was trashed with remodeling material everywhere. The floors were covered in debris. WHAT? Remodeling and the mess we’d be walking through was never mentioned when I made reservations or when we checked-in. 
+At 4:00 my husband went down to see if queen room might be ready. It wasn’t. My family of 5 had dinner plans with local relatives and we ended up with all of us in the same room getting...A month ago I booked a king suite and a queen suite for my family of 5 to stay in the first weekend in January. After driving 10 hours I called the hotel at noon to see if we could check-in at 2pm instead of 3pm. I was told, yes, our rooms would be ready. We arrived at 2pm and were told the king room was available but the queen room was not. They told me the guest wasn’t checking out till 4pm and they needed to clean room afterwards. WHAT? I was lied to on the phone when I called and you’re letting a guest stay till 4pm in a room I reserved. They told me sorry but nothing they could do about it. They would let me know when it was available. The customer service was horrible and pretty much tough cookies to me and my family of 5. Needless to say we headed to the 1 room. Turned the corner and the hall to the rooms was trashed with remodeling material everywhere. The floors were covered in debris. WHAT? Remodeling and the mess we’d be walking through was never mentioned when I made reservations or when we checked-in. At 4:00 my husband went down to see if queen room might be ready. It wasn’t. My family of 5 had dinner plans with local relatives and we ended up with all of us in the same room getting ready to go out. When the room was finally ready around 5pm we were offered 4 free breakfasts for the inconvenience. Charged us full price for a room that my family didn’t get to use for the full time reserved. Nope, that was our 2nd stay there and we will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r549395376-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>549395376</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremely disappointing </t>
+  </si>
+  <si>
+    <t>Always stay at Marriott as I'm gold member.  Specifically booked this one as it was close to family and stated had full gym.  Well hotel is under construction ( not mentioned on website when booked) and they have no gym, whirlpool , it's in mid construction and they are charging 7 per day to park in an empty lot.  Ridiculous Told me I could use gym at redesence inn which I tried and is a closet with 5 dumbells.  Totally useless.  When i complained about that they told me I could go to la fitness or 24 fitness - but they I had to pay.  Unacceptable This is a crappy property that has no right charging for parking and should be ashamed for lack of transparency on construction and amenities available as I would have never booked it.  I even tried emailing manager and got no response.  So I will resort to TripAdvisor and twitter.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Always stay at Marriott as I'm gold member.  Specifically booked this one as it was close to family and stated had full gym.  Well hotel is under construction ( not mentioned on website when booked) and they have no gym, whirlpool , it's in mid construction and they are charging 7 per day to park in an empty lot.  Ridiculous Told me I could use gym at redesence inn which I tried and is a closet with 5 dumbells.  Totally useless.  When i complained about that they told me I could go to la fitness or 24 fitness - but they I had to pay.  Unacceptable This is a crappy property that has no right charging for parking and should be ashamed for lack of transparency on construction and amenities available as I would have never booked it.  I even tried emailing manager and got no response.  So I will resort to TripAdvisor and twitter.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r531840827-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>531840827</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>I just spent two comfortable nights at this hotel and found it to be typical MCY in every way.  Well placed, clean with friendly staff.It's located in the same parking lot as a Residence Inn so that could work for you also. Either way you can't go wrong. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>I just spent two comfortable nights at this hotel and found it to be typical MCY in every way.  Well placed, clean with friendly staff.It's located in the same parking lot as a Residence Inn so that could work for you also. Either way you can't go wrong. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r495599039-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>495599039</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last leg of journey </t>
+  </si>
+  <si>
+    <t>Check in was very good.  Ruby was excellent very quick and efficient. I have been traveling for 3 months on business and this was the best experience so far when checking in. Room was spacious and clean. There was an issue with the air conditioning unit on the 2 Nd night . They sent someone to put a fan in to dry floor and take unit apart. The only thing I found to be a little weird was at 1030 at night they knocked on the door to remove the fan and take it out of room. A bit late but I just went with it. Pool area was nice whirlpool was in a separate area which was gated good idea so no children could be in the whirlpool. They had a washer and dryer for guests to use. Not sure why hotels feel the need to charge for parking though you are paying to stay at the hotel so why pay to park? I would stay here again and recommend to people. Please make sure to recognize Ruby as she does an outstanding job. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Check in was very good.  Ruby was excellent very quick and efficient. I have been traveling for 3 months on business and this was the best experience so far when checking in. Room was spacious and clean. There was an issue with the air conditioning unit on the 2 Nd night . They sent someone to put a fan in to dry floor and take unit apart. The only thing I found to be a little weird was at 1030 at night they knocked on the door to remove the fan and take it out of room. A bit late but I just went with it. Pool area was nice whirlpool was in a separate area which was gated good idea so no children could be in the whirlpool. They had a washer and dryer for guests to use. Not sure why hotels feel the need to charge for parking though you are paying to stay at the hotel so why pay to park? I would stay here again and recommend to people. Please make sure to recognize Ruby as she does an outstanding job. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r493545119-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>493545119</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Great stay (again)!</t>
+  </si>
+  <si>
+    <t>We have stayed here a few times while visiting our son and recommend it highly!  The location is convenient to shopping, beaches and all that SoCal has to offer.  It's close to the 405, but also is adjacent to quiet neighborhoods and traffic-free local streets... a real plus!  Our room was clean, comfortable and quiet. The pool and courtyard are nicely landscaped.  The front desk staff are great!  Our son left his sunglasses on a previous stay and Cheryl made sure she kept them safely until he could return and pick them up.  All in all, it's a nice property that offers a good value.  We'll be back! MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here a few times while visiting our son and recommend it highly!  The location is convenient to shopping, beaches and all that SoCal has to offer.  It's close to the 405, but also is adjacent to quiet neighborhoods and traffic-free local streets... a real plus!  Our room was clean, comfortable and quiet. The pool and courtyard are nicely landscaped.  The front desk staff are great!  Our son left his sunglasses on a previous stay and Cheryl made sure she kept them safely until he could return and pick them up.  All in all, it's a nice property that offers a good value.  We'll be back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r492003149-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>492003149</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>No more free parking!</t>
+  </si>
+  <si>
+    <t>Between myself, my husband, and my children we have probably stayed here at least 30 times over the last several years. Nothing spectacular and sometimes better than others but clearly got the job done. The location was perfect for us and we like courtyards. What a surprise at check in that they now charge for parking! The lot is huge and never full. This feels like a rip off, and was probably the last straw for some very loyal customers. Let me be clear it was not the amount charged, but the fact it is charged at all. There are a lot of other newer hotels but we tend to stay with our old favorites. Probably not anymore .MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Between myself, my husband, and my children we have probably stayed here at least 30 times over the last several years. Nothing spectacular and sometimes better than others but clearly got the job done. The location was perfect for us and we like courtyards. What a surprise at check in that they now charge for parking! The lot is huge and never full. This feels like a rip off, and was probably the last straw for some very loyal customers. Let me be clear it was not the amount charged, but the fact it is charged at all. There are a lot of other newer hotels but we tend to stay with our old favorites. Probably not anymore .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r483511835-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>483511835</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, beautiful lobby, clean rooms</t>
+  </si>
+  <si>
+    <t>This was my first visit to CA, front desk staff was very helpful with directions, and for our every request. Though some parts of the hotel seem a little out-dated (hallways, and some features is room) The lobby is beautiful and newly renovated. I've stayed at many Courtyards and was glad to see the service here met expectations. Two thumbs up.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r477126446-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>477126446</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Nice, comfortable and quiet</t>
+  </si>
+  <si>
+    <t>Booked stay at Courtyard in Huntington Beach as it was on my list of hotels near Orange Coast Memorial, where I was scheduled for surgery. Everything I requested was taken care of--early check in, quiet room on top floor. Staff extremely efficient and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Booked stay at Courtyard in Huntington Beach as it was on my list of hotels near Orange Coast Memorial, where I was scheduled for surgery. Everything I requested was taken care of--early check in, quiet room on top floor. Staff extremely efficient and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r475679475-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>475679475</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and simple </t>
+  </si>
+  <si>
+    <t>If you've stayed at one Courtyard Marriott you've stayed at them all. The decor and layout of each room is very standard across the chain. If I was to compare this hotel chain to clothing I'd call it business casual. Not fancy, not casual but good enough to get by. It's a nice and comfortable option for a short 1-2 night trip. This particular location was great. There is tons of free parking and easy access to the 405 freeway. It is only a 5 minute drive to the Garden Grove area. I would not recommend staying here without a car. There is not really any commercial businesses within walking distance. It is surrounded by many other hotels and 2 gas stations. It's a quiet area. 
+I stayed in a king suite for one night. The room was clean, the furniture seemed relatively new and the space was set up in a way that is very functional and spacious. Each room has a balcony. Since my room was facing the pool, I was able to conveniently access the pool/jacuzzi area without having to go through the main hallway. While my room was located on the inner courtyard, I did not hear any street noise but I certainly heard my neighbors footsteps upstairs. I recommend staying on the top floor if you want to avoid this.
+As far as food goes, they do not serve complimentary breakfast but they have a...If you've stayed at one Courtyard Marriott you've stayed at them all. The decor and layout of each room is very standard across the chain. If I was to compare this hotel chain to clothing I'd call it business casual. Not fancy, not casual but good enough to get by. It's a nice and comfortable option for a short 1-2 night trip. This particular location was great. There is tons of free parking and easy access to the 405 freeway. It is only a 5 minute drive to the Garden Grove area. I would not recommend staying here without a car. There is not really any commercial businesses within walking distance. It is surrounded by many other hotels and 2 gas stations. It's a quiet area. I stayed in a king suite for one night. The room was clean, the furniture seemed relatively new and the space was set up in a way that is very functional and spacious. Each room has a balcony. Since my room was facing the pool, I was able to conveniently access the pool/jacuzzi area without having to go through the main hallway. While my room was located on the inner courtyard, I did not hear any street noise but I certainly heard my neighbors footsteps upstairs. I recommend staying on the top floor if you want to avoid this.As far as food goes, they do not serve complimentary breakfast but they have a bistro onsite which serves a full dining menu and Starbucks coffee. When I arrived on Saturday around 1:30pm, the bistro was only open for breakfast and dinner. For whatever reason they close during lunch. Perhaps it's open for lunch on weekdays. I really wanted my cup of joe, but luckily I was able to make some in my hotel room. It was a cheap unrecognizable coffee brand but it got the job done.Overall, a comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you've stayed at one Courtyard Marriott you've stayed at them all. The decor and layout of each room is very standard across the chain. If I was to compare this hotel chain to clothing I'd call it business casual. Not fancy, not casual but good enough to get by. It's a nice and comfortable option for a short 1-2 night trip. This particular location was great. There is tons of free parking and easy access to the 405 freeway. It is only a 5 minute drive to the Garden Grove area. I would not recommend staying here without a car. There is not really any commercial businesses within walking distance. It is surrounded by many other hotels and 2 gas stations. It's a quiet area. 
+I stayed in a king suite for one night. The room was clean, the furniture seemed relatively new and the space was set up in a way that is very functional and spacious. Each room has a balcony. Since my room was facing the pool, I was able to conveniently access the pool/jacuzzi area without having to go through the main hallway. While my room was located on the inner courtyard, I did not hear any street noise but I certainly heard my neighbors footsteps upstairs. I recommend staying on the top floor if you want to avoid this.
+As far as food goes, they do not serve complimentary breakfast but they have a...If you've stayed at one Courtyard Marriott you've stayed at them all. The decor and layout of each room is very standard across the chain. If I was to compare this hotel chain to clothing I'd call it business casual. Not fancy, not casual but good enough to get by. It's a nice and comfortable option for a short 1-2 night trip. This particular location was great. There is tons of free parking and easy access to the 405 freeway. It is only a 5 minute drive to the Garden Grove area. I would not recommend staying here without a car. There is not really any commercial businesses within walking distance. It is surrounded by many other hotels and 2 gas stations. It's a quiet area. I stayed in a king suite for one night. The room was clean, the furniture seemed relatively new and the space was set up in a way that is very functional and spacious. Each room has a balcony. Since my room was facing the pool, I was able to conveniently access the pool/jacuzzi area without having to go through the main hallway. While my room was located on the inner courtyard, I did not hear any street noise but I certainly heard my neighbors footsteps upstairs. I recommend staying on the top floor if you want to avoid this.As far as food goes, they do not serve complimentary breakfast but they have a bistro onsite which serves a full dining menu and Starbucks coffee. When I arrived on Saturday around 1:30pm, the bistro was only open for breakfast and dinner. For whatever reason they close during lunch. Perhaps it's open for lunch on weekdays. I really wanted my cup of joe, but luckily I was able to make some in my hotel room. It was a cheap unrecognizable coffee brand but it got the job done.Overall, a comfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r454879800-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>454879800</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>My wife and I have enjoyed staying at this property in the past, when visiting grandsons. The service and location has always been great. NOT this time!!Booked three nights "Deluxe Room", which was a disabled room. Asked for a non disabled room and was told that was the only room available. Understandable, but would have been good to be told in advance or at the time of booking the room. Early this morning at 5:45 am the room above seemed to be jogging in the room.Tonight requested an extra blanket at 7:45 and had to go to the front desk at 9:10 to ask for the blanket. As reflected in my other reviews I am quick to commend properties that go beyond normal service, this property at this time is not in that group.For the price, we will no longer stay at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I have enjoyed staying at this property in the past, when visiting grandsons. The service and location has always been great. NOT this time!!Booked three nights "Deluxe Room", which was a disabled room. Asked for a non disabled room and was told that was the only room available. Understandable, but would have been good to be told in advance or at the time of booking the room. Early this morning at 5:45 am the room above seemed to be jogging in the room.Tonight requested an extra blanket at 7:45 and had to go to the front desk at 9:10 to ask for the blanket. As reflected in my other reviews I am quick to commend properties that go beyond normal service, this property at this time is not in that group.For the price, we will no longer stay at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r452804421-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>452804421</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Hotel was nice, the staff was good, but the room noise left alot to be desired.</t>
+  </si>
+  <si>
+    <t>We booked a two night stay in a 1 bedroom suite. Because I do not like a lot of noise upon check-in we were offered the 2nd or 3rd floor. I took the 3rd floor so there were no little gremlins running over head. I also specifically asked for it to not be near the street or the freeway since it is directly adjacent to the property. The front desk staff said no problem it was interior and facing the pool, so we thought this would be perfect. We checked into our room which was nice and spacious, and clean. We did not stay in the room long as the kids wanted to swim. So we did, then went to dinner. When we got back the and it was time to turn in about 9:30 we soon realized that our room # 312 had a strong noise coming from the mechanical room next door. It sounded like a washer out of balance or a helicopter flying directly over head. We thought something was wrong so we called the front desk regarding the noise. The came up with maintenance and checked it out, and said it was the AC system and there was nothing they could do. They offered for us to move but since the kids were asleep on the sofa bed we just asked for ear plugs or the option to move if we could not sleep. They did...We booked a two night stay in a 1 bedroom suite. Because I do not like a lot of noise upon check-in we were offered the 2nd or 3rd floor. I took the 3rd floor so there were no little gremlins running over head. I also specifically asked for it to not be near the street or the freeway since it is directly adjacent to the property. The front desk staff said no problem it was interior and facing the pool, so we thought this would be perfect. We checked into our room which was nice and spacious, and clean. We did not stay in the room long as the kids wanted to swim. So we did, then went to dinner. When we got back the and it was time to turn in about 9:30 we soon realized that our room # 312 had a strong noise coming from the mechanical room next door. It sounded like a washer out of balance or a helicopter flying directly over head. We thought something was wrong so we called the front desk regarding the noise. The came up with maintenance and checked it out, and said it was the AC system and there was nothing they could do. They offered for us to move but since the kids were asleep on the sofa bed we just asked for ear plugs or the option to move if we could not sleep. They did not have ear plugs, but they did comp the room across the hall in case we wanted to move. So we wacked ourselves out with Advil PM, found some ear plugs in the bag and tried to make it work. The noise went on all night and it was a horrible nights sleep, plus we wound up feeling sick in the morning. The noise was so bad that it made us feel as though our sleep rhythm for what little sleep we got cycled to this whoop, whoop, whoop noise all night long. In the morning we got out went to our event, and by the time we came back we decided that rather than to move rooms we would just check out early and go home. Fortunately the night staff had documented the issue, and when I went to the front desk to check out they were very accommodating. They comp'd our room for the one night and did not charge us any fees for the early check out and cancellation of the second night. Overall the experience was ok only because the hotel staff made it right. The hotel and the room was nice "except for the noise". So we would consider staying here again, but definitely in another room at another place within the property, or maybe we should have gone to the Residence Inn which was right next door. Also FYI, the kids said the sofa sleeper was very lumpy with springs that poked them all night. So maybe they might want to consider some new mattresses on the pull outs as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>We booked a two night stay in a 1 bedroom suite. Because I do not like a lot of noise upon check-in we were offered the 2nd or 3rd floor. I took the 3rd floor so there were no little gremlins running over head. I also specifically asked for it to not be near the street or the freeway since it is directly adjacent to the property. The front desk staff said no problem it was interior and facing the pool, so we thought this would be perfect. We checked into our room which was nice and spacious, and clean. We did not stay in the room long as the kids wanted to swim. So we did, then went to dinner. When we got back the and it was time to turn in about 9:30 we soon realized that our room # 312 had a strong noise coming from the mechanical room next door. It sounded like a washer out of balance or a helicopter flying directly over head. We thought something was wrong so we called the front desk regarding the noise. The came up with maintenance and checked it out, and said it was the AC system and there was nothing they could do. They offered for us to move but since the kids were asleep on the sofa bed we just asked for ear plugs or the option to move if we could not sleep. They did...We booked a two night stay in a 1 bedroom suite. Because I do not like a lot of noise upon check-in we were offered the 2nd or 3rd floor. I took the 3rd floor so there were no little gremlins running over head. I also specifically asked for it to not be near the street or the freeway since it is directly adjacent to the property. The front desk staff said no problem it was interior and facing the pool, so we thought this would be perfect. We checked into our room which was nice and spacious, and clean. We did not stay in the room long as the kids wanted to swim. So we did, then went to dinner. When we got back the and it was time to turn in about 9:30 we soon realized that our room # 312 had a strong noise coming from the mechanical room next door. It sounded like a washer out of balance or a helicopter flying directly over head. We thought something was wrong so we called the front desk regarding the noise. The came up with maintenance and checked it out, and said it was the AC system and there was nothing they could do. They offered for us to move but since the kids were asleep on the sofa bed we just asked for ear plugs or the option to move if we could not sleep. They did not have ear plugs, but they did comp the room across the hall in case we wanted to move. So we wacked ourselves out with Advil PM, found some ear plugs in the bag and tried to make it work. The noise went on all night and it was a horrible nights sleep, plus we wound up feeling sick in the morning. The noise was so bad that it made us feel as though our sleep rhythm for what little sleep we got cycled to this whoop, whoop, whoop noise all night long. In the morning we got out went to our event, and by the time we came back we decided that rather than to move rooms we would just check out early and go home. Fortunately the night staff had documented the issue, and when I went to the front desk to check out they were very accommodating. They comp'd our room for the one night and did not charge us any fees for the early check out and cancellation of the second night. Overall the experience was ok only because the hotel staff made it right. The hotel and the room was nice "except for the noise". So we would consider staying here again, but definitely in another room at another place within the property, or maybe we should have gone to the Residence Inn which was right next door. Also FYI, the kids said the sofa sleeper was very lumpy with springs that poked them all night. So maybe they might want to consider some new mattresses on the pull outs as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r447471443-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>447471443</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Okay for Business</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel three or four times now when visiting the area for business.  The hotel is located in a good neighborhood and has convenient access to major streets/highways.  The hotel has a nice lobby with a convenient grab n go snack bar or breakfast area.  The rooms are sizeable and beds are comfortable although in general it just feels like a typical hotel room.  The only con I have is that each time I stay it feels overly humid in the rooms where the A/C units appear to run constantly but not do anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel three or four times now when visiting the area for business.  The hotel is located in a good neighborhood and has convenient access to major streets/highways.  The hotel has a nice lobby with a convenient grab n go snack bar or breakfast area.  The rooms are sizeable and beds are comfortable although in general it just feels like a typical hotel room.  The only con I have is that each time I stay it feels overly humid in the rooms where the A/C units appear to run constantly but not do anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r445473975-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>445473975</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>A perfect family gateaway</t>
+  </si>
+  <si>
+    <t>Perfect for the family vacation - wonderful location with well maintained facility and courteous staff - everything is near as clean - this is my third year on the roll with the family and I can't wait for the next holiday</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r432430770-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>432430770</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Clean Property, Freindly Service, 24 hour store across the street</t>
+  </si>
+  <si>
+    <t>We stayed here for a wedding not to far away. No Complaints at all. Clean property, friendly employees and there is a Arco across the street open 24 hours. So obtaining snacks, beer etc... even late at night was a simple cross the street effort.The pool has lights that change every few seconds making the view from our suite a little more tropical feelingMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for a wedding not to far away. No Complaints at all. Clean property, friendly employees and there is a Arco across the street open 24 hours. So obtaining snacks, beer etc... even late at night was a simple cross the street effort.The pool has lights that change every few seconds making the view from our suite a little more tropical feelingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r427991346-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>427991346</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Long beach marathon</t>
+  </si>
+  <si>
+    <t>Chose this property due to the freeway access to I-405 and it's close proximity to Huntington Beach. My wife and I were in town for the Marathon in Long Beach, but we wanted to stay where we could drive to the beach as well. This property is in good condition both exterior and interior. Our King room was just the right size and the bed was good. We enjoyed the pool and jacuzzi, both were excellent temperatures and pool towels were readily available. The jacuzzi was especially nice with a nice strong jets relaxing the tired muscles after a day at the beach or for my wife running the marathon. The check in staff were accommodating and friendly, the beach is only a short 10-15 min drive down Brookhurst Avenue. The only minor negative is each day we were there we would hang our towels up to reuse them as the card in the room states "save water" hang your towels up to reuse or leave on the floor for housekeeping to replace. We hung our towels up and each day they got replaced so a moot point, just trying to do our part! I recommend this property for a clean, quiet and safe place to spend a few nights while exploring the Southern California area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Chose this property due to the freeway access to I-405 and it's close proximity to Huntington Beach. My wife and I were in town for the Marathon in Long Beach, but we wanted to stay where we could drive to the beach as well. This property is in good condition both exterior and interior. Our King room was just the right size and the bed was good. We enjoyed the pool and jacuzzi, both were excellent temperatures and pool towels were readily available. The jacuzzi was especially nice with a nice strong jets relaxing the tired muscles after a day at the beach or for my wife running the marathon. The check in staff were accommodating and friendly, the beach is only a short 10-15 min drive down Brookhurst Avenue. The only minor negative is each day we were there we would hang our towels up to reuse them as the card in the room states "save water" hang your towels up to reuse or leave on the floor for housekeeping to replace. We hung our towels up and each day they got replaced so a moot point, just trying to do our part! I recommend this property for a clean, quiet and safe place to spend a few nights while exploring the Southern California area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r408896962-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>408896962</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Decent Older Courtyard</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel with my wife and kids.  Not really much to say about it.  It's an older style Courtyard, though it's mostly been kept up to date.  The only things I thought were showing a little age were the plumbing fixtures, but the shower worked well, and the bed was comfortable.  The location is pretty convenient right off the 405.  One weird thing -- when we got into our room, the carpets were a little bit damp, as if they had just had them cleaned.  I wasn't quite sure how to feel about this... one one hand, eww damp carpets.  On the other, it was nice to have a room with freshly cleaned carpets, and they were close to dry by morning, and completely dry by the second night.  On balance, I didn't complain or anything, especially since the front desk had already accommodated my last-minute request for a room with two queens instead of a king.  Overall, I would likely return to this hotel for future travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel with my wife and kids.  Not really much to say about it.  It's an older style Courtyard, though it's mostly been kept up to date.  The only things I thought were showing a little age were the plumbing fixtures, but the shower worked well, and the bed was comfortable.  The location is pretty convenient right off the 405.  One weird thing -- when we got into our room, the carpets were a little bit damp, as if they had just had them cleaned.  I wasn't quite sure how to feel about this... one one hand, eww damp carpets.  On the other, it was nice to have a room with freshly cleaned carpets, and they were close to dry by morning, and completely dry by the second night.  On balance, I didn't complain or anything, especially since the front desk had already accommodated my last-minute request for a room with two queens instead of a king.  Overall, I would likely return to this hotel for future travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r405099464-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>405099464</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Great hotel with just a little TLC</t>
+  </si>
+  <si>
+    <t>We spent four nights in Anaheim and then another two in San Diego an finally one night in this hotel before we flew out of LGB.  We had planned to go to the beach this day so we booked something close to Huntington Beach (this hotel) and the airport.  The location of this hotel was perfect.
+When we checked in we were way early and our room was not ready but they had a different room type that was available and so we took that.  We had a first floor room that opened right to the pool.  That was actually really great.  Our five year old loved that.  He was was actually so excited about that he didn't want to go to the beach!
+Everything was very nice about this hotel with a few minor exceptions.  I travel a lot for work and stay in a lot of Courtyards.  I have a pretty high expectations so minor things get to me.
+In our room the little screw cover on the toilet lid was missing. The pool gates were a little hokey; they obviously removed the card key access and just put in manual locks.  You just had to reach over and open the gate (similar to the gate leading to many backyards).  They left the holes for the old card key system so it looked kind of ghetto.  There was also a gate that for some reason was just a...We spent four nights in Anaheim and then another two in San Diego an finally one night in this hotel before we flew out of LGB.  We had planned to go to the beach this day so we booked something close to Huntington Beach (this hotel) and the airport.  The location of this hotel was perfect.When we checked in we were way early and our room was not ready but they had a different room type that was available and so we took that.  We had a first floor room that opened right to the pool.  That was actually really great.  Our five year old loved that.  He was was actually so excited about that he didn't want to go to the beach!Everything was very nice about this hotel with a few minor exceptions.  I travel a lot for work and stay in a lot of Courtyards.  I have a pretty high expectations so minor things get to me.In our room the little screw cover on the toilet lid was missing. The pool gates were a little hokey; they obviously removed the card key access and just put in manual locks.  You just had to reach over and open the gate (similar to the gate leading to many backyards).  They left the holes for the old card key system so it looked kind of ghetto.  There was also a gate that for some reason was just a piece of wood.  It was a sheet of plywood instead of a gate.  Again, these are pretty minor issues but with those small fixes the hotel would be great!The Bistro was great, the front desk was great.  Overall I really liked this hotel.  We will  probably come to this area and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent four nights in Anaheim and then another two in San Diego an finally one night in this hotel before we flew out of LGB.  We had planned to go to the beach this day so we booked something close to Huntington Beach (this hotel) and the airport.  The location of this hotel was perfect.
+When we checked in we were way early and our room was not ready but they had a different room type that was available and so we took that.  We had a first floor room that opened right to the pool.  That was actually really great.  Our five year old loved that.  He was was actually so excited about that he didn't want to go to the beach!
+Everything was very nice about this hotel with a few minor exceptions.  I travel a lot for work and stay in a lot of Courtyards.  I have a pretty high expectations so minor things get to me.
+In our room the little screw cover on the toilet lid was missing. The pool gates were a little hokey; they obviously removed the card key access and just put in manual locks.  You just had to reach over and open the gate (similar to the gate leading to many backyards).  They left the holes for the old card key system so it looked kind of ghetto.  There was also a gate that for some reason was just a...We spent four nights in Anaheim and then another two in San Diego an finally one night in this hotel before we flew out of LGB.  We had planned to go to the beach this day so we booked something close to Huntington Beach (this hotel) and the airport.  The location of this hotel was perfect.When we checked in we were way early and our room was not ready but they had a different room type that was available and so we took that.  We had a first floor room that opened right to the pool.  That was actually really great.  Our five year old loved that.  He was was actually so excited about that he didn't want to go to the beach!Everything was very nice about this hotel with a few minor exceptions.  I travel a lot for work and stay in a lot of Courtyards.  I have a pretty high expectations so minor things get to me.In our room the little screw cover on the toilet lid was missing. The pool gates were a little hokey; they obviously removed the card key access and just put in manual locks.  You just had to reach over and open the gate (similar to the gate leading to many backyards).  They left the holes for the old card key system so it looked kind of ghetto.  There was also a gate that for some reason was just a piece of wood.  It was a sheet of plywood instead of a gate.  Again, these are pretty minor issues but with those small fixes the hotel would be great!The Bistro was great, the front desk was great.  Overall I really liked this hotel.  We will  probably come to this area and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r403346872-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>403346872</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient.  Room and hotel was up to date and clean and fresh.  Room smelled excellent.  Staff was friendly.  Pool didn't have Jacuzzi which was a bummer.  But room had direct access to pool courtyard.  That was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient.  Room and hotel was up to date and clean and fresh.  Room smelled excellent.  Staff was friendly.  Pool didn't have Jacuzzi which was a bummer.  But room had direct access to pool courtyard.  That was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r391926679-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>391926679</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>No WiFi</t>
+  </si>
+  <si>
+    <t>I usually stay at Marriott's because they have dependable Wi-Fi service. The place be in a corner room with no Wi-Fi signal. They have no other rooms to move me too. I'm going to have to check out early in the morning and go somewhere to do business. Without Internet it's a complete waste of time. Avoid this MarriottMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Chris T, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2016</t>
+  </si>
+  <si>
+    <t>I usually stay at Marriott's because they have dependable Wi-Fi service. The place be in a corner room with no Wi-Fi signal. They have no other rooms to move me too. I'm going to have to check out early in the morning and go somewhere to do business. Without Internet it's a complete waste of time. Avoid this MarriottMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r391112800-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>391112800</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Very nice rooms, refrigerator, coffee pot, separate bedroom, pullout sofa. The pullout was not very comfortable ,but it did the job. The pool area was nice, nice fitness area. The food was a little over priced. Overall very nice place to stay, good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Very nice rooms, refrigerator, coffee pot, separate bedroom, pullout sofa. The pullout was not very comfortable ,but it did the job. The pool area was nice, nice fitness area. The food was a little over priced. Overall very nice place to stay, good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r379679693-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>379679693</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Decent place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you need to stay in the area it's a decent place. Quiet at night, pretty clean based on my room. Breakfast spot is ok and loony is nice. I've stayed at other courtyards that were better overall. Staff are ok and if your looking to do other stuff everything is a drive. Not much in walking distance. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r358870293-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>358870293</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>3 star hotel with 0 star service</t>
+  </si>
+  <si>
+    <t>From the very start I had nothing but trouble with this hotel. I called for reservations because I wanted a room block. Room blocks are when rooms are blocked off next to each other, apparently not with this hotel. I was getting married down the street and thought this hotel would be great since I have never had issues in the past with Marriotts. I reserved only 2 rooms, one for my myself and my bridesmaids and one for my sister and her boyfriend because she has a newborn baby. I asked the rep several times to the to ensure my room would be right next door to my sister, she was maid of honor and needed to go back and forth from rooms for hair and makeup and to check on her baby. The rep reassured me they would be next to each other but to block the rooms I had to pay for them upfront, which okay is understandable, I pay for both. We then check into the hotel separately and then meet up at rehearsal then dinner. It wasn't until later that night that I found out (when my sister knocked on the joining room) that we realized we were not next to each other room wise, or even the SAME FLOOR. Obviously, I was upset since I had to pay for both rooms upfront for us to not even get what I was told we were...From the very start I had nothing but trouble with this hotel. I called for reservations because I wanted a room block. Room blocks are when rooms are blocked off next to each other, apparently not with this hotel. I was getting married down the street and thought this hotel would be great since I have never had issues in the past with Marriotts. I reserved only 2 rooms, one for my myself and my bridesmaids and one for my sister and her boyfriend because she has a newborn baby. I asked the rep several times to the to ensure my room would be right next door to my sister, she was maid of honor and needed to go back and forth from rooms for hair and makeup and to check on her baby. The rep reassured me they would be next to each other but to block the rooms I had to pay for them upfront, which okay is understandable, I pay for both. We then check into the hotel separately and then meet up at rehearsal then dinner. It wasn't until later that night that I found out (when my sister knocked on the joining room) that we realized we were not next to each other room wise, or even the SAME FLOOR. Obviously, I was upset since I had to pay for both rooms upfront for us to not even get what I was told we were going to get. I immediately go down to the lobby and explain my frustration and how I specifically asked for a room block and was told several times the rooms were next to each other. The receptionist said "sorry we don't do that and we are completely booked  we have nothing for you." Upset, I go to explain to my sister they have nothing available, she now is upset and we both go back downstairs. Low and behold with both of us complaining they magically have a room open up, not next to me but down the hall. Which fine is better than going floor to floor (which was a pain because they elevator was out of service too). The whole stay from start to finish was such a hassle, everything I asked for over and over when booking did not go as promised. I became a reward member because I haven't had issues in the past, but now I am very weary. I can honestly keep going on with how terrible the service was and I only stayed one night. I joined Hilton now, i'd rather pay more than deal with Merriott again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>From the very start I had nothing but trouble with this hotel. I called for reservations because I wanted a room block. Room blocks are when rooms are blocked off next to each other, apparently not with this hotel. I was getting married down the street and thought this hotel would be great since I have never had issues in the past with Marriotts. I reserved only 2 rooms, one for my myself and my bridesmaids and one for my sister and her boyfriend because she has a newborn baby. I asked the rep several times to the to ensure my room would be right next door to my sister, she was maid of honor and needed to go back and forth from rooms for hair and makeup and to check on her baby. The rep reassured me they would be next to each other but to block the rooms I had to pay for them upfront, which okay is understandable, I pay for both. We then check into the hotel separately and then meet up at rehearsal then dinner. It wasn't until later that night that I found out (when my sister knocked on the joining room) that we realized we were not next to each other room wise, or even the SAME FLOOR. Obviously, I was upset since I had to pay for both rooms upfront for us to not even get what I was told we were...From the very start I had nothing but trouble with this hotel. I called for reservations because I wanted a room block. Room blocks are when rooms are blocked off next to each other, apparently not with this hotel. I was getting married down the street and thought this hotel would be great since I have never had issues in the past with Marriotts. I reserved only 2 rooms, one for my myself and my bridesmaids and one for my sister and her boyfriend because she has a newborn baby. I asked the rep several times to the to ensure my room would be right next door to my sister, she was maid of honor and needed to go back and forth from rooms for hair and makeup and to check on her baby. The rep reassured me they would be next to each other but to block the rooms I had to pay for them upfront, which okay is understandable, I pay for both. We then check into the hotel separately and then meet up at rehearsal then dinner. It wasn't until later that night that I found out (when my sister knocked on the joining room) that we realized we were not next to each other room wise, or even the SAME FLOOR. Obviously, I was upset since I had to pay for both rooms upfront for us to not even get what I was told we were going to get. I immediately go down to the lobby and explain my frustration and how I specifically asked for a room block and was told several times the rooms were next to each other. The receptionist said "sorry we don't do that and we are completely booked  we have nothing for you." Upset, I go to explain to my sister they have nothing available, she now is upset and we both go back downstairs. Low and behold with both of us complaining they magically have a room open up, not next to me but down the hall. Which fine is better than going floor to floor (which was a pain because they elevator was out of service too). The whole stay from start to finish was such a hassle, everything I asked for over and over when booking did not go as promised. I became a reward member because I haven't had issues in the past, but now I am very weary. I can honestly keep going on with how terrible the service was and I only stayed one night. I joined Hilton now, i'd rather pay more than deal with Merriott again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r355169803-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>355169803</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Worst Courtyard Ever</t>
+  </si>
+  <si>
+    <t>I am a black-card-holding, lifetime platinum Marriott customer so I know whereof I speak when I say this is the worst Courtyard I have ever been to in the 18 years i have been travelling for business and staying in Marriotts.
+Where do I start? It's hard to say, but lets start by mentioning that this is the first Courtyard I have stayed at in a long time that did not have a microwave. Staff is OK with that, though, because "We have one here you can come down and use." Right. I'm going to put pants on and come downstairs just to make some popcorn, not to mention being able to microwave a frozen dinner.
+But I'm not going to have a frozen dinner, anyway. The closet grocery store is inconveniently located on the far side of the 405, and this hotel has no shuttle. There is very little nearby for the walking traveller. Very poor location.
+Next on the list -- No closed captioning on the television, and I am hearing impaired. I called the desk about this, and they sent engineering up. The guy stared at the television for a few minues, oushed a lot of buttons on the remote, but accomplished nothing, although he did agree that "It's broken, all right."
+Since he could not fix the closed captioning, I sent him away and turned the television up really loud so I could hear it. This...I am a black-card-holding, lifetime platinum Marriott customer so I know whereof I speak when I say this is the worst Courtyard I have ever been to in the 18 years i have been travelling for business and staying in Marriotts.Where do I start? It's hard to say, but lets start by mentioning that this is the first Courtyard I have stayed at in a long time that did not have a microwave. Staff is OK with that, though, because "We have one here you can come down and use." Right. I'm going to put pants on and come downstairs just to make some popcorn, not to mention being able to microwave a frozen dinner.But I'm not going to have a frozen dinner, anyway. The closet grocery store is inconveniently located on the far side of the 405, and this hotel has no shuttle. There is very little nearby for the walking traveller. Very poor location.Next on the list -- No closed captioning on the television, and I am hearing impaired. I called the desk about this, and they sent engineering up. The guy stared at the television for a few minues, oushed a lot of buttons on the remote, but accomplished nothing, although he did agree that "It's broken, all right."Since he could not fix the closed captioning, I sent him away and turned the television up really loud so I could hear it. This worked fine for half an hour, until the channel I was watching, and every channel in the specrum above it, just went dark. And now, even as I write this, two maintenance guys are trying to replace that television.The television going out is an inconvenience, but the lack of closed captioning is an ADA issue and therefore a deal breaker. The lack of a microwave is a deal breaker as well.There is a perfectly good Residence Inn next door, and it had rooms for the rest of the week. The staff assured my I could check my bag there until I get off work and can get back there and get checked in. I'll be staying there, tomorrow.The manager of the Courtyard should know that the lack of a microwave and the dysfunctional, non-ADA compliant television have cost them about 150 room nights.(Final note: I am sending the maintenance guys away now. The television is still not working properly. although they did get the closed captioning back on the channels I don't want to watch.)MoreShow less</t>
+  </si>
+  <si>
+    <t>Jimmy M, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>I am a black-card-holding, lifetime platinum Marriott customer so I know whereof I speak when I say this is the worst Courtyard I have ever been to in the 18 years i have been travelling for business and staying in Marriotts.
+Where do I start? It's hard to say, but lets start by mentioning that this is the first Courtyard I have stayed at in a long time that did not have a microwave. Staff is OK with that, though, because "We have one here you can come down and use." Right. I'm going to put pants on and come downstairs just to make some popcorn, not to mention being able to microwave a frozen dinner.
+But I'm not going to have a frozen dinner, anyway. The closet grocery store is inconveniently located on the far side of the 405, and this hotel has no shuttle. There is very little nearby for the walking traveller. Very poor location.
+Next on the list -- No closed captioning on the television, and I am hearing impaired. I called the desk about this, and they sent engineering up. The guy stared at the television for a few minues, oushed a lot of buttons on the remote, but accomplished nothing, although he did agree that "It's broken, all right."
+Since he could not fix the closed captioning, I sent him away and turned the television up really loud so I could hear it. This...I am a black-card-holding, lifetime platinum Marriott customer so I know whereof I speak when I say this is the worst Courtyard I have ever been to in the 18 years i have been travelling for business and staying in Marriotts.Where do I start? It's hard to say, but lets start by mentioning that this is the first Courtyard I have stayed at in a long time that did not have a microwave. Staff is OK with that, though, because "We have one here you can come down and use." Right. I'm going to put pants on and come downstairs just to make some popcorn, not to mention being able to microwave a frozen dinner.But I'm not going to have a frozen dinner, anyway. The closet grocery store is inconveniently located on the far side of the 405, and this hotel has no shuttle. There is very little nearby for the walking traveller. Very poor location.Next on the list -- No closed captioning on the television, and I am hearing impaired. I called the desk about this, and they sent engineering up. The guy stared at the television for a few minues, oushed a lot of buttons on the remote, but accomplished nothing, although he did agree that "It's broken, all right."Since he could not fix the closed captioning, I sent him away and turned the television up really loud so I could hear it. This worked fine for half an hour, until the channel I was watching, and every channel in the specrum above it, just went dark. And now, even as I write this, two maintenance guys are trying to replace that television.The television going out is an inconvenience, but the lack of closed captioning is an ADA issue and therefore a deal breaker. The lack of a microwave is a deal breaker as well.There is a perfectly good Residence Inn next door, and it had rooms for the rest of the week. The staff assured my I could check my bag there until I get off work and can get back there and get checked in. I'll be staying there, tomorrow.The manager of the Courtyard should know that the lack of a microwave and the dysfunctional, non-ADA compliant television have cost them about 150 room nights.(Final note: I am sending the maintenance guys away now. The television is still not working properly. although they did get the closed captioning back on the channels I don't want to watch.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r352761091-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>352761091</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Comfort!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here - the bed was very comfortable, the room was ok-sized... wifi worked great.  I liked that the bistro served hot snacks and breakfast in the morning with a good selection of items to choose from.  The fitness center was adequate with a full set of dumbells, a bench and a couple of cardio machines.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r342341991-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>342341991</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Facility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an older Courtyard with basic amenities. It could use an overhaul, but our room was clean and met our needs for a family of three. The staff are very helpful and friendly. The location is near the freeway, but you can't hear the traffic. It is convenient to many area attractions. The price is moderate. </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r341513377-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>341513377</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Amazing Beds</t>
+  </si>
+  <si>
+    <t>This is an older Courtyard but it did not lack on anything as far as comfort and great customer service. The beds were very comfortable and the rooms were very quiet even though I was streetside. I would be glad to stay here again next time I am in the area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r334118449-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>334118449</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Convenient choice for business in nearby Costa Mesa</t>
+  </si>
+  <si>
+    <t>Stayed here on business for meetings in Costa Mesa.  Consistent, typical experience as with other Courtyard properties.  Pros:  - Clean, quiet - Comfortable beds &amp; pillows - Convenient to freeway Cons: - Fairly limited dining choices nearby</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r311419044-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>311419044</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Courtyard by Marriott Huntington Beach Fountain Valley - Nice Stay!</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay at the Courtyard by Marriott Huntington Beach Fountain Valley while in Orange County this week. Excellent location with the new Courtyard design including the Bistro, a nice addition. Great staff with a well designed lobby and nice room. Always Great!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay at the Courtyard by Marriott Huntington Beach Fountain Valley while in Orange County this week. Excellent location with the new Courtyard design including the Bistro, a nice addition. Great staff with a well designed lobby and nice room. Always Great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r304102374-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>304102374</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>The hotel was located very conveniently off the freeway, so access was easy. We asked for a room facing away from the freeway, and we did not hear any road noise. The room itself was on the small side, which was fine, but the sink/vanity/coffee area was very small, and it was not really possible to have more than one person in that area. And if someone was coming out of the bathroom into the sink area, there was the possibility of getting whacked with the bathroom door if you were accessing the little refrigerator at the same time. As with other Courtyards, there is no complimentary coffee or tea in the lobby, which is a shame, and breakfast is not included. There is a rather pricey bistro in the lobby, though, so you can buy a $4 cup of coffee and a $3 muffin there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>The hotel was located very conveniently off the freeway, so access was easy. We asked for a room facing away from the freeway, and we did not hear any road noise. The room itself was on the small side, which was fine, but the sink/vanity/coffee area was very small, and it was not really possible to have more than one person in that area. And if someone was coming out of the bathroom into the sink area, there was the possibility of getting whacked with the bathroom door if you were accessing the little refrigerator at the same time. As with other Courtyards, there is no complimentary coffee or tea in the lobby, which is a shame, and breakfast is not included. There is a rather pricey bistro in the lobby, though, so you can buy a $4 cup of coffee and a $3 muffin there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r303012967-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>303012967</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>As good as expected...</t>
+  </si>
+  <si>
+    <t>...and so it was perfect for this type and category of hotel. Very friendly service, even when my room lights didn't work properly at night and help was needed. Spend even some time at the little pool which was used by some parents with their kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>...and so it was perfect for this type and category of hotel. Very friendly service, even when my room lights didn't work properly at night and help was needed. Spend even some time at the little pool which was used by some parents with their kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r288912836-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>288912836</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Recent Stay</t>
+  </si>
+  <si>
+    <t>Stayed here recently while visiting family. Good location and close to freeway. Excellent place to stay for a long period (over a week) and you can really get comfortable. Love the breakfasts and afternoon snacks.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here recently while visiting family. Good location and close to freeway. Excellent place to stay for a long period (over a week) and you can really get comfortable. Love the breakfasts and afternoon snacks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r283769817-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>283769817</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Short overnight stay in Huntington Beach</t>
+  </si>
+  <si>
+    <t>Stayed here overnight on business.  Room was nice, clean, everything you'd expect from a Marriott.Staff was "okay," not overly friendly or not.So why a 3 star review?  Frankly, I almost forgot to write a review about this hotel, because it was so forgettable.  The hotel left little to no impression on me, one way or the other, so I felt that a solid 3 was the most appropriate.Bottom line, if you are looking for a convenient, reliable, hotel, and primarily need a quite place to sleep, this is a good option.  If you're looking for something more, you'd be unlikely to get anything more than a good room.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here overnight on business.  Room was nice, clean, everything you'd expect from a Marriott.Staff was "okay," not overly friendly or not.So why a 3 star review?  Frankly, I almost forgot to write a review about this hotel, because it was so forgettable.  The hotel left little to no impression on me, one way or the other, so I felt that a solid 3 was the most appropriate.Bottom line, if you are looking for a convenient, reliable, hotel, and primarily need a quite place to sleep, this is a good option.  If you're looking for something more, you'd be unlikely to get anything more than a good room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r280913741-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>280913741</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>solid place to stay</t>
+  </si>
+  <si>
+    <t>Nice clean roomy hotel with decent prices. The location is pretty good. Right off the 405 freeway close to the beach. Only problem is that the 405 traffic is terrible in that stretch. Almost seems to be there 24 hours a day!!Free wifi is serviceable. I was able to get 0.7-3 mb/s download speed depending on time of day. Parking is free. Service is good enough.  Rooms show signs of age here and there but are clean and well kept. I would stay there again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice clean roomy hotel with decent prices. The location is pretty good. Right off the 405 freeway close to the beach. Only problem is that the 405 traffic is terrible in that stretch. Almost seems to be there 24 hours a day!!Free wifi is serviceable. I was able to get 0.7-3 mb/s download speed depending on time of day. Parking is free. Service is good enough.  Rooms show signs of age here and there but are clean and well kept. I would stay there again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r274819456-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>274819456</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Soccer Tourny Hangout</t>
+  </si>
+  <si>
+    <t>We stayed here for one night during my daughter's weekend soccer tournament (held in Huntington Beach). It was a good location, friendly staff, room was roomy enough for 2 adults &amp; 1 child, pool and sitting area were nice. Would love it if they had outside heaters or a fire pit to warm the bones. Overall, a nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for one night during my daughter's weekend soccer tournament (held in Huntington Beach). It was a good location, friendly staff, room was roomy enough for 2 adults &amp; 1 child, pool and sitting area were nice. Would love it if they had outside heaters or a fire pit to warm the bones. Overall, a nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r273647904-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>273647904</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>ugh</t>
+  </si>
+  <si>
+    <t>Went to this location &amp; I wanted a room.  I was given a quote and asked what if I had my military ID.  The clerk (can't remember her name) said "well if you have ID, then you can get the rate at.....Her attitude towards me caused me to go to another location.  I am a miltiary service person and of course I'd present my ID.  That rude encounter sent me to another location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Went to this location &amp; I wanted a room.  I was given a quote and asked what if I had my military ID.  The clerk (can't remember her name) said "well if you have ID, then you can get the rate at.....Her attitude towards me caused me to go to another location.  I am a miltiary service person and of course I'd present my ID.  That rude encounter sent me to another location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r273582928-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>273582928</t>
+  </si>
+  <si>
+    <t>Solid Hotel - Careful Walking around 405</t>
+  </si>
+  <si>
+    <t>The beach is not in walking distance.  It takes two hours to walk (and you have to be careful around the 405) but there is a bike path the whole way. The room was good.  The treadmill was in good repair when I wanted an early morning run.  There is a cafe/bistro type set up in the lobby which is expensive but nice if you are tired after a day or working or walking.  It was too cold to enjoy the pool but the deck had a comfortable set up for enjoying the sun.The staff was great and suggested a great park about a mile down Brookhurst with an exercise path.MoreShow less</t>
+  </si>
+  <si>
+    <t>The beach is not in walking distance.  It takes two hours to walk (and you have to be careful around the 405) but there is a bike path the whole way. The room was good.  The treadmill was in good repair when I wanted an early morning run.  There is a cafe/bistro type set up in the lobby which is expensive but nice if you are tired after a day or working or walking.  It was too cold to enjoy the pool but the deck had a comfortable set up for enjoying the sun.The staff was great and suggested a great park about a mile down Brookhurst with an exercise path.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r271535669-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>271535669</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Great stay for a business meeting</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights to attended a business meeting. This property is very quite, great service and a clean comfortable room. Check in was a breeze and service at the hotel cafe/bar was great. No issues, great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded May 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights to attended a business meeting. This property is very quite, great service and a clean comfortable room. Check in was a breeze and service at the hotel cafe/bar was great. No issues, great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r269955685-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>269955685</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Extremely Satisfied!</t>
+  </si>
+  <si>
+    <t>Our group was extremely satisfied with our stay at this hotel.  The staff was very pleasant and accommodating.  The Courtyard Marriott offers a delicious breakfast, pool, and lounge area.  Adriana Reynolds was great to work with.  She helped answer all our questions and I would definitely book with her again.thank you Courtyard Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>Our group was extremely satisfied with our stay at this hotel.  The staff was very pleasant and accommodating.  The Courtyard Marriott offers a delicious breakfast, pool, and lounge area.  Adriana Reynolds was great to work with.  She helped answer all our questions and I would definitely book with her again.thank you Courtyard Marriott!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r269770895-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>269770895</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Nice, quiet hotel</t>
+  </si>
+  <si>
+    <t>A very convenient hotel for my visits to visit family in the area. The rooms are clean and comfortable, with plenty of amenities. Our stay included a breakfast and coffee in the bistro. The food was good, the coffee hot, and the service was quick.MoreShow less</t>
+  </si>
+  <si>
+    <t>A very convenient hotel for my visits to visit family in the area. The rooms are clean and comfortable, with plenty of amenities. Our stay included a breakfast and coffee in the bistro. The food was good, the coffee hot, and the service was quick.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r259853510-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>259853510</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>My Favorite Place to Stay in OC</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 night  Jan/15, the place was clean and well maintained just off 405 Freeway,The staff  was outstanding and polite and helpful, I have to give a shout out the bartender for her great service,We will definitely be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 night  Jan/15, the place was clean and well maintained just off 405 Freeway,The staff  was outstanding and polite and helpful, I have to give a shout out the bartender for her great service,We will definitely be returning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r257691780-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>257691780</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>What you would expect</t>
+  </si>
+  <si>
+    <t>I stayed here on business and found it serviceable.  They do not offer free breakfast but have a "restaurant" in the lobby.  It's really a counter where you can order food.  I didn't eat anything from here so can't comment.  There is a gas station across the street that sells some convenience food items.The room and property was clean.  The air conditioner was very noisy, and leaving the window open was problematic due to the closeness of the freeway.There are a number of restaurants within a mile or two, and Huntington Beach was about a ten minute drive.  The hotel itself is on a very busy intersection so not the most walkable area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded March 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here on business and found it serviceable.  They do not offer free breakfast but have a "restaurant" in the lobby.  It's really a counter where you can order food.  I didn't eat anything from here so can't comment.  There is a gas station across the street that sells some convenience food items.The room and property was clean.  The air conditioner was very noisy, and leaving the window open was problematic due to the closeness of the freeway.There are a number of restaurants within a mile or two, and Huntington Beach was about a ten minute drive.  The hotel itself is on a very busy intersection so not the most walkable area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r257506741-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>257506741</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Basic Courtyard, okay for business trips</t>
+  </si>
+  <si>
+    <t>This courtyard has undergone the transition to the new "business traveler" friendly.  Rooms have ben updated as well as the lobby area.  Work out center is very small and has very few machines.  My biggest complaint is that they now charge for everything.  Used to really enjoy walking downstairs for a cup of coffee and paper in the early morning.  Now the coffee is $5.00 Starbucks.  The breakfast is very expensive for what you get so plan to go out to eat.  Not sure how the Residence Inn next door can be lower priced and include free breakfast?????MoreShow less</t>
+  </si>
+  <si>
+    <t>This courtyard has undergone the transition to the new "business traveler" friendly.  Rooms have ben updated as well as the lobby area.  Work out center is very small and has very few machines.  My biggest complaint is that they now charge for everything.  Used to really enjoy walking downstairs for a cup of coffee and paper in the early morning.  Now the coffee is $5.00 Starbucks.  The breakfast is very expensive for what you get so plan to go out to eat.  Not sure how the Residence Inn next door can be lower priced and include free breakfast?????More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r253178324-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>253178324</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>OK at best!</t>
+  </si>
+  <si>
+    <t>Yes, some of the other reviews about friendly staff are true.  The front desk people and the restaurant staff are super nice, but things stop there. Cleanliness of the rooms are about average for the courtyard chain, but the rooms are tiny!!!  I don't think I have ever stayed in a room so small in the U.S.   We had a King room with a rollaway bed for the kids. After we brought all of our luggage in, we could barely get around between the beds and the hallway.  Furthermore, the rooms are a bit dated.  I don't think they have been updated in quite a while. The hotel is literally right on top of the 405 freeway, and the rooms are surprisingly well soundproofed.  But in the middle of the night, you can still hear the big rigs and motorcycles going by. There is no complimentary breakfasts like other hotel chains, and the food is extremely expensive. A small coffee, yogurt and toast costs 10 dollars. Luckily I had the government rate, so 129 in Orange County is not too bad.  But I think I would shop around next time. MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Yes, some of the other reviews about friendly staff are true.  The front desk people and the restaurant staff are super nice, but things stop there. Cleanliness of the rooms are about average for the courtyard chain, but the rooms are tiny!!!  I don't think I have ever stayed in a room so small in the U.S.   We had a King room with a rollaway bed for the kids. After we brought all of our luggage in, we could barely get around between the beds and the hallway.  Furthermore, the rooms are a bit dated.  I don't think they have been updated in quite a while. The hotel is literally right on top of the 405 freeway, and the rooms are surprisingly well soundproofed.  But in the middle of the night, you can still hear the big rigs and motorcycles going by. There is no complimentary breakfasts like other hotel chains, and the food is extremely expensive. A small coffee, yogurt and toast costs 10 dollars. Luckily I had the government rate, so 129 in Orange County is not too bad.  But I think I would shop around next time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r244272845-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>244272845</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>THE MOST FRIENDLY STAFF I HAVE EVER MET</t>
+  </si>
+  <si>
+    <t>Thank you Courtyard Staff.  We were visiting Huntington Beach to volunteer for Samaritans Purse, Operation Christmas Child Shoebox.  The clerk noticed our shirts with the logo.  She told us that she had read an article about a couple and the shoebox story.  She actually looked up the article and when we got back that evening and envelope was under our door with the article.  As for the hotel it is very clean in all areas.  I love the outside patio that has comfortable  chairs to relax in.   This hotel is just of a busy highway, however the outside noise in the room was barely noticeable.   As always it's a Marriott and the beds are always great.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Thank you Courtyard Staff.  We were visiting Huntington Beach to volunteer for Samaritans Purse, Operation Christmas Child Shoebox.  The clerk noticed our shirts with the logo.  She told us that she had read an article about a couple and the shoebox story.  She actually looked up the article and when we got back that evening and envelope was under our door with the article.  As for the hotel it is very clean in all areas.  I love the outside patio that has comfortable  chairs to relax in.   This hotel is just of a busy highway, however the outside noise in the room was barely noticeable.   As always it's a Marriott and the beds are always great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r243067483-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>243067483</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice </t>
+  </si>
+  <si>
+    <t>Very clean and friendly Courtyard.  Great location with easy access off of the 405.  Quiet w nice breakfast.  We stayed here to visit relatives in Huntington Beach and to go to Disneyland. Worked great.  We would stay here again. Nice commons area too.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Very clean and friendly Courtyard.  Great location with easy access off of the 405.  Quiet w nice breakfast.  We stayed here to visit relatives in Huntington Beach and to go to Disneyland. Worked great.  We would stay here again. Nice commons area too.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r231544498-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>231544498</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Good stay for business trip</t>
+  </si>
+  <si>
+    <t>I stayed at the Fountain Valley Courtyard for two nights while on a business trip.  Everything was clean and the hotel is well-located for Orange County visits.  The front desk staff was also incredibly helpful in suggesting how to spend a few hours of free time.  I'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at the Fountain Valley Courtyard for two nights while on a business trip.  Everything was clean and the hotel is well-located for Orange County visits.  The front desk staff was also incredibly helpful in suggesting how to spend a few hours of free time.  I'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r230575144-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>230575144</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Not Great...</t>
+  </si>
+  <si>
+    <t>We didn't think twice about booking since it had the Marriott name, but we were disappointed when we got to our room.  We found dirty towels on the floor when we walked in, and the carpets were so filthy.   There were huge stains, and we didn't feel comfortable walking without shoes on.  We went down the next morning, and the staff was fabulous.  They were so kind, and switched us rooms, and even gave us free breakfast.  The next room we were in was better, but not by much.  It seems the whole hotel could use new carpet, because the hallways were bad as well.  The beds were fair.  The bathrooms had dirt in the cracks, and were outdated.  Overall I wouldn't stay here again.  I would have given the hotel a 2 star if it wasn't for the staff.  They were great.  :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2014</t>
+  </si>
+  <si>
+    <t>We didn't think twice about booking since it had the Marriott name, but we were disappointed when we got to our room.  We found dirty towels on the floor when we walked in, and the carpets were so filthy.   There were huge stains, and we didn't feel comfortable walking without shoes on.  We went down the next morning, and the staff was fabulous.  They were so kind, and switched us rooms, and even gave us free breakfast.  The next room we were in was better, but not by much.  It seems the whole hotel could use new carpet, because the hallways were bad as well.  The beds were fair.  The bathrooms had dirt in the cracks, and were outdated.  Overall I wouldn't stay here again.  I would have given the hotel a 2 star if it wasn't for the staff.  They were great.  :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r230339280-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>230339280</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Ritz Carlton Service with Marriott Pricing</t>
+  </si>
+  <si>
+    <t>I had the most amazing experience with the Courtyard Marriot in Huntington Beach.  After a very long day of working, I asked Eddie where I could refill a few 5 gallon water bottles.   Eddie immediately volunteered to fill them for me!  That type of service is hard to come by!   In fact Eddie insisted that he help me by filling the bottles.   Her further explained..."This is my home and I want you to feel at home in my house!"  WOWAn hour later I realized that I forgot my cell phone charger.   I called down and Michelle answered the phone.  Michelle informed me that if I was willing to leave my cell phone with her overnight, she would use her personal cord to charge my phone.  AGAIN...GREAT service.The next morning, I ran into Ashley and asked about my cell phone.   Ashley enthusiastically  exclaimed "Yes, room 235...I have your cell phone charger and some bottles of water!"  I worked with three staff members on the property and they acted cohesively as ONE unit.   I live in Los Angeles and we simply don't get this type of phenomenal service in the city.   I am looking forward to staying at the Courtyard Marriott again.  Kudos to the General Manager Steven Steeg for amazing leadership!MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded September 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2014</t>
+  </si>
+  <si>
+    <t>I had the most amazing experience with the Courtyard Marriot in Huntington Beach.  After a very long day of working, I asked Eddie where I could refill a few 5 gallon water bottles.   Eddie immediately volunteered to fill them for me!  That type of service is hard to come by!   In fact Eddie insisted that he help me by filling the bottles.   Her further explained..."This is my home and I want you to feel at home in my house!"  WOWAn hour later I realized that I forgot my cell phone charger.   I called down and Michelle answered the phone.  Michelle informed me that if I was willing to leave my cell phone with her overnight, she would use her personal cord to charge my phone.  AGAIN...GREAT service.The next morning, I ran into Ashley and asked about my cell phone.   Ashley enthusiastically  exclaimed "Yes, room 235...I have your cell phone charger and some bottles of water!"  I worked with three staff members on the property and they acted cohesively as ONE unit.   I live in Los Angeles and we simply don't get this type of phenomenal service in the city.   I am looking forward to staying at the Courtyard Marriott again.  Kudos to the General Manager Steven Steeg for amazing leadership!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r227738202-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>227738202</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Great Experience - Needs Updates</t>
+  </si>
+  <si>
+    <t>The only reason I can't give 5 stars is because the property is a bit dated, BUT, don't let that fool you. I've stayed at several Marriott properties, mainly Courtyard, and I'd have to say the staff at this location were the friendliest I've ever encountered. From the front desk staff, to the housekeeping staff, to the Bistro staff - all extremely professional, courteous, and accommodating. All my requests were honored with no hesitation and delivered with a warm smile. 
+We stayed this past weekend (9/6-9/7) in a king suite. I asked for a corner room on their 3rd floor and was very pleased with the room. Yes, it's a bit dated, but it wasn't a throwback to the 80's or anything - all the room needed was a newer furniture. window dressings, and a wall thermostat instead of the old school heating/cooling unit that sits on the floor - and it would much more modern. That said, the room was still really nice, big, and comfortable. I especially liked the fact that the sleeping quarters were separate from the living room - I've stayed in other suites where they were combined and wasn't impressed. That was not the case with our room.
+The balcony was a bit narrow but we still sat comfortably with a nice view of the pool and the mountains. The living room area was really spacious - particularly near the microwave/refrigerator area - it's almost...The only reason I can't give 5 stars is because the property is a bit dated, BUT, don't let that fool you. I've stayed at several Marriott properties, mainly Courtyard, and I'd have to say the staff at this location were the friendliest I've ever encountered. From the front desk staff, to the housekeeping staff, to the Bistro staff - all extremely professional, courteous, and accommodating. All my requests were honored with no hesitation and delivered with a warm smile. We stayed this past weekend (9/6-9/7) in a king suite. I asked for a corner room on their 3rd floor and was very pleased with the room. Yes, it's a bit dated, but it wasn't a throwback to the 80's or anything - all the room needed was a newer furniture. window dressings, and a wall thermostat instead of the old school heating/cooling unit that sits on the floor - and it would much more modern. That said, the room was still really nice, big, and comfortable. I especially liked the fact that the sleeping quarters were separate from the living room - I've stayed in other suites where they were combined and wasn't impressed. That was not the case with our room.The balcony was a bit narrow but we still sat comfortably with a nice view of the pool and the mountains. The living room area was really spacious - particularly near the microwave/refrigerator area - it's almost a waste of space. They could put another couch/loveseat adjacent to the original one along with a nice coffee table behind it and that would be a great use of the space. It would also allow seating for more than just 2 people - which is ideal if you plan to use the room for any kind of entertaining. My rate included breakfast for 2 the next morning and I took full advantage at The Bistro. The menu options are a bit limited - usual breakfast fare (eggs, bacon, sausage, etc.) and coffee/tea from Starbucks. There is also a Starbucks on site, if needed, and I'm sure it's very much needed! Breakfast was really tasty - and inclusive of everything you would expect at breakfast. We were very pleased. We ended up getting our food to go as we had woken up maybe 10 minutes beforehand and I knew we weren't in any kind of shape to eat outside of our suite. It all worked out very well.Bottom line, this is a really nice property. I would stay again and highly recommend if you're looking for a reasonably priced property with free WiFi, no resort fees, and free parking. Gotta love Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>The only reason I can't give 5 stars is because the property is a bit dated, BUT, don't let that fool you. I've stayed at several Marriott properties, mainly Courtyard, and I'd have to say the staff at this location were the friendliest I've ever encountered. From the front desk staff, to the housekeeping staff, to the Bistro staff - all extremely professional, courteous, and accommodating. All my requests were honored with no hesitation and delivered with a warm smile. 
+We stayed this past weekend (9/6-9/7) in a king suite. I asked for a corner room on their 3rd floor and was very pleased with the room. Yes, it's a bit dated, but it wasn't a throwback to the 80's or anything - all the room needed was a newer furniture. window dressings, and a wall thermostat instead of the old school heating/cooling unit that sits on the floor - and it would much more modern. That said, the room was still really nice, big, and comfortable. I especially liked the fact that the sleeping quarters were separate from the living room - I've stayed in other suites where they were combined and wasn't impressed. That was not the case with our room.
+The balcony was a bit narrow but we still sat comfortably with a nice view of the pool and the mountains. The living room area was really spacious - particularly near the microwave/refrigerator area - it's almost...The only reason I can't give 5 stars is because the property is a bit dated, BUT, don't let that fool you. I've stayed at several Marriott properties, mainly Courtyard, and I'd have to say the staff at this location were the friendliest I've ever encountered. From the front desk staff, to the housekeeping staff, to the Bistro staff - all extremely professional, courteous, and accommodating. All my requests were honored with no hesitation and delivered with a warm smile. We stayed this past weekend (9/6-9/7) in a king suite. I asked for a corner room on their 3rd floor and was very pleased with the room. Yes, it's a bit dated, but it wasn't a throwback to the 80's or anything - all the room needed was a newer furniture. window dressings, and a wall thermostat instead of the old school heating/cooling unit that sits on the floor - and it would much more modern. That said, the room was still really nice, big, and comfortable. I especially liked the fact that the sleeping quarters were separate from the living room - I've stayed in other suites where they were combined and wasn't impressed. That was not the case with our room.The balcony was a bit narrow but we still sat comfortably with a nice view of the pool and the mountains. The living room area was really spacious - particularly near the microwave/refrigerator area - it's almost a waste of space. They could put another couch/loveseat adjacent to the original one along with a nice coffee table behind it and that would be a great use of the space. It would also allow seating for more than just 2 people - which is ideal if you plan to use the room for any kind of entertaining. My rate included breakfast for 2 the next morning and I took full advantage at The Bistro. The menu options are a bit limited - usual breakfast fare (eggs, bacon, sausage, etc.) and coffee/tea from Starbucks. There is also a Starbucks on site, if needed, and I'm sure it's very much needed! Breakfast was really tasty - and inclusive of everything you would expect at breakfast. We were very pleased. We ended up getting our food to go as we had woken up maybe 10 minutes beforehand and I knew we weren't in any kind of shape to eat outside of our suite. It all worked out very well.Bottom line, this is a really nice property. I would stay again and highly recommend if you're looking for a reasonably priced property with free WiFi, no resort fees, and free parking. Gotta love Marriott!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r226968841-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>226968841</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>This hotel was very nice. It was clean, quiet, and just what we needed to help us further enjoy our vacation in the area. The staff are all nice. Its in a good spot where you're not too far from all the attractions of huntington beach and orange county.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This hotel was very nice. It was clean, quiet, and just what we needed to help us further enjoy our vacation in the area. The staff are all nice. Its in a good spot where you're not too far from all the attractions of huntington beach and orange county.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r225996740-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>225996740</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights and we absolutely loved it! We got a king size bed with a pull out couch for our daughter all of which were comfortable! The tv stations that were offered were great and we ordered pizza from one of the places they mentioned in their booklet and were pleasantly surprised at how good it was. The only thing is I wish they had vending machines or cheaper drinks because the drinka were limited in what they had to offer at their little market and they were completely over priced. We will definitely be coming back again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights and we absolutely loved it! We got a king size bed with a pull out couch for our daughter all of which were comfortable! The tv stations that were offered were great and we ordered pizza from one of the places they mentioned in their booklet and were pleasantly surprised at how good it was. The only thing is I wish they had vending machines or cheaper drinks because the drinka were limited in what they had to offer at their little market and they were completely over priced. We will definitely be coming back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r218792954-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>218792954</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights and we had great stay. It's a big, spread out property, lovely grounds and nice little pool. Typical Courtyard, good wi fi, we took advantage of laundry which was $1.50 per wash and dry, friendly service but the best part was the location. Few blocks down Brookhurst street is Starbucks, Ralph's, Applebee's etc. The only thing that tick me off was the Starbucks coffee that hotel was selling in the lobby for more than what it cost at Starbucks but it was nothing like the Starbucks coffee. There's only few things worse than week coffee in my book so this put quite a dent in my morning. Other than that, our stay was good, staff are friendly and polite and I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights and we had great stay. It's a big, spread out property, lovely grounds and nice little pool. Typical Courtyard, good wi fi, we took advantage of laundry which was $1.50 per wash and dry, friendly service but the best part was the location. Few blocks down Brookhurst street is Starbucks, Ralph's, Applebee's etc. The only thing that tick me off was the Starbucks coffee that hotel was selling in the lobby for more than what it cost at Starbucks but it was nothing like the Starbucks coffee. There's only few things worse than week coffee in my book so this put quite a dent in my morning. Other than that, our stay was good, staff are friendly and polite and I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r216613735-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>216613735</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Fleas</t>
+  </si>
+  <si>
+    <t>I checked into to the hotel after 10 on Friday the 11th of July without advanced reservations. They had only two remaining rooms, both double queens. The one they gave me was a handicapped equipped room. When I woke up in the morning I was covered in flea bites. I put my bags in my car and went back in to talk to the manager, passing two different families leaving the back door with dogs. When I showed the desk clerk the flea bites he said he would adjust the bill. I had paid $165 and he took $100 off.  I asked if they allowed dogs in all the rooms and he said dogs weren't allowed at all. When I told him I had passed dogs leaving the hotel, he just said, "Well, they aren't suppose to be there."  So paying $65 for a flea bite hotel is about right.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>I checked into to the hotel after 10 on Friday the 11th of July without advanced reservations. They had only two remaining rooms, both double queens. The one they gave me was a handicapped equipped room. When I woke up in the morning I was covered in flea bites. I put my bags in my car and went back in to talk to the manager, passing two different families leaving the back door with dogs. When I showed the desk clerk the flea bites he said he would adjust the bill. I had paid $165 and he took $100 off.  I asked if they allowed dogs in all the rooms and he said dogs weren't allowed at all. When I told him I had passed dogs leaving the hotel, he just said, "Well, they aren't suppose to be there."  So paying $65 for a flea bite hotel is about right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r216084299-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>216084299</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Terrific experience!</t>
+  </si>
+  <si>
+    <t>We picked this property because it was close to an event we were attending, and we were surprised and delighted by what we got for the money. Bed was comfortable, room was well appointed, grounds were neat, and you can't beat the location. This will definitely be our go-to hotel for our OC visits!MoreShow less</t>
+  </si>
+  <si>
+    <t>We picked this property because it was close to an event we were attending, and we were surprised and delighted by what we got for the money. Bed was comfortable, room was well appointed, grounds were neat, and you can't beat the location. This will definitely be our go-to hotel for our OC visits!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r209650755-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>209650755</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Best Courtyard in Orange County</t>
+  </si>
+  <si>
+    <t>The front desk personnel is excellent.  I stay at this hotel at least once a month and am always greeted with a smile. The check in process is fast &amp; efficient. Ashley &amp; the manager, Steve, provide excellent customer service. This Courtyard is conveniently located by the 405 freeway and many restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2014</t>
+  </si>
+  <si>
+    <t>The front desk personnel is excellent.  I stay at this hotel at least once a month and am always greeted with a smile. The check in process is fast &amp; efficient. Ashley &amp; the manager, Steve, provide excellent customer service. This Courtyard is conveniently located by the 405 freeway and many restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r209347723-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>209347723</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel numerous times due to its location.  Huntington Beach and Newport Beach are not too far away, but it definitely isn't next to the ocean if that is what you need.  This is why the rate is reasonable.  The lobby area was remodeled and it is quite nice.  The hall carpets seem older as well as the hall ceiling which still has the popcorn texture on it.  Also, the rooms don't seem to be remodeled and that is evident by the bathroom tub/shower as well as the uncomfortable bed.  If you get a room near the freeway, it can be loud with the traffic.  The staff is friendly and the breakfast food/drinks are good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel numerous times due to its location.  Huntington Beach and Newport Beach are not too far away, but it definitely isn't next to the ocean if that is what you need.  This is why the rate is reasonable.  The lobby area was remodeled and it is quite nice.  The hall carpets seem older as well as the hall ceiling which still has the popcorn texture on it.  Also, the rooms don't seem to be remodeled and that is evident by the bathroom tub/shower as well as the uncomfortable bed.  If you get a room near the freeway, it can be loud with the traffic.  The staff is friendly and the breakfast food/drinks are good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r208854764-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>208854764</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Clean hotel with friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel is easy to get to from the John Wayne airport. The staff were friendly and very helpful. The pool area is nice. The beds were comfortable and the room was clean. This hotel was in a safe location and near other attractionsMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is easy to get to from the John Wayne airport. The staff were friendly and very helpful. The pool area is nice. The beds were comfortable and the room was clean. This hotel was in a safe location and near other attractionsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r205423886-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>205423886</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Nice new lobby, room was a little dated, but clean</t>
+  </si>
+  <si>
+    <t>Ok, so they remodeled the lobby and it was worth it, saw a lot of people hanging out there. Checking in was painless and the staff was friendly. I was using a Marriott e-certifacte so the room was free and perhaps I paid a price for that. Was give a room directly across from the elevator. Room was small, in fact I almost broke my toe in the middle of the night, walking back from the bathroom. The couch left on 12 inches or so between the bed to walk by and get into. Paint peeling in the ceiling of the shower. Also, I've notice in my last few stays at a Marriott, my Silver Elite "Priority" late checkout has only gotten me an extra hour, which I imagine anybody can get if they ask. All that said, not much better in Fountain Valley.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded May 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2014</t>
+  </si>
+  <si>
+    <t>Ok, so they remodeled the lobby and it was worth it, saw a lot of people hanging out there. Checking in was painless and the staff was friendly. I was using a Marriott e-certifacte so the room was free and perhaps I paid a price for that. Was give a room directly across from the elevator. Room was small, in fact I almost broke my toe in the middle of the night, walking back from the bathroom. The couch left on 12 inches or so between the bed to walk by and get into. Paint peeling in the ceiling of the shower. Also, I've notice in my last few stays at a Marriott, my Silver Elite "Priority" late checkout has only gotten me an extra hour, which I imagine anybody can get if they ask. All that said, not much better in Fountain Valley.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r199400755-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>199400755</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Overpriced, no breakfast</t>
+  </si>
+  <si>
+    <t>I paid $173 for a solo traveller. The hotel is clean, modern(ish), staff are friendly , and there is WiFi. In general it is a decent place,but for a room costing that much the least I expect is for breakfast to be included in the price. What kind of hotel these days doesn't do this? It's so standard across the world. There IS a bistro in the lobby where you can get something to eat, so the least the hotel can do is provide some kind of voucher to their guests. The bistro is over priced too, by the way.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>I paid $173 for a solo traveller. The hotel is clean, modern(ish), staff are friendly , and there is WiFi. In general it is a decent place,but for a room costing that much the least I expect is for breakfast to be included in the price. What kind of hotel these days doesn't do this? It's so standard across the world. There IS a bistro in the lobby where you can get something to eat, so the least the hotel can do is provide some kind of voucher to their guests. The bistro is over priced too, by the way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r193079976-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>193079976</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We spent two nights here while at the Surf City Marathon.  The hotel was very nice.  Great pool and hot tub.  The employees were friendly and had already arranged for us to have late check out and a taxi for me to get to the race start.  The room was nice and comfortable.  We would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded February 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2014</t>
+  </si>
+  <si>
+    <t>We spent two nights here while at the Surf City Marathon.  The hotel was very nice.  Great pool and hot tub.  The employees were friendly and had already arranged for us to have late check out and a taxi for me to get to the race start.  The room was nice and comfortable.  We would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r192036274-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>192036274</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Beware</t>
+  </si>
+  <si>
+    <t>We booked this hotel as we were going to a funeral and it was the closest with available rooms.  We arrived at this hotel and our initial though was it was okay a little outdated but satisfactory.  That night we pulled out the sofa sleeper to find out it was broke.  We had to sleep on the floor.  The blanket had something on it that made me super itchy.  The floor had some chemical that made it where I couldn't breathe so I spent most of the night in a chair.  I was told the bed however was quite comfortable.  The property was almost sold out when I booked and the one bedroom suite was the only thing that would accommodate four of us.  My mother-in-law is a smoker and was careful to make sure she smoked outside.  In the morning we noticed a sign outside that said the hotel has chemicals that may cause cancer and other problems.  We canceled our second night, we also had our newborn with us.  We got home and saw an additional charge on our card.  My husband called the hotel to find out we were charged an additional $250 because my mother in law put a cigarette butt in the trash can.  There response was she should of thrown it on the ground outside.  My husband talked to three people and no one even tried to compromise.  So we spend $400 on a...We booked this hotel as we were going to a funeral and it was the closest with available rooms.  We arrived at this hotel and our initial though was it was okay a little outdated but satisfactory.  That night we pulled out the sofa sleeper to find out it was broke.  We had to sleep on the floor.  The blanket had something on it that made me super itchy.  The floor had some chemical that made it where I couldn't breathe so I spent most of the night in a chair.  I was told the bed however was quite comfortable.  The property was almost sold out when I booked and the one bedroom suite was the only thing that would accommodate four of us.  My mother-in-law is a smoker and was careful to make sure she smoked outside.  In the morning we noticed a sign outside that said the hotel has chemicals that may cause cancer and other problems.  We canceled our second night, we also had our newborn with us.  We got home and saw an additional charge on our card.  My husband called the hotel to find out we were charged an additional $250 because my mother in law put a cigarette butt in the trash can.  There response was she should of thrown it on the ground outside.  My husband talked to three people and no one even tried to compromise.  So we spend $400 on a room for us to get exposed to chemicals that could cause cancer and reproductive problems.  Plus break out in a rash and sleep in a chair.  I wouldn't recommend this hotel to my enemy.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2014</t>
+  </si>
+  <si>
+    <t>We booked this hotel as we were going to a funeral and it was the closest with available rooms.  We arrived at this hotel and our initial though was it was okay a little outdated but satisfactory.  That night we pulled out the sofa sleeper to find out it was broke.  We had to sleep on the floor.  The blanket had something on it that made me super itchy.  The floor had some chemical that made it where I couldn't breathe so I spent most of the night in a chair.  I was told the bed however was quite comfortable.  The property was almost sold out when I booked and the one bedroom suite was the only thing that would accommodate four of us.  My mother-in-law is a smoker and was careful to make sure she smoked outside.  In the morning we noticed a sign outside that said the hotel has chemicals that may cause cancer and other problems.  We canceled our second night, we also had our newborn with us.  We got home and saw an additional charge on our card.  My husband called the hotel to find out we were charged an additional $250 because my mother in law put a cigarette butt in the trash can.  There response was she should of thrown it on the ground outside.  My husband talked to three people and no one even tried to compromise.  So we spend $400 on a...We booked this hotel as we were going to a funeral and it was the closest with available rooms.  We arrived at this hotel and our initial though was it was okay a little outdated but satisfactory.  That night we pulled out the sofa sleeper to find out it was broke.  We had to sleep on the floor.  The blanket had something on it that made me super itchy.  The floor had some chemical that made it where I couldn't breathe so I spent most of the night in a chair.  I was told the bed however was quite comfortable.  The property was almost sold out when I booked and the one bedroom suite was the only thing that would accommodate four of us.  My mother-in-law is a smoker and was careful to make sure she smoked outside.  In the morning we noticed a sign outside that said the hotel has chemicals that may cause cancer and other problems.  We canceled our second night, we also had our newborn with us.  We got home and saw an additional charge on our card.  My husband called the hotel to find out we were charged an additional $250 because my mother in law put a cigarette butt in the trash can.  There response was she should of thrown it on the ground outside.  My husband talked to three people and no one even tried to compromise.  So we spend $400 on a room for us to get exposed to chemicals that could cause cancer and reproductive problems.  Plus break out in a rash and sleep in a chair.  I wouldn't recommend this hotel to my enemy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r191286830-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>191286830</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Exceeded my Expectations</t>
+  </si>
+  <si>
+    <t>So, I stayed here last night. The guy I'm dating sadly had a pipe bust in his house and the water had to be shut off so we decided to get a hotel rom for the evening. I only chose this hotel because it was close. I WAS IMPRESSED! Emily took very good care of us, was super sweet on the phone and in person… The lobby was modern, clean, and very cutely decorated! ( not to mention there is a snack bar, cold drinks and snack wall with a cute bar!)Our room was very clean and the bed was very comfortable! It was an emergency reservation and it was handled beautifully . Thank you again for taking good care of us! Fabulous service, friendly staff, clean and close if you live in HB, and not far from John Wayne Airport! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>So, I stayed here last night. The guy I'm dating sadly had a pipe bust in his house and the water had to be shut off so we decided to get a hotel rom for the evening. I only chose this hotel because it was close. I WAS IMPRESSED! Emily took very good care of us, was super sweet on the phone and in person… The lobby was modern, clean, and very cutely decorated! ( not to mention there is a snack bar, cold drinks and snack wall with a cute bar!)Our room was very clean and the bed was very comfortable! It was an emergency reservation and it was handled beautifully . Thank you again for taking good care of us! Fabulous service, friendly staff, clean and close if you live in HB, and not far from John Wayne Airport! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r190209329-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>190209329</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Clean &amp; Modern</t>
+  </si>
+  <si>
+    <t>Pros:-Clean-Modern-Located right off the freeway-Friendly service -Free Parking-Free WifiCons:  -Felt a bit over-priced at $150/night-Hate the way Courtyard Hotels put the TV to the side of the bed, rather than in front of it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Pros:-Clean-Modern-Located right off the freeway-Friendly service -Free Parking-Free WifiCons:  -Felt a bit over-priced at $150/night-Hate the way Courtyard Hotels put the TV to the side of the bed, rather than in front of it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r180447305-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>180447305</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Good value, central to SNA and Huntington Beach</t>
+  </si>
+  <si>
+    <t>Nice decor, clean rooms, and pretty grounds. Breakfast in the bistro is good quality at a decent price in a short time. Rooms are quiet, bathrooms are updated and the bed was comfortable.I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Nice decor, clean rooms, and pretty grounds. Breakfast in the bistro is good quality at a decent price in a short time. Rooms are quiet, bathrooms are updated and the bed was comfortable.I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r176120073-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>176120073</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>Close to Beach, Usual Quality of Marriott</t>
+  </si>
+  <si>
+    <t>Booked this hotel to be close to Huntington Beach for July 4th holiday.  You could bike to beach from this location or easily take a bus too.  We enjoyed the pool which is on the small, intimate side.  That room was what you expect from the quality of Marriott.  This hotel also had a bar and grille in lobby, but it has set hours.  However I came down looking for an espresso coffee and I found that the cafe was closed, not opening up for a few hours.  the front desk person offered to make the coffee for me.  It was great!  Will definitely stay again.  Lot's of stores and restaurants nearby and right off the 495 freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Booked this hotel to be close to Huntington Beach for July 4th holiday.  You could bike to beach from this location or easily take a bus too.  We enjoyed the pool which is on the small, intimate side.  That room was what you expect from the quality of Marriott.  This hotel also had a bar and grille in lobby, but it has set hours.  However I came down looking for an espresso coffee and I found that the cafe was closed, not opening up for a few hours.  the front desk person offered to make the coffee for me.  It was great!  Will definitely stay again.  Lot's of stores and restaurants nearby and right off the 495 freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r175580599-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>175580599</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations for a Courtyard!</t>
+  </si>
+  <si>
+    <t>Most of us stay at a Courtyard because we know it will provide a predictable experience at a mid-range price.  There's nothing wrong with that - and it's a model that is clearly working for Marriott.
+However, I spent last weekend at the Fountain Valley Courtyard with my family during a beach-cities soccer tournament - and the experience really exceeded my expectations in many ways.
+While the hotel looks like "just another Courtyard" from the outside (clean, tan and well-maintained) - the inside has been completely redone and is very contemporary and stylish.  Lots of great lobby seating, numerous large screen TVs and an open-concept restaurant/bar that was very inviting. 
+The food at the hotel was refreshingly good and freshly prepared.  The salads had crisp greens - and the breakfast dishes were made-to-order and better than most mid-range restaurants that you might go to.
+Finally, the last comment I'll make is with respect to the staff.  Like the interior of the hotel and the food at the restaurant - the staff were surprisingly 'fresh', energetic and helpful.  It seemed like they were constantly in motion to tidy things up and ensure that guests were being well taken care of.  One example occurred in the morning when I went to get a cup of the FREE Starbuck's coffee that they had in the lobby.  The dispenser was running out of coffee - so I mentioned it to the person at the...Most of us stay at a Courtyard because we know it will provide a predictable experience at a mid-range price.  There's nothing wrong with that - and it's a model that is clearly working for Marriott.However, I spent last weekend at the Fountain Valley Courtyard with my family during a beach-cities soccer tournament - and the experience really exceeded my expectations in many ways.While the hotel looks like "just another Courtyard" from the outside (clean, tan and well-maintained) - the inside has been completely redone and is very contemporary and stylish.  Lots of great lobby seating, numerous large screen TVs and an open-concept restaurant/bar that was very inviting. The food at the hotel was refreshingly good and freshly prepared.  The salads had crisp greens - and the breakfast dishes were made-to-order and better than most mid-range restaurants that you might go to.Finally, the last comment I'll make is with respect to the staff.  Like the interior of the hotel and the food at the restaurant - the staff were surprisingly 'fresh', energetic and helpful.  It seemed like they were constantly in motion to tidy things up and ensure that guests were being well taken care of.  One example occurred in the morning when I went to get a cup of the FREE Starbuck's coffee that they had in the lobby.  The dispenser was running out of coffee - so I mentioned it to the person at the front desk.  She IMMEDIATELY walked over, took the coffee canister to make another batch and then returned 1 minute later with two cups of fresh coffee in her hand so that I would not need to wait for the next batch to brew.  Great service!Overall, I'm sure that my experience at this Courtyard was exactly what Marriott had in mind when they made the decision to 'update' the hotel at this location.  I would stay at this hotel ANYTIME.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Most of us stay at a Courtyard because we know it will provide a predictable experience at a mid-range price.  There's nothing wrong with that - and it's a model that is clearly working for Marriott.
+However, I spent last weekend at the Fountain Valley Courtyard with my family during a beach-cities soccer tournament - and the experience really exceeded my expectations in many ways.
+While the hotel looks like "just another Courtyard" from the outside (clean, tan and well-maintained) - the inside has been completely redone and is very contemporary and stylish.  Lots of great lobby seating, numerous large screen TVs and an open-concept restaurant/bar that was very inviting. 
+The food at the hotel was refreshingly good and freshly prepared.  The salads had crisp greens - and the breakfast dishes were made-to-order and better than most mid-range restaurants that you might go to.
+Finally, the last comment I'll make is with respect to the staff.  Like the interior of the hotel and the food at the restaurant - the staff were surprisingly 'fresh', energetic and helpful.  It seemed like they were constantly in motion to tidy things up and ensure that guests were being well taken care of.  One example occurred in the morning when I went to get a cup of the FREE Starbuck's coffee that they had in the lobby.  The dispenser was running out of coffee - so I mentioned it to the person at the...Most of us stay at a Courtyard because we know it will provide a predictable experience at a mid-range price.  There's nothing wrong with that - and it's a model that is clearly working for Marriott.However, I spent last weekend at the Fountain Valley Courtyard with my family during a beach-cities soccer tournament - and the experience really exceeded my expectations in many ways.While the hotel looks like "just another Courtyard" from the outside (clean, tan and well-maintained) - the inside has been completely redone and is very contemporary and stylish.  Lots of great lobby seating, numerous large screen TVs and an open-concept restaurant/bar that was very inviting. The food at the hotel was refreshingly good and freshly prepared.  The salads had crisp greens - and the breakfast dishes were made-to-order and better than most mid-range restaurants that you might go to.Finally, the last comment I'll make is with respect to the staff.  Like the interior of the hotel and the food at the restaurant - the staff were surprisingly 'fresh', energetic and helpful.  It seemed like they were constantly in motion to tidy things up and ensure that guests were being well taken care of.  One example occurred in the morning when I went to get a cup of the FREE Starbuck's coffee that they had in the lobby.  The dispenser was running out of coffee - so I mentioned it to the person at the front desk.  She IMMEDIATELY walked over, took the coffee canister to make another batch and then returned 1 minute later with two cups of fresh coffee in her hand so that I would not need to wait for the next batch to brew.  Great service!Overall, I'm sure that my experience at this Courtyard was exactly what Marriott had in mind when they made the decision to 'update' the hotel at this location.  I would stay at this hotel ANYTIME.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r171083900-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>171083900</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Everyone's Friendly</t>
+  </si>
+  <si>
+    <t>From the time we arrived to the time we left, everyone, even the back of house staff was friendly, and said "hello".  There wasnt that feeling of stressed out employees nor any lack of care.A true sign of good management!Accomodations were comfortable, clean and modern.  Of course Starbucks coffee is great to have too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded August 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2013</t>
+  </si>
+  <si>
+    <t>From the time we arrived to the time we left, everyone, even the back of house staff was friendly, and said "hello".  There wasnt that feeling of stressed out employees nor any lack of care.A true sign of good management!Accomodations were comfortable, clean and modern.  Of course Starbucks coffee is great to have too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r167298263-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>167298263</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Housekeeping not up to par...</t>
+  </si>
+  <si>
+    <t>Lobby was best feature of hotel with good staff and adequate menu choices for snacks and breakfast.  Halls are dimly lit and gloomy.  Rooms are a but out of date with mismatched couch cushions.  Exterior door key cards not functional. Piled laundry in halls in evening was not appealing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Lobby was best feature of hotel with good staff and adequate menu choices for snacks and breakfast.  Halls are dimly lit and gloomy.  Rooms are a but out of date with mismatched couch cushions.  Exterior door key cards not functional. Piled laundry in halls in evening was not appealing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r164843899-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>164843899</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>quiet clean comfortable</t>
+  </si>
+  <si>
+    <t>This is a nice quiet and comfortable hotel. The pool was very nice, I swam in the morning and the pool was heated to a comfortable temperature.  Food bar has limited choices, but what we ate for breakfast was good.  comfortable beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2013</t>
+  </si>
+  <si>
+    <t>This is a nice quiet and comfortable hotel. The pool was very nice, I swam in the morning and the pool was heated to a comfortable temperature.  Food bar has limited choices, but what we ate for breakfast was good.  comfortable beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r158406639-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>158406639</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, Friendly</t>
+  </si>
+  <si>
+    <t>This Courtyard is in a good location to lots of restaurants and activities in the Fountain Valley area. The Bistro was excellent and the staff was excellent. Very friendly. My room was clean and comfortable. Got a great night sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>This Courtyard is in a good location to lots of restaurants and activities in the Fountain Valley area. The Bistro was excellent and the staff was excellent. Very friendly. My room was clean and comfortable. Got a great night sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r157134707-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>157134707</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Friendly Hotel</t>
+  </si>
+  <si>
+    <t>We spent 8 days in the hotel and had virtualy no complaints. The staff were very friendly and efficient. I requested some extra towels and within a few minutes there was a knock at the door...very impressed! They have a nice pool area and a separate jacuzzi area too. Very relaxing. We would have liked a grill for cooking out on the premises though. All in all it was a very nice hotel and we would stay here again if ever back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded April 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2013</t>
+  </si>
+  <si>
+    <t>We spent 8 days in the hotel and had virtualy no complaints. The staff were very friendly and efficient. I requested some extra towels and within a few minutes there was a knock at the door...very impressed! They have a nice pool area and a separate jacuzzi area too. Very relaxing. We would have liked a grill for cooking out on the premises though. All in all it was a very nice hotel and we would stay here again if ever back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r157134462-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>157134462</t>
+  </si>
+  <si>
+    <t>Great value for business or pleasure</t>
+  </si>
+  <si>
+    <t>This hotel is located convenient to the coast of Huntington Beach or Newport Beach and is also close to the heart of Orange County.  Well maintained, comfortable and friendly staff.  Very good choice for affordable business or pleasure travel.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r153140243-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>153140243</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>What You Would Expect</t>
+  </si>
+  <si>
+    <t>We spent three nights in this facility. My wife is recovering from a broken hip, so we booked the Handicapped Room. The shower floor was flat for easy access, but as a result, the entire bathroom floor flooded every time we showered, and several towels were wasted in drying up the flood.The room was relatively clean, but the rug needed a shampooing. The bed was comfortable, and complementary wi-fi was available and easy to use.The staff was polite, and we had no complaints.We would come back.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r152542668-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>152542668</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Your average Courtyard experience</t>
+  </si>
+  <si>
+    <t>I stay in Marriott properties whenever I travel and this was a typical Courtyard. Had clearly been updated in the rooms and lobby area, so those were nice with lots of amenities. Pool was small, but decent for a little lounge time during my work weekend. The front desk staff was friendly as was the bartender on staff one of the nights. The carpet in my room had several stains, always gross to see in any hotel. Also, I'm consistenly dissapointed with the comforters at the Courtyard- but that's across the board for the brand. I'd stay here again as I normally stay near disneyland and it was nice to be away from lots of families and children so I could get a good night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay in Marriott properties whenever I travel and this was a typical Courtyard. Had clearly been updated in the rooms and lobby area, so those were nice with lots of amenities. Pool was small, but decent for a little lounge time during my work weekend. The front desk staff was friendly as was the bartender on staff one of the nights. The carpet in my room had several stains, always gross to see in any hotel. Also, I'm consistenly dissapointed with the comforters at the Courtyard- but that's across the board for the brand. I'd stay here again as I normally stay near disneyland and it was nice to be away from lots of families and children so I could get a good night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r152220245-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>152220245</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Needs maintenance and cleaning!</t>
+  </si>
+  <si>
+    <t>We opted for the king suite type of room.This place is lacking attention.  The carpet in the room is very dirty-stains and spots everywhere.  The sofa has missing trim on the arm and when you sit down you feel as though you're going to the floor.  I'm almost afraid to check the bed.  Undoubtedly the worst maintained Marriott we have ever encountered.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r150305240-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>150305240</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>real suites, convenient, friendly staff</t>
+  </si>
+  <si>
+    <t>I stay here 2-3 times a year when visiting family in OC.  I keep coming back because - they have real two room suites with a door, not just some silly half height divider that doesn't actually block any noise or light- it's right next to freeway but not noisy- it's a great deal on weekends since it's aimed at business travelers- the service is always prompt and friendly They renovated the rooms a few years ago, but during my December 2012 stay they were starting to show some minor wear: chipped corners on the tables, worn spots in the carpet, etc.  The lobby has a coffee bar and some food for purchase in the mornings.  There are small booths that seat maybe 3-4 each with an individual TV; these are very convenient when  waiting for someone to get ready.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Steven V, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>I stay here 2-3 times a year when visiting family in OC.  I keep coming back because - they have real two room suites with a door, not just some silly half height divider that doesn't actually block any noise or light- it's right next to freeway but not noisy- it's a great deal on weekends since it's aimed at business travelers- the service is always prompt and friendly They renovated the rooms a few years ago, but during my December 2012 stay they were starting to show some minor wear: chipped corners on the tables, worn spots in the carpet, etc.  The lobby has a coffee bar and some food for purchase in the mornings.  There are small booths that seat maybe 3-4 each with an individual TV; these are very convenient when  waiting for someone to get ready.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r149889675-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>149889675</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Not very clean, but ok for the price.</t>
+  </si>
+  <si>
+    <t>The room we stayed in needed an upgrade. It seemed old, damp, and tired. Not very vacations-like. The room was cramped, and the t.v. Is in a very odd place (we had a king bed, with sofa bed). When we got there, there were pieces of shredded cardboard all over in the entrance way that had not been vacuumed. Then, I went to pull out the sofabed for my daughter and it was completely messed up, like they had just stuffed it in without making it. So I went to straighten out the bed, and there where what looked like red nail polish chips in it. I also found an airport suitcase tag in the sheets. Needless to say, my daughter ended up sleeping in our bed that night (since we checked in after midnight and were all REALLY tired). I let them know the next morning, and the front desk lady just acted like it was no big deal and that she would 'let them know' (I wasn't sure what that ment). After the initial night, thing were ok- the pipes in the shower are old, and it would make this really annoying high-pitched sound the whole time it was on. The people who work at The Bistro restaurant were really nice, and it is reasonably priced. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room we stayed in needed an upgrade. It seemed old, damp, and tired. Not very vacations-like. The room was cramped, and the t.v. Is in a very odd place (we had a king bed, with sofa bed). When we got there, there were pieces of shredded cardboard all over in the entrance way that had not been vacuumed. Then, I went to pull out the sofabed for my daughter and it was completely messed up, like they had just stuffed it in without making it. So I went to straighten out the bed, and there where what looked like red nail polish chips in it. I also found an airport suitcase tag in the sheets. Needless to say, my daughter ended up sleeping in our bed that night (since we checked in after midnight and were all REALLY tired). I let them know the next morning, and the front desk lady just acted like it was no big deal and that she would 'let them know' (I wasn't sure what that ment). After the initial night, thing were ok- the pipes in the shower are old, and it would make this really annoying high-pitched sound the whole time it was on. The people who work at The Bistro restaurant were really nice, and it is reasonably priced. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r149612009-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>149612009</t>
+  </si>
+  <si>
+    <t>01/13/2013</t>
+  </si>
+  <si>
+    <t>OK hotel. Stiff bed.</t>
+  </si>
+  <si>
+    <t>Bed was a little stiff. Otherwise the room was fine. At the price of this room, a continental breakfast should have been included, but only coffee and tea were in the lobby for free. Starbucks and food items were available at extra charge.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Bed was a little stiff. Otherwise the room was fine. At the price of this room, a continental breakfast should have been included, but only coffee and tea were in the lobby for free. Starbucks and food items were available at extra charge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r138016467-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>138016467</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Adequate business hotel</t>
+  </si>
+  <si>
+    <t>Stayed here when visiting relatives.  Typical Courtyard, mostly clean, good service, affordable rates.  We have a king suite, which is really a bedroom and separate living room with a foldout couch.  Good when the kids didn't want to sleep on the relatives floor.We were only there at night to sleep, quiet and comfortable bed.  Only complaint was that seems a fair number of smokers sat by the pool in the evening, wafting their poison up toward our window (we prefer fresh air to A/C, so it was open).Also, note this is really in Fountain Valley and not HB.  Your a good 5-6 miles from the beach.  Tradeoff is it is way more affordable than any of the hotels at the beach, but you either have to drive down or hop on your cruiser for a nice workout.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Stayed here when visiting relatives.  Typical Courtyard, mostly clean, good service, affordable rates.  We have a king suite, which is really a bedroom and separate living room with a foldout couch.  Good when the kids didn't want to sleep on the relatives floor.We were only there at night to sleep, quiet and comfortable bed.  Only complaint was that seems a fair number of smokers sat by the pool in the evening, wafting their poison up toward our window (we prefer fresh air to A/C, so it was open).Also, note this is really in Fountain Valley and not HB.  Your a good 5-6 miles from the beach.  Tradeoff is it is way more affordable than any of the hotels at the beach, but you either have to drive down or hop on your cruiser for a nice workout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r137772977-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>137772977</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>More than adequate</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel for the price.  I especially liked the fact that although it did not include breakfast in the rate we were charged, you could opt to include it if you wanted.  I did not try or see what was offered for breakfast but the $20.00 additional charge hardly seemed worth it.  You can get a heck of a breakfast for that right down the street.  The location is great for nearby shopping and restaurants.  They do have a restourant that opens at night but, there again, we did not try it so can't give a review on that.  Unless you are completely without transportation, I would suggest you use the nearby eateries.  The pool, exercise room and hot tub were great.  The hot tub is outside but covered so on a rainy cold night it would still be available.  You could not ask for a better staff.....helpful, ourtious and immediate response to any problems.  Our room, although well appointed was a little small but we made due.  It is a good value if you are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel for the price.  I especially liked the fact that although it did not include breakfast in the rate we were charged, you could opt to include it if you wanted.  I did not try or see what was offered for breakfast but the $20.00 additional charge hardly seemed worth it.  You can get a heck of a breakfast for that right down the street.  The location is great for nearby shopping and restaurants.  They do have a restourant that opens at night but, there again, we did not try it so can't give a review on that.  Unless you are completely without transportation, I would suggest you use the nearby eateries.  The pool, exercise room and hot tub were great.  The hot tub is outside but covered so on a rainy cold night it would still be available.  You could not ask for a better staff.....helpful, ourtious and immediate response to any problems.  Our room, although well appointed was a little small but we made due.  It is a good value if you are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r137629467-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>137629467</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>I will admit that I'm a Hilton fan, but I will write this review as non-biased as possible. I stayed here due to the location as it was close to where I was doing business and no Hilton properties were in the area (other than one on Huntington Beach that was way beyond my expense allowance). The employees were extremely friendly and upon arrival to my room I realized the remote was missing, and they had it up to me within a few minutes. The hotel was fairly clean, but the rooms didn't have the cleanest smell. I probably wouldn't stay here again if I was in the area, but it was fine for the one night that I needed it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I will admit that I'm a Hilton fan, but I will write this review as non-biased as possible. I stayed here due to the location as it was close to where I was doing business and no Hilton properties were in the area (other than one on Huntington Beach that was way beyond my expense allowance). The employees were extremely friendly and upon arrival to my room I realized the remote was missing, and they had it up to me within a few minutes. The hotel was fairly clean, but the rooms didn't have the cleanest smell. I probably wouldn't stay here again if I was in the area, but it was fine for the one night that I needed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r131785665-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>131785665</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>No better than next door</t>
+  </si>
+  <si>
+    <t>Just a couple of months before our stay, we stayed next door at the Residence Inn which wasn't all that great.  This was a bit more expensive so we assumed it would be "nicer."  While the lobby is certainly beautiful and a nice place to use internet, the rooms weren't any better and there isn't any free breakfast included. I would suggest save some money and stay at the Residence Inn if this is the location you need.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r131101436-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>131101436</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Not recommended!</t>
+  </si>
+  <si>
+    <t>Reservation upon arrival confirmed but no balcony as requested by email and phone.Others in the group had no rooms though confirmed.  Found women's underwear on the floor of the room upon entering. Signs very poor for elevators and restroom location. Agents were overwhelmed with other customers when hotel was sold out..food very bad..ran out of coffee and cups in breakfast bar..directions difficult w/out gps. No room service after 10pm.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r130771835-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>130771835</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Perfect hotel</t>
+  </si>
+  <si>
+    <t>This hotel was more than I could expect for a reasonnable price, and it is so close to the beach (5-10 minutes by far - close enough for me!).  Last time I went to HB I stayed at a Howard Johnson location, for a really cheap price, but it was also a "just ok" place.  This time around, I payed a little extra money and wow!  I got everything I needed.  The pool and spa were perfectly clean, the gym had perfect A/C and just enough space to work-out, the rooms were clean, internet worked fine, housekeeping was excellent...   Really, I have nothing bad to say, except maybe for the fact that their food bar is crazy expensive, but I expected it.  There are plenty of Starbucks and other restaurants nearby, so you can just take your car and go elsewhere.  Anyways, you're in HB, what would you really worry about? ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>steven_vandesteeg, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded June 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2012</t>
+  </si>
+  <si>
+    <t>This hotel was more than I could expect for a reasonnable price, and it is so close to the beach (5-10 minutes by far - close enough for me!).  Last time I went to HB I stayed at a Howard Johnson location, for a really cheap price, but it was also a "just ok" place.  This time around, I payed a little extra money and wow!  I got everything I needed.  The pool and spa were perfectly clean, the gym had perfect A/C and just enough space to work-out, the rooms were clean, internet worked fine, housekeeping was excellent...   Really, I have nothing bad to say, except maybe for the fact that their food bar is crazy expensive, but I expected it.  There are plenty of Starbucks and other restaurants nearby, so you can just take your car and go elsewhere.  Anyways, you're in HB, what would you really worry about? ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r124137697-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>124137697</t>
+  </si>
+  <si>
+    <t>02/04/2012</t>
+  </si>
+  <si>
+    <t>Great Location for Surf City Marathon!</t>
+  </si>
+  <si>
+    <t>Perfect location for Surf City Half Marathon, and now they have a shuttle to the start!  This is my fourth year staying here for the event.  Staff is nice and very accommodating, and rooms are always clean.  Great senior rates too!MoreShow less</t>
+  </si>
+  <si>
+    <t>steven_vandesteeg, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded February 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2012</t>
+  </si>
+  <si>
+    <t>Perfect location for Surf City Half Marathon, and now they have a shuttle to the start!  This is my fourth year staying here for the event.  Staff is nice and very accommodating, and rooms are always clean.  Great senior rates too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r123976467-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>123976467</t>
+  </si>
+  <si>
+    <t>02/01/2012</t>
+  </si>
+  <si>
+    <t>If you need a place to stay in this part of town, this place is decent.</t>
+  </si>
+  <si>
+    <t>If you need a place to stay in this part of town, this place is decent. Even the room facing the highway are very quite (I'm a light sleeper).I receive a cheaper rate ($20 less) by calling the hotel vs Booking online.Room: 333 was small and the TV was in an awkward angel. But ok for a short stay. Pro'sClean room, helpful staff, quick service restruant had good food and opens at 6am during the week. Good Sushi close by (1/2 mile) Kato Sushi.Con's Rock hard bed...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>steven_vandesteeg, General Manager at Courtyard by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded February 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2012</t>
+  </si>
+  <si>
+    <t>If you need a place to stay in this part of town, this place is decent. Even the room facing the highway are very quite (I'm a light sleeper).I receive a cheaper rate ($20 less) by calling the hotel vs Booking online.Room: 333 was small and the TV was in an awkward angel. But ok for a short stay. Pro'sClean room, helpful staff, quick service restruant had good food and opens at 6am during the week. Good Sushi close by (1/2 mile) Kato Sushi.Con's Rock hard bed...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r123237256-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>123237256</t>
+  </si>
+  <si>
+    <t>01/17/2012</t>
+  </si>
+  <si>
+    <t>Just like every other Marriott</t>
+  </si>
+  <si>
+    <t>It's just like every other Marriott (ya been in one, ya been in 'em all). However, the standout to this hotel was the wonderful lobby. Very hip and cool, almost wannabe-W Hotel. We liked it very much. The lobby was a nice place to hang out when waiting for our party. They also have computers/printers set up so that you can print your boarding pass and check email.The breakfast was good and they serve Starbucks in the lobby. Also, if you forgot any toiletries, they sell them in the...you guessed it! The lobby! Yes, the lobby is the place to be at the Courtyard Marriott.Location - this is just off the 405 freeway and right on the corner of the street so you might blow right by it. It's next to the Residence Inn. Ample and free parking (awesome). I'm not sure if they had free WiFi or not as we didn't use. I only stayed here one night and it was good. There were some serious parties going on but we didn't mind at all. Rooms are a bit on the tiny side (compared to most Marriott rooms), as is the bathroom, but it was okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's just like every other Marriott (ya been in one, ya been in 'em all). However, the standout to this hotel was the wonderful lobby. Very hip and cool, almost wannabe-W Hotel. We liked it very much. The lobby was a nice place to hang out when waiting for our party. They also have computers/printers set up so that you can print your boarding pass and check email.The breakfast was good and they serve Starbucks in the lobby. Also, if you forgot any toiletries, they sell them in the...you guessed it! The lobby! Yes, the lobby is the place to be at the Courtyard Marriott.Location - this is just off the 405 freeway and right on the corner of the street so you might blow right by it. It's next to the Residence Inn. Ample and free parking (awesome). I'm not sure if they had free WiFi or not as we didn't use. I only stayed here one night and it was good. There were some serious parties going on but we didn't mind at all. Rooms are a bit on the tiny side (compared to most Marriott rooms), as is the bathroom, but it was okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r120437635-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>120437635</t>
+  </si>
+  <si>
+    <t>11/10/2011</t>
+  </si>
+  <si>
+    <t>Quiet location, good restaurants - value worthy</t>
+  </si>
+  <si>
+    <t>My family and I chose this location as it was the property of choice for a local chocolate festival we were attending.  We were fortunate to get rooms that did not face the freeway so our room noise was minimal.  Front desk staff was very helpful and friendly. We really like the decor of this property - so NOT the usual Courtyard.  This place is hip, trendy, and offers perks that business and pleasure travelers alike find convenient, like ample room to work, good wi-fi, ability to print boarding passes, great lighting - the usual stuff.  The only "weird" thing was that in the room, the armoire blocked the A/C vents.  Odd, but somehow the room was cool enough to sleep. The room was typical Courtyard - small, but in this property, the decor had been updated.  Bed was comfy.  Bed linens were nice and clean.  Towels were aging - time for new ones.  Bathroom very clean but extremely limited counter space around the sink.  My pet peeve in hotels is dirty carpet and this property was no exception.  Halls were quite dirty, room moderately so, but that's just me - I always notice the carpets.  All in all, we found this to be a great value, close to everything, and we'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>My family and I chose this location as it was the property of choice for a local chocolate festival we were attending.  We were fortunate to get rooms that did not face the freeway so our room noise was minimal.  Front desk staff was very helpful and friendly. We really like the decor of this property - so NOT the usual Courtyard.  This place is hip, trendy, and offers perks that business and pleasure travelers alike find convenient, like ample room to work, good wi-fi, ability to print boarding passes, great lighting - the usual stuff.  The only "weird" thing was that in the room, the armoire blocked the A/C vents.  Odd, but somehow the room was cool enough to sleep. The room was typical Courtyard - small, but in this property, the decor had been updated.  Bed was comfy.  Bed linens were nice and clean.  Towels were aging - time for new ones.  Bathroom very clean but extremely limited counter space around the sink.  My pet peeve in hotels is dirty carpet and this property was no exception.  Halls were quite dirty, room moderately so, but that's just me - I always notice the carpets.  All in all, we found this to be a great value, close to everything, and we'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r118721532-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>118721532</t>
+  </si>
+  <si>
+    <t>09/28/2011</t>
+  </si>
+  <si>
+    <t>Great Place for the Right Value</t>
+  </si>
+  <si>
+    <t>It was a business trip. The room was very clean and close to freeway access. Very basic and worth the money. Plenty of free parkings.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r116893908-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>116893908</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>Lovely hotel at a great value!</t>
+  </si>
+  <si>
+    <t>We arrived at the Courtyard in Fountain Valley and easily found parking in their huge parking lot. We were pleasantly surprised as we walked in to find a super modern, clean lobby. They had snacks for sale right next to the front desk and even a small cafe. Check in was easy, the staff was extremely friendly and helpful. We got our keys and headed to our room. The room was clean, cute, and modern, just like the lobby. The layout of the room made it feel plenty spacious which is always really important to me.  The bed was comfortable, there is free wi-fi and a nice flat screen tv. The hotel is only a 10-15 minute drive from Downtown Huntington which was exactly what we needed and the price was half that of anything actually in Huntington. Overall we were extremely pleased and will certainly be back if we take another trip down to Huntington!MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at the Courtyard in Fountain Valley and easily found parking in their huge parking lot. We were pleasantly surprised as we walked in to find a super modern, clean lobby. They had snacks for sale right next to the front desk and even a small cafe. Check in was easy, the staff was extremely friendly and helpful. We got our keys and headed to our room. The room was clean, cute, and modern, just like the lobby. The layout of the room made it feel plenty spacious which is always really important to me.  The bed was comfortable, there is free wi-fi and a nice flat screen tv. The hotel is only a 10-15 minute drive from Downtown Huntington which was exactly what we needed and the price was half that of anything actually in Huntington. Overall we were extremely pleased and will certainly be back if we take another trip down to Huntington!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r113438131-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>113438131</t>
+  </si>
+  <si>
+    <t>06/14/2011</t>
+  </si>
+  <si>
+    <t>So many restaurants and shop nearby</t>
+  </si>
+  <si>
+    <t>We liked that this hotel was centrally located to several restaurants and shops.  You do need to drive to the same, but still was nice not to just be another hotel in the middle of nowhere or only with a Dennys across the street.  Instead, just in a nice clean area with great freeway access and many stores.  The room itself was good, not great, but good.  Our room overlooked the pool and was nice.  Bathroom a bit tight, but overall a nice property.  No breakfast buffet and I wish the gave you more sugar packets with coffee and added Splenda as an option.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r105387132-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>105387132</t>
+  </si>
+  <si>
+    <t>04/25/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I really loved this hotel!!! I usually stay at the Hyatt Huntington  beach but did not like paying all the resort fees and Valet was around 22 a day and tips every time you take your car out(3 times a day 5x3= an extra 15 a day). Even though this is a bit farther from the beach I love this hotel and will be going here from now on.It is very quiet.  It is very easy to get to your car. You can use their luggage carts located by the stairwell which will make it a breeze to load your suitcases. The hotel looks like it was just renovated, everything looks  very new and modern;flat screens in every room free internet,fridge...etc...I highly recommend this hotel,very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I really loved this hotel!!! I usually stay at the Hyatt Huntington  beach but did not like paying all the resort fees and Valet was around 22 a day and tips every time you take your car out(3 times a day 5x3= an extra 15 a day). Even though this is a bit farther from the beach I love this hotel and will be going here from now on.It is very quiet.  It is very easy to get to your car. You can use their luggage carts located by the stairwell which will make it a breeze to load your suitcases. The hotel looks like it was just renovated, everything looks  very new and modern;flat screens in every room free internet,fridge...etc...I highly recommend this hotel,very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r100871010-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>100871010</t>
+  </si>
+  <si>
+    <t>03/20/2011</t>
+  </si>
+  <si>
+    <t>AWESOME STAFF!</t>
+  </si>
+  <si>
+    <t>My stay at the Courtyard Marriot was under unfortunate circumstances, Our beloved dog Molly was at the Emergency Vet hospital down the street and her chances of making it through the night were uncertain. That being said we wanted to stay close in case things took a turn for the worse we would have the opportunity to be by her side.  
+With no time or need to research amenities, or cleanliness for that matter our concern was location. Courtyard Marriot was the closest hotel. I  walked into the lobby puffy faced with blood shot eyes trying to look as "normal" as possible.  It was obvious to the staff things were not OK  so I shared my reason for needing a last minute room. They showed a genuine concern and were sympathetic to my situation even offereing up a story of similar experiences which was nice.
+ As  I was getting settled in my room the phone rang, It was the front desk offering a complimentary meal. Sometimes the kindness of strangers means the most and it did in this case. Thank you to Ashley &amp; the young gentleman (I apologize for not remembering your name) who checked me in. As for the hotel itself what a sigh of relief it was to see it was very clean, comfortable and relaxing which was great considering I had no idea what to expect. Everything you need is nearby i.e restaurants, fast food, market...My stay at the Courtyard Marriot was under unfortunate circumstances, Our beloved dog Molly was at the Emergency Vet hospital down the street and her chances of making it through the night were uncertain. That being said we wanted to stay close in case things took a turn for the worse we would have the opportunity to be by her side.  With no time or need to research amenities, or cleanliness for that matter our concern was location. Courtyard Marriot was the closest hotel. I  walked into the lobby puffy faced with blood shot eyes trying to look as "normal" as possible.  It was obvious to the staff things were not OK  so I shared my reason for needing a last minute room. They showed a genuine concern and were sympathetic to my situation even offereing up a story of similar experiences which was nice. As  I was getting settled in my room the phone rang, It was the front desk offering a complimentary meal. Sometimes the kindness of strangers means the most and it did in this case. Thank you to Ashley &amp; the young gentleman (I apologize for not remembering your name) who checked me in. As for the hotel itself what a sigh of relief it was to see it was very clean, comfortable and relaxing which was great considering I had no idea what to expect. Everything you need is nearby i.e restaurants, fast food, market etc...I would definitely stay here again. If the service I received from this Courtyard Marriot is how they do business you bet i'll be booking with them again (under better circumstances) :) What more could you ask for? Customer Service and willingness to go above and beyond expectations A+ Rooms A+As for Molly she didn't make it... thanks again to the staff for the simple,meaningful acts of kindess.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>My stay at the Courtyard Marriot was under unfortunate circumstances, Our beloved dog Molly was at the Emergency Vet hospital down the street and her chances of making it through the night were uncertain. That being said we wanted to stay close in case things took a turn for the worse we would have the opportunity to be by her side.  
+With no time or need to research amenities, or cleanliness for that matter our concern was location. Courtyard Marriot was the closest hotel. I  walked into the lobby puffy faced with blood shot eyes trying to look as "normal" as possible.  It was obvious to the staff things were not OK  so I shared my reason for needing a last minute room. They showed a genuine concern and were sympathetic to my situation even offereing up a story of similar experiences which was nice.
+ As  I was getting settled in my room the phone rang, It was the front desk offering a complimentary meal. Sometimes the kindness of strangers means the most and it did in this case. Thank you to Ashley &amp; the young gentleman (I apologize for not remembering your name) who checked me in. As for the hotel itself what a sigh of relief it was to see it was very clean, comfortable and relaxing which was great considering I had no idea what to expect. Everything you need is nearby i.e restaurants, fast food, market...My stay at the Courtyard Marriot was under unfortunate circumstances, Our beloved dog Molly was at the Emergency Vet hospital down the street and her chances of making it through the night were uncertain. That being said we wanted to stay close in case things took a turn for the worse we would have the opportunity to be by her side.  With no time or need to research amenities, or cleanliness for that matter our concern was location. Courtyard Marriot was the closest hotel. I  walked into the lobby puffy faced with blood shot eyes trying to look as "normal" as possible.  It was obvious to the staff things were not OK  so I shared my reason for needing a last minute room. They showed a genuine concern and were sympathetic to my situation even offereing up a story of similar experiences which was nice. As  I was getting settled in my room the phone rang, It was the front desk offering a complimentary meal. Sometimes the kindness of strangers means the most and it did in this case. Thank you to Ashley &amp; the young gentleman (I apologize for not remembering your name) who checked me in. As for the hotel itself what a sigh of relief it was to see it was very clean, comfortable and relaxing which was great considering I had no idea what to expect. Everything you need is nearby i.e restaurants, fast food, market etc...I would definitely stay here again. If the service I received from this Courtyard Marriot is how they do business you bet i'll be booking with them again (under better circumstances) :) What more could you ask for? Customer Service and willingness to go above and beyond expectations A+ Rooms A+As for Molly she didn't make it... thanks again to the staff for the simple,meaningful acts of kindess.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r46244309-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>46244309</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>decent hotel, but don't expect extra services</t>
+  </si>
+  <si>
+    <t>First, the hotel is right next door to the Residence Inn. They share the same parking lot/entrance.  So make sure you go to the correct hotel. The room was clean as expected every day.  Decent location. Not to far from the beach or from Lil Saigon.  We checked in late at night and they desk offered us a wake-up call. Since I had to be awake by 6am, we said yes. We never received one.  At the end of our stay, we got our easy check-out confirmation slipped under the door.  A few weeks later, we also received an extra $5.00 charge on our credit card. I called and found out this was for the water bottles they leave in the hotel room.  We brought our own beverages and never used the hotel's.  They agreed to remove the charge but more than a month later, the charged was not reversed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>First, the hotel is right next door to the Residence Inn. They share the same parking lot/entrance.  So make sure you go to the correct hotel. The room was clean as expected every day.  Decent location. Not to far from the beach or from Lil Saigon.  We checked in late at night and they desk offered us a wake-up call. Since I had to be awake by 6am, we said yes. We never received one.  At the end of our stay, we got our easy check-out confirmation slipped under the door.  A few weeks later, we also received an extra $5.00 charge on our credit card. I called and found out this was for the water bottles they leave in the hotel room.  We brought our own beverages and never used the hotel's.  They agreed to remove the charge but more than a month later, the charged was not reversed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r38487460-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>38487460</t>
+  </si>
+  <si>
+    <t>08/22/2009</t>
+  </si>
+  <si>
+    <t>Older but very nice</t>
+  </si>
+  <si>
+    <t>Had a brief one night at the Courtyard but the room was very clean and modern.The pool looked nice but did not use it and the service was good. The hotel is an older Courtyard but the rooms and lobby are well kept. Would return if in area. About a ten minute drive to huntington beach pier.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r37094471-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>37094471</t>
+  </si>
+  <si>
+    <t>08/08/2009</t>
+  </si>
+  <si>
+    <t>Old and Basic</t>
+  </si>
+  <si>
+    <t>The pictures of this hotel do not reveal the age and the pool is the smallest I have ever seen.  The front desk clerk was clearly not interested in our concerns.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r22679817-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>22679817</t>
+  </si>
+  <si>
+    <t>12/12/2008</t>
+  </si>
+  <si>
+    <t>Perfect business hotel</t>
+  </si>
+  <si>
+    <t>Totally adequate business hotel -- just like most other Courtyards.  Free parking, free internet, big clean room, located convenient to where I needed to be for work.  Very nice desk staff.  Close to other fast food restaurants, even if by foot.  Unremarkable, but no problems at all, which for a work trip, is all you can ask for, right?BTW, no hotel bar.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r21411440-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>21411440</t>
+  </si>
+  <si>
+    <t>10/30/2008</t>
+  </si>
+  <si>
+    <t>Decent Hotel, Bed not so comfortable</t>
+  </si>
+  <si>
+    <t>The hotel was nice and clean with a friendly staff.  The only issues were that the bed was uncomfortable and made my back hurt.  My wife said that the bed hurt her side and was uncomfortable.  The other issue was that the air conditioning unit in our room was extremely loud and made it hard to sleep with it on.  They serve a breakfast in the lobby that is set up like it would be included but there is a small sign stating that they charge 12 dollars if you eat.The stay is worth it if you get a deal, but DO NOT pay the 190 a night.  It is worth no more than 110 a night!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was nice and clean with a friendly staff.  The only issues were that the bed was uncomfortable and made my back hurt.  My wife said that the bed hurt her side and was uncomfortable.  The other issue was that the air conditioning unit in our room was extremely loud and made it hard to sleep with it on.  They serve a breakfast in the lobby that is set up like it would be included but there is a small sign stating that they charge 12 dollars if you eat.The stay is worth it if you get a deal, but DO NOT pay the 190 a night.  It is worth no more than 110 a night!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r20016373-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>20016373</t>
+  </si>
+  <si>
+    <t>09/12/2008</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>I visited the courtyard during the summer. I came from ny to see my sister who lives in cali. Upon the arrival we had a fast check in and got right to our room. We got 2 rooms that were ajoing, it was a nice size room for 5 people. It was nice and clean and there was alot of space to move around. It was a nice quiet hotel. Even though it's near the highway it was very helpful because you could take it anywhere you needed to go. It was never a noisy place. The outdoor pool was nice and very enjoyable and so was the jacuzzi. Not to many people where staying there since it was at the end of the month and kids where going back to school. Even when people did come there was never alot of noise or problems. Breakfest in the moring was the normal that you get at the courtyard. They gave free cookies, tea and coffee. They also had a little snack area to buy food. The people that worked there where friendly and helpful as well. They also have a excerise room and an area for you to work on the internet for the business men or women and they also have wireless internet in the rooms. The whole experince was great, it was a nice and i would return here again for the convience and the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I visited the courtyard during the summer. I came from ny to see my sister who lives in cali. Upon the arrival we had a fast check in and got right to our room. We got 2 rooms that were ajoing, it was a nice size room for 5 people. It was nice and clean and there was alot of space to move around. It was a nice quiet hotel. Even though it's near the highway it was very helpful because you could take it anywhere you needed to go. It was never a noisy place. The outdoor pool was nice and very enjoyable and so was the jacuzzi. Not to many people where staying there since it was at the end of the month and kids where going back to school. Even when people did come there was never alot of noise or problems. Breakfest in the moring was the normal that you get at the courtyard. They gave free cookies, tea and coffee. They also had a little snack area to buy food. The people that worked there where friendly and helpful as well. They also have a excerise room and an area for you to work on the internet for the business men or women and they also have wireless internet in the rooms. The whole experince was great, it was a nice and i would return here again for the convience and the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r15207354-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>15207354</t>
+  </si>
+  <si>
+    <t>04/21/2008</t>
+  </si>
+  <si>
+    <t>Above average Courtyard impresses</t>
+  </si>
+  <si>
+    <t>Under promise and over deliver is the way I like a hotel to be and this Courtyard achieves new heights in overdelivering.
+I stayed here for two days on a four day trip.  I'm a very frequent Marriott customer and I know my way around most any Courtyard, or so I thought.
+I picked this hotel for its convenient location.  It's right on the I-405 freeway and it's about equal distance to the beach as it is to Anaheim (where Disneyland is if you don't know), which was optimal for my trip.
+Pulling up, this particular Courtyard is clearly immaculately maintained - moreso than any Courtyard by Marriott I've ever stayed at.  Every blade of grass was beautifully trimmed and there weren't any grass clippings to be found.  The driveway was beautiful and the entrance to the lobby was just spotless.  I knew when I walked in that this was the "older" style Courtyard with the actual courtyard in the middle and all of the little extras you don't see in the newer ones like the massive spa, refrigerators in the rooms, etc.
+Check in was a breeze and everyone was incredibly friendly.  It's got the 24 hour convenience store inside the lobby as well as the full Courtyard Cafe.  Parking was well-lit and open.  The room was beautiful and clean, with our room having a lovely Courtyard view.  This Courtyard is staggered: one room with a balcony...one room with...Under promise and over deliver is the way I like a hotel to be and this Courtyard achieves new heights in overdelivering.I stayed here for two days on a four day trip.  I'm a very frequent Marriott customer and I know my way around most any Courtyard, or so I thought.I picked this hotel for its convenient location.  It's right on the I-405 freeway and it's about equal distance to the beach as it is to Anaheim (where Disneyland is if you don't know), which was optimal for my trip.Pulling up, this particular Courtyard is clearly immaculately maintained - moreso than any Courtyard by Marriott I've ever stayed at.  Every blade of grass was beautifully trimmed and there weren't any grass clippings to be found.  The driveway was beautiful and the entrance to the lobby was just spotless.  I knew when I walked in that this was the "older" style Courtyard with the actual courtyard in the middle and all of the little extras you don't see in the newer ones like the massive spa, refrigerators in the rooms, etc.Check in was a breeze and everyone was incredibly friendly.  It's got the 24 hour convenience store inside the lobby as well as the full Courtyard Cafe.  Parking was well-lit and open.  The room was beautiful and clean, with our room having a lovely Courtyard view.  This Courtyard is staggered: one room with a balcony...one room with a window throughout the courtyard.  We had a window and it was fine.  We had a lovely view of the immaculate courtyard and the sidewalks around the pool/spa area.What really made this hotel nice was the huge gazebo in the courtyard.  My guest and I had a full schedule and it was just wonderful to come home after a long day and relax.  The gazebo is the obligatory Marriott outdoor smoking area, but I didn't see any smokers...just people relaxing and chatting.  The hotel really was to have played a minor part in our trip, but it was just such a nice place to come home to at night and relax and unwind that I looked forward to coming home.  The hotel is well maintained and there's a vibrant lobby and courtyard in the evenings and it feels "busy, relaxed" if I had to put words to it.There are plenty of decent restaurants in the area and it's just close to everything.  I was flying out of LAX.  From the Fountain Valley Courtyard to LAX took us 32 minutes with no traffic on a Sunday.  It's about 5-10 minutes to get to Orange County/Santa Ana (SNA) airport without traffic.The check-out process was the only place I hit even the most minor snag...I had to go to the desk to correct a billing mistake and it was done in 10 seconds and I walked out with a corrected receipt with their deepest apologies.  I was continually impressed by the staff.I would recommend this hotel for anyone.  It's a great value compared to places closer to Disneyland or Huntington Beach and you will get a much higher level of service here than you'd expect.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>Under promise and over deliver is the way I like a hotel to be and this Courtyard achieves new heights in overdelivering.
+I stayed here for two days on a four day trip.  I'm a very frequent Marriott customer and I know my way around most any Courtyard, or so I thought.
+I picked this hotel for its convenient location.  It's right on the I-405 freeway and it's about equal distance to the beach as it is to Anaheim (where Disneyland is if you don't know), which was optimal for my trip.
+Pulling up, this particular Courtyard is clearly immaculately maintained - moreso than any Courtyard by Marriott I've ever stayed at.  Every blade of grass was beautifully trimmed and there weren't any grass clippings to be found.  The driveway was beautiful and the entrance to the lobby was just spotless.  I knew when I walked in that this was the "older" style Courtyard with the actual courtyard in the middle and all of the little extras you don't see in the newer ones like the massive spa, refrigerators in the rooms, etc.
+Check in was a breeze and everyone was incredibly friendly.  It's got the 24 hour convenience store inside the lobby as well as the full Courtyard Cafe.  Parking was well-lit and open.  The room was beautiful and clean, with our room having a lovely Courtyard view.  This Courtyard is staggered: one room with a balcony...one room with...Under promise and over deliver is the way I like a hotel to be and this Courtyard achieves new heights in overdelivering.I stayed here for two days on a four day trip.  I'm a very frequent Marriott customer and I know my way around most any Courtyard, or so I thought.I picked this hotel for its convenient location.  It's right on the I-405 freeway and it's about equal distance to the beach as it is to Anaheim (where Disneyland is if you don't know), which was optimal for my trip.Pulling up, this particular Courtyard is clearly immaculately maintained - moreso than any Courtyard by Marriott I've ever stayed at.  Every blade of grass was beautifully trimmed and there weren't any grass clippings to be found.  The driveway was beautiful and the entrance to the lobby was just spotless.  I knew when I walked in that this was the "older" style Courtyard with the actual courtyard in the middle and all of the little extras you don't see in the newer ones like the massive spa, refrigerators in the rooms, etc.Check in was a breeze and everyone was incredibly friendly.  It's got the 24 hour convenience store inside the lobby as well as the full Courtyard Cafe.  Parking was well-lit and open.  The room was beautiful and clean, with our room having a lovely Courtyard view.  This Courtyard is staggered: one room with a balcony...one room with a window throughout the courtyard.  We had a window and it was fine.  We had a lovely view of the immaculate courtyard and the sidewalks around the pool/spa area.What really made this hotel nice was the huge gazebo in the courtyard.  My guest and I had a full schedule and it was just wonderful to come home after a long day and relax.  The gazebo is the obligatory Marriott outdoor smoking area, but I didn't see any smokers...just people relaxing and chatting.  The hotel really was to have played a minor part in our trip, but it was just such a nice place to come home to at night and relax and unwind that I looked forward to coming home.  The hotel is well maintained and there's a vibrant lobby and courtyard in the evenings and it feels "busy, relaxed" if I had to put words to it.There are plenty of decent restaurants in the area and it's just close to everything.  I was flying out of LAX.  From the Fountain Valley Courtyard to LAX took us 32 minutes with no traffic on a Sunday.  It's about 5-10 minutes to get to Orange County/Santa Ana (SNA) airport without traffic.The check-out process was the only place I hit even the most minor snag...I had to go to the desk to correct a billing mistake and it was done in 10 seconds and I walked out with a corrected receipt with their deepest apologies.  I was continually impressed by the staff.I would recommend this hotel for anyone.  It's a great value compared to places closer to Disneyland or Huntington Beach and you will get a much higher level of service here than you'd expect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r15057054-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>15057054</t>
+  </si>
+  <si>
+    <t>04/15/2008</t>
+  </si>
+  <si>
+    <t>Typical Courtyard</t>
+  </si>
+  <si>
+    <t>If you've stayed at one Courtyard, you've stayed at them all.  This one is very convenient to I-405, and is as comfortable as any other.  I arrived at 7:30pm on the tail end of a heat wave, and my room had been sitting vacant without the A/C turned on; it was HOT!  I turned it on high and left for an hour.  By 9:30 it was cool enough to go to bed.Breakfast was available, but not included.  The property was quite clean, as expected.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r12832086-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>12832086</t>
+  </si>
+  <si>
+    <t>01/20/2008</t>
+  </si>
+  <si>
+    <t>Quiet choice off the 405</t>
+  </si>
+  <si>
+    <t>I booked this hotel at the very last possible minute when a friend came into town and wanted to go to Disneyland.  It is a very short drive (15 minutes) to Disneyland and a short drive to Huntington Beach.  Although there aren't any restaurants in the immediate area around the hotel, there are several less than 5 miles away.  The desk service was excellent -- the girl was very friendly and helpful to offer suggestions.  The rooms were standard issue, although I didn't find the beds to be the most comfortable and the linens weren't my choice.  They offer free internet, printing, copying, etc, which are all very convenient.  There is an enclosed hot tub, an outdoor pool, and a basic exercise room.  The hotel was VERY quiet, and I had no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>I booked this hotel at the very last possible minute when a friend came into town and wanted to go to Disneyland.  It is a very short drive (15 minutes) to Disneyland and a short drive to Huntington Beach.  Although there aren't any restaurants in the immediate area around the hotel, there are several less than 5 miles away.  The desk service was excellent -- the girl was very friendly and helpful to offer suggestions.  The rooms were standard issue, although I didn't find the beds to be the most comfortable and the linens weren't my choice.  They offer free internet, printing, copying, etc, which are all very convenient.  There is an enclosed hot tub, an outdoor pool, and a basic exercise room.  The hotel was VERY quiet, and I had no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r7582736-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>7582736</t>
+  </si>
+  <si>
+    <t>05/09/2007</t>
+  </si>
+  <si>
+    <t>Loved this hotel! ~ Great Location</t>
+  </si>
+  <si>
+    <t>I love this Courtyard. It is always super clean and the staff is extremely friendly. The location is perfect for business and leisure travelers. It's right off the 405, which makes it easy to get EVERYWHERE and it's like 8 miles from Disneyland and even less to the Huntington Beach pier. I highly recommend this hotel for all type of travelers and they have really good weekend rates.</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r6764132-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>6764132</t>
+  </si>
+  <si>
+    <t>02/07/2007</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>I paid $69 a night for this hotel thru marriots website.  Hotels.com quoted $69 but added a $40 booking fee which made it much cheaper to go right thru marriot.  The hotel is a little older than some courtyards but for the price its not bad.  Our bed was comfortable and everything seemed clean.  There is interent access in each room and its a decent speed.  They have a nice little business center where you can use the internet and print things.  They have a breakfast buffet thats $10.95 but I didnt try it.   If you have never been to the huntington beach area its quite busy but fountain valley is a little quieter than surrounding areas and its right off the 405 but not noisy.   All of southern CA sucks for being busy but this area is about as good as it gets.  I would say for under $90 its a good deal, but over that there may be nicer places.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>I paid $69 a night for this hotel thru marriots website.  Hotels.com quoted $69 but added a $40 booking fee which made it much cheaper to go right thru marriot.  The hotel is a little older than some courtyards but for the price its not bad.  Our bed was comfortable and everything seemed clean.  There is interent access in each room and its a decent speed.  They have a nice little business center where you can use the internet and print things.  They have a breakfast buffet thats $10.95 but I didnt try it.   If you have never been to the huntington beach area its quite busy but fountain valley is a little quieter than surrounding areas and its right off the 405 but not noisy.   All of southern CA sucks for being busy but this area is about as good as it gets.  I would say for under $90 its a good deal, but over that there may be nicer places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r5981178-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>5981178</t>
+  </si>
+  <si>
+    <t>10/20/2006</t>
+  </si>
+  <si>
+    <t>Loved the ambience</t>
+  </si>
+  <si>
+    <t>Upon arrival we requested an upstairs quiet location. This was given to us plus some. The room is decorated very "Zen" like with wonderful simple touches. The bedding was very clean and lots of pillows, too.  It was one of the cleaniest rooms I have experienced. The staff at the front desk was very efficient and very friendly. Last July my brother and wife stayed at the Marriott location by the Long Beach Airport and their stay was enjoyable, too. The only glitch was the breakfast in the morning as we were not aware that there was a cost and fortunately the head waiter waived this fee because of this unknown factor. It is now our favorite hotel as the last few stays have been with a Best Western and not very favorable. Thanks again to the staff at Courtyard Marriott.Janet HeidlerSun City, CAMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>Upon arrival we requested an upstairs quiet location. This was given to us plus some. The room is decorated very "Zen" like with wonderful simple touches. The bedding was very clean and lots of pillows, too.  It was one of the cleaniest rooms I have experienced. The staff at the front desk was very efficient and very friendly. Last July my brother and wife stayed at the Marriott location by the Long Beach Airport and their stay was enjoyable, too. The only glitch was the breakfast in the morning as we were not aware that there was a cost and fortunately the head waiter waived this fee because of this unknown factor. It is now our favorite hotel as the last few stays have been with a Best Western and not very favorable. Thanks again to the staff at Courtyard Marriott.Janet HeidlerSun City, CAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r1848775-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>1848775</t>
+  </si>
+  <si>
+    <t>04/28/2004</t>
+  </si>
+  <si>
+    <t>Nice quiet choice!</t>
+  </si>
+  <si>
+    <t>Stayed here for several days for business.  Hotel was very quiet, not a lot of visitors.  Excellent access to the highway.  Clean pool area.  Good breakfast (not complimentary).  Attentive staff.  Only thing I noticed was that there seemed to be an ant problem as the staff sprayed my room for ants on the carpet and the staff was disinfecting the hot tub after a swarm of ants appeared.  Also, there wasn't much as far as restaurants in the area so you have to drive into Costa Mesa or Huntington Beach unless you are daring enough to try the authentic ethnic options in Little Saigon.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3080,7089 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>197</v>
+      </c>
+      <c r="X22" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>239</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>289</v>
+      </c>
+      <c r="J34" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" t="s">
+        <v>291</v>
+      </c>
+      <c r="L34" t="s">
+        <v>292</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>278</v>
+      </c>
+      <c r="X34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>299</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>300</v>
+      </c>
+      <c r="X35" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s">
+        <v>307</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>308</v>
+      </c>
+      <c r="O36" t="s">
+        <v>102</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>309</v>
+      </c>
+      <c r="X36" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>308</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>300</v>
+      </c>
+      <c r="X37" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>323</v>
+      </c>
+      <c r="X38" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>323</v>
+      </c>
+      <c r="X39" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>299</v>
+      </c>
+      <c r="O40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>323</v>
+      </c>
+      <c r="X40" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>337</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>338</v>
+      </c>
+      <c r="J41" t="s">
+        <v>339</v>
+      </c>
+      <c r="K41" t="s">
+        <v>340</v>
+      </c>
+      <c r="L41" t="s">
+        <v>341</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>299</v>
+      </c>
+      <c r="O41" t="s">
+        <v>102</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>342</v>
+      </c>
+      <c r="X41" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s">
+        <v>349</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>342</v>
+      </c>
+      <c r="X42" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>352</v>
+      </c>
+      <c r="J43" t="s">
+        <v>353</v>
+      </c>
+      <c r="K43" t="s">
+        <v>354</v>
+      </c>
+      <c r="L43" t="s">
+        <v>355</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>342</v>
+      </c>
+      <c r="X43" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>357</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>358</v>
+      </c>
+      <c r="J44" t="s">
+        <v>359</v>
+      </c>
+      <c r="K44" t="s">
+        <v>360</v>
+      </c>
+      <c r="L44" t="s">
+        <v>361</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>362</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>363</v>
+      </c>
+      <c r="X44" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>366</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>367</v>
+      </c>
+      <c r="J45" t="s">
+        <v>368</v>
+      </c>
+      <c r="K45" t="s">
+        <v>369</v>
+      </c>
+      <c r="L45" t="s">
+        <v>370</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>371</v>
+      </c>
+      <c r="O45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>372</v>
+      </c>
+      <c r="X45" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>375</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>376</v>
+      </c>
+      <c r="J46" t="s">
+        <v>377</v>
+      </c>
+      <c r="K46" t="s">
+        <v>378</v>
+      </c>
+      <c r="L46" t="s">
+        <v>379</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>371</v>
+      </c>
+      <c r="O46" t="s">
+        <v>102</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>372</v>
+      </c>
+      <c r="X46" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>386</v>
+      </c>
+      <c r="X47" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s">
+        <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>394</v>
+      </c>
+      <c r="O48" t="s">
+        <v>69</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>395</v>
+      </c>
+      <c r="X48" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>399</v>
+      </c>
+      <c r="J49" t="s">
+        <v>400</v>
+      </c>
+      <c r="K49" t="s">
+        <v>401</v>
+      </c>
+      <c r="L49" t="s">
+        <v>402</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>394</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>403</v>
+      </c>
+      <c r="X49" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" t="s">
+        <v>408</v>
+      </c>
+      <c r="K50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>411</v>
+      </c>
+      <c r="O50" t="s">
+        <v>102</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>412</v>
+      </c>
+      <c r="X50" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>415</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>416</v>
+      </c>
+      <c r="J51" t="s">
+        <v>417</v>
+      </c>
+      <c r="K51" t="s">
+        <v>418</v>
+      </c>
+      <c r="L51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>411</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>420</v>
+      </c>
+      <c r="X51" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>423</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>424</v>
+      </c>
+      <c r="J52" t="s">
+        <v>425</v>
+      </c>
+      <c r="K52" t="s">
+        <v>426</v>
+      </c>
+      <c r="L52" t="s">
+        <v>427</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>102</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>428</v>
+      </c>
+      <c r="X52" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>432</v>
+      </c>
+      <c r="J53" t="s">
+        <v>433</v>
+      </c>
+      <c r="K53" t="s">
+        <v>434</v>
+      </c>
+      <c r="L53" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>411</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>428</v>
+      </c>
+      <c r="X53" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>437</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>438</v>
+      </c>
+      <c r="J54" t="s">
+        <v>439</v>
+      </c>
+      <c r="K54" t="s">
+        <v>440</v>
+      </c>
+      <c r="L54" t="s">
+        <v>441</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>442</v>
+      </c>
+      <c r="O54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>428</v>
+      </c>
+      <c r="X54" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>444</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>445</v>
+      </c>
+      <c r="J55" t="s">
+        <v>446</v>
+      </c>
+      <c r="K55" t="s">
+        <v>447</v>
+      </c>
+      <c r="L55" t="s">
+        <v>448</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>442</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>449</v>
+      </c>
+      <c r="X55" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>452</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>453</v>
+      </c>
+      <c r="J56" t="s">
+        <v>454</v>
+      </c>
+      <c r="K56" t="s">
+        <v>455</v>
+      </c>
+      <c r="L56" t="s">
+        <v>456</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>457</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>458</v>
+      </c>
+      <c r="X56" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>461</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J57" t="s">
+        <v>463</v>
+      </c>
+      <c r="K57" t="s">
+        <v>464</v>
+      </c>
+      <c r="L57" t="s">
+        <v>465</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>457</v>
+      </c>
+      <c r="O57" t="s">
+        <v>466</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>467</v>
+      </c>
+      <c r="X57" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>470</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>471</v>
+      </c>
+      <c r="J58" t="s">
+        <v>472</v>
+      </c>
+      <c r="K58" t="s">
+        <v>473</v>
+      </c>
+      <c r="L58" t="s">
+        <v>474</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>457</v>
+      </c>
+      <c r="O58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>467</v>
+      </c>
+      <c r="X58" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>477</v>
+      </c>
+      <c r="J59" t="s">
+        <v>478</v>
+      </c>
+      <c r="K59" t="s">
+        <v>479</v>
+      </c>
+      <c r="L59" t="s">
+        <v>480</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>481</v>
+      </c>
+      <c r="X59" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>484</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>485</v>
+      </c>
+      <c r="J60" t="s">
+        <v>486</v>
+      </c>
+      <c r="K60" t="s">
+        <v>487</v>
+      </c>
+      <c r="L60" t="s">
+        <v>488</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>489</v>
+      </c>
+      <c r="O60" t="s">
+        <v>102</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>481</v>
+      </c>
+      <c r="X60" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>491</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>492</v>
+      </c>
+      <c r="J61" t="s">
+        <v>493</v>
+      </c>
+      <c r="K61" t="s">
+        <v>494</v>
+      </c>
+      <c r="L61" t="s">
+        <v>495</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>489</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>481</v>
+      </c>
+      <c r="X61" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>497</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>498</v>
+      </c>
+      <c r="J62" t="s">
+        <v>499</v>
+      </c>
+      <c r="K62" t="s">
+        <v>500</v>
+      </c>
+      <c r="L62" t="s">
+        <v>501</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>502</v>
+      </c>
+      <c r="O62" t="s">
+        <v>69</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>503</v>
+      </c>
+      <c r="X62" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>506</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>507</v>
+      </c>
+      <c r="J63" t="s">
+        <v>508</v>
+      </c>
+      <c r="K63" t="s">
+        <v>509</v>
+      </c>
+      <c r="L63" t="s">
+        <v>510</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O63" t="s">
+        <v>466</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>512</v>
+      </c>
+      <c r="X63" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>515</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>516</v>
+      </c>
+      <c r="J64" t="s">
+        <v>517</v>
+      </c>
+      <c r="K64" t="s">
+        <v>518</v>
+      </c>
+      <c r="L64" t="s">
+        <v>519</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>520</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>521</v>
+      </c>
+      <c r="X64" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>525</v>
+      </c>
+      <c r="J65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" t="s">
+        <v>527</v>
+      </c>
+      <c r="L65" t="s">
+        <v>528</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>529</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>530</v>
+      </c>
+      <c r="X65" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>534</v>
+      </c>
+      <c r="J66" t="s">
+        <v>535</v>
+      </c>
+      <c r="K66" t="s">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s">
+        <v>537</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>529</v>
+      </c>
+      <c r="O66" t="s">
+        <v>69</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>538</v>
+      </c>
+      <c r="X66" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>541</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>542</v>
+      </c>
+      <c r="J67" t="s">
+        <v>543</v>
+      </c>
+      <c r="K67" t="s">
+        <v>544</v>
+      </c>
+      <c r="L67" t="s">
+        <v>545</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>529</v>
+      </c>
+      <c r="O67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>546</v>
+      </c>
+      <c r="X67" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>549</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>550</v>
+      </c>
+      <c r="J68" t="s">
+        <v>551</v>
+      </c>
+      <c r="K68" t="s">
+        <v>552</v>
+      </c>
+      <c r="L68" t="s">
+        <v>553</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>554</v>
+      </c>
+      <c r="O68" t="s">
+        <v>102</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>555</v>
+      </c>
+      <c r="X68" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>558</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>559</v>
+      </c>
+      <c r="J69" t="s">
+        <v>560</v>
+      </c>
+      <c r="K69" t="s">
+        <v>561</v>
+      </c>
+      <c r="L69" t="s">
+        <v>562</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>563</v>
+      </c>
+      <c r="O69" t="s">
+        <v>69</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>564</v>
+      </c>
+      <c r="X69" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>567</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>568</v>
+      </c>
+      <c r="J70" t="s">
+        <v>569</v>
+      </c>
+      <c r="K70" t="s">
+        <v>570</v>
+      </c>
+      <c r="L70" t="s">
+        <v>571</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>572</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>555</v>
+      </c>
+      <c r="X70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>574</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>575</v>
+      </c>
+      <c r="J71" t="s">
+        <v>576</v>
+      </c>
+      <c r="K71" t="s">
+        <v>577</v>
+      </c>
+      <c r="L71" t="s">
+        <v>578</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>572</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>579</v>
+      </c>
+      <c r="X71" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>582</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>583</v>
+      </c>
+      <c r="J72" t="s">
+        <v>584</v>
+      </c>
+      <c r="K72" t="s">
+        <v>585</v>
+      </c>
+      <c r="L72" t="s">
+        <v>586</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>587</v>
+      </c>
+      <c r="X72" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>590</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>591</v>
+      </c>
+      <c r="J73" t="s">
+        <v>592</v>
+      </c>
+      <c r="K73" t="s">
+        <v>593</v>
+      </c>
+      <c r="L73" t="s">
+        <v>594</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>595</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>596</v>
+      </c>
+      <c r="X73" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>599</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>600</v>
+      </c>
+      <c r="J74" t="s">
+        <v>601</v>
+      </c>
+      <c r="K74" t="s">
+        <v>602</v>
+      </c>
+      <c r="L74" t="s">
+        <v>603</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>604</v>
+      </c>
+      <c r="O74" t="s">
+        <v>102</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>605</v>
+      </c>
+      <c r="X74" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>608</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>609</v>
+      </c>
+      <c r="J75" t="s">
+        <v>610</v>
+      </c>
+      <c r="K75" t="s">
+        <v>611</v>
+      </c>
+      <c r="L75" t="s">
+        <v>612</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>604</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>613</v>
+      </c>
+      <c r="X75" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>616</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>617</v>
+      </c>
+      <c r="J76" t="s">
+        <v>610</v>
+      </c>
+      <c r="K76" t="s">
+        <v>618</v>
+      </c>
+      <c r="L76" t="s">
+        <v>619</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>620</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>621</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>622</v>
+      </c>
+      <c r="J77" t="s">
+        <v>623</v>
+      </c>
+      <c r="K77" t="s">
+        <v>624</v>
+      </c>
+      <c r="L77" t="s">
+        <v>625</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>626</v>
+      </c>
+      <c r="O77" t="s">
+        <v>69</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>627</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>628</v>
+      </c>
+      <c r="J78" t="s">
+        <v>629</v>
+      </c>
+      <c r="K78" t="s">
+        <v>630</v>
+      </c>
+      <c r="L78" t="s">
+        <v>631</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>626</v>
+      </c>
+      <c r="O78" t="s">
+        <v>102</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>633</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>634</v>
+      </c>
+      <c r="J79" t="s">
+        <v>635</v>
+      </c>
+      <c r="K79" t="s">
+        <v>636</v>
+      </c>
+      <c r="L79" t="s">
+        <v>637</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>638</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>639</v>
+      </c>
+      <c r="J80" t="s">
+        <v>640</v>
+      </c>
+      <c r="K80" t="s">
+        <v>641</v>
+      </c>
+      <c r="L80" t="s">
+        <v>642</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>643</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>644</v>
+      </c>
+      <c r="X80" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>647</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>648</v>
+      </c>
+      <c r="J81" t="s">
+        <v>649</v>
+      </c>
+      <c r="K81" t="s">
+        <v>650</v>
+      </c>
+      <c r="L81" t="s">
+        <v>651</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>644</v>
+      </c>
+      <c r="X81" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>653</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>654</v>
+      </c>
+      <c r="J82" t="s">
+        <v>655</v>
+      </c>
+      <c r="K82" t="s">
+        <v>656</v>
+      </c>
+      <c r="L82" t="s">
+        <v>657</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>658</v>
+      </c>
+      <c r="O82" t="s">
+        <v>69</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>644</v>
+      </c>
+      <c r="X82" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>660</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>661</v>
+      </c>
+      <c r="J83" t="s">
+        <v>662</v>
+      </c>
+      <c r="K83" t="s">
+        <v>663</v>
+      </c>
+      <c r="L83" t="s">
+        <v>664</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>665</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>667</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>668</v>
+      </c>
+      <c r="J84" t="s">
+        <v>669</v>
+      </c>
+      <c r="K84" t="s">
+        <v>670</v>
+      </c>
+      <c r="L84" t="s">
+        <v>671</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>672</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>674</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>675</v>
+      </c>
+      <c r="J85" t="s">
+        <v>676</v>
+      </c>
+      <c r="K85" t="s">
+        <v>677</v>
+      </c>
+      <c r="L85" t="s">
+        <v>678</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>672</v>
+      </c>
+      <c r="O85" t="s">
+        <v>102</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>680</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>681</v>
+      </c>
+      <c r="J86" t="s">
+        <v>682</v>
+      </c>
+      <c r="K86" t="s">
+        <v>683</v>
+      </c>
+      <c r="L86" t="s">
+        <v>684</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>685</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>686</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>687</v>
+      </c>
+      <c r="J87" t="s">
+        <v>688</v>
+      </c>
+      <c r="K87" t="s">
+        <v>689</v>
+      </c>
+      <c r="L87" t="s">
+        <v>690</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>685</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>691</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>692</v>
+      </c>
+      <c r="J88" t="s">
+        <v>693</v>
+      </c>
+      <c r="K88" t="s">
+        <v>694</v>
+      </c>
+      <c r="L88" t="s">
+        <v>695</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>696</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>697</v>
+      </c>
+      <c r="X88" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>700</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>701</v>
+      </c>
+      <c r="J89" t="s">
+        <v>702</v>
+      </c>
+      <c r="K89" t="s">
+        <v>703</v>
+      </c>
+      <c r="L89" t="s">
+        <v>704</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>705</v>
+      </c>
+      <c r="X89" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>708</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>709</v>
+      </c>
+      <c r="J90" t="s">
+        <v>710</v>
+      </c>
+      <c r="K90" t="s">
+        <v>711</v>
+      </c>
+      <c r="L90" t="s">
+        <v>712</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>713</v>
+      </c>
+      <c r="O90" t="s">
+        <v>102</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>714</v>
+      </c>
+      <c r="X90" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>717</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>718</v>
+      </c>
+      <c r="J91" t="s">
+        <v>719</v>
+      </c>
+      <c r="K91" t="s">
+        <v>720</v>
+      </c>
+      <c r="L91" t="s">
+        <v>721</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>713</v>
+      </c>
+      <c r="O91" t="s">
+        <v>102</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>723</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>724</v>
+      </c>
+      <c r="J92" t="s">
+        <v>725</v>
+      </c>
+      <c r="K92" t="s">
+        <v>726</v>
+      </c>
+      <c r="L92" t="s">
+        <v>727</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>728</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>730</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>731</v>
+      </c>
+      <c r="J93" t="s">
+        <v>732</v>
+      </c>
+      <c r="K93" t="s">
+        <v>733</v>
+      </c>
+      <c r="L93" t="s">
+        <v>734</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>696</v>
+      </c>
+      <c r="O93" t="s">
+        <v>102</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>735</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>736</v>
+      </c>
+      <c r="J94" t="s">
+        <v>737</v>
+      </c>
+      <c r="K94" t="s">
+        <v>738</v>
+      </c>
+      <c r="L94" t="s">
+        <v>739</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>696</v>
+      </c>
+      <c r="O94" t="s">
+        <v>69</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>741</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>742</v>
+      </c>
+      <c r="J95" t="s">
+        <v>743</v>
+      </c>
+      <c r="K95" t="s">
+        <v>744</v>
+      </c>
+      <c r="L95" t="s">
+        <v>745</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>746</v>
+      </c>
+      <c r="O95" t="s">
+        <v>69</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>747</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>748</v>
+      </c>
+      <c r="J96" t="s">
+        <v>749</v>
+      </c>
+      <c r="K96" t="s">
+        <v>750</v>
+      </c>
+      <c r="L96" t="s">
+        <v>751</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>752</v>
+      </c>
+      <c r="O96" t="s">
+        <v>69</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>754</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>755</v>
+      </c>
+      <c r="J97" t="s">
+        <v>756</v>
+      </c>
+      <c r="K97" t="s">
+        <v>757</v>
+      </c>
+      <c r="L97" t="s">
+        <v>758</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>759</v>
+      </c>
+      <c r="O97" t="s">
+        <v>102</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>761</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>762</v>
+      </c>
+      <c r="J98" t="s">
+        <v>763</v>
+      </c>
+      <c r="K98" t="s">
+        <v>764</v>
+      </c>
+      <c r="L98" t="s">
+        <v>765</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>766</v>
+      </c>
+      <c r="O98" t="s">
+        <v>69</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>768</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>769</v>
+      </c>
+      <c r="J99" t="s">
+        <v>770</v>
+      </c>
+      <c r="K99" t="s">
+        <v>771</v>
+      </c>
+      <c r="L99" t="s">
+        <v>772</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>766</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>773</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>774</v>
+      </c>
+      <c r="J100" t="s">
+        <v>775</v>
+      </c>
+      <c r="K100" t="s">
+        <v>776</v>
+      </c>
+      <c r="L100" t="s">
+        <v>777</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>766</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>778</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>779</v>
+      </c>
+      <c r="J101" t="s">
+        <v>780</v>
+      </c>
+      <c r="K101" t="s">
+        <v>781</v>
+      </c>
+      <c r="L101" t="s">
+        <v>782</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>783</v>
+      </c>
+      <c r="O101" t="s">
+        <v>102</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>784</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>785</v>
+      </c>
+      <c r="J102" t="s">
+        <v>786</v>
+      </c>
+      <c r="K102" t="s">
+        <v>787</v>
+      </c>
+      <c r="L102" t="s">
+        <v>788</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>790</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>791</v>
+      </c>
+      <c r="J103" t="s">
+        <v>792</v>
+      </c>
+      <c r="K103" t="s">
+        <v>793</v>
+      </c>
+      <c r="L103" t="s">
+        <v>794</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>796</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>797</v>
+      </c>
+      <c r="J104" t="s">
+        <v>798</v>
+      </c>
+      <c r="K104" t="s">
+        <v>799</v>
+      </c>
+      <c r="L104" t="s">
+        <v>800</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>801</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>803</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>804</v>
+      </c>
+      <c r="J105" t="s">
+        <v>805</v>
+      </c>
+      <c r="K105" t="s">
+        <v>806</v>
+      </c>
+      <c r="L105" t="s">
+        <v>807</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>801</v>
+      </c>
+      <c r="O105" t="s">
+        <v>102</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>808</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>809</v>
+      </c>
+      <c r="J106" t="s">
+        <v>810</v>
+      </c>
+      <c r="K106" t="s">
+        <v>811</v>
+      </c>
+      <c r="L106" t="s">
+        <v>812</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>813</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>815</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>816</v>
+      </c>
+      <c r="J107" t="s">
+        <v>817</v>
+      </c>
+      <c r="K107" t="s">
+        <v>818</v>
+      </c>
+      <c r="L107" t="s">
+        <v>819</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>820</v>
+      </c>
+      <c r="O107" t="s">
+        <v>102</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>821</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>822</v>
+      </c>
+      <c r="J108" t="s">
+        <v>823</v>
+      </c>
+      <c r="K108" t="s">
+        <v>824</v>
+      </c>
+      <c r="L108" t="s">
+        <v>825</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>826</v>
+      </c>
+      <c r="O108" t="s">
+        <v>69</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>828</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>829</v>
+      </c>
+      <c r="J109" t="s">
+        <v>830</v>
+      </c>
+      <c r="K109" t="s">
+        <v>831</v>
+      </c>
+      <c r="L109" t="s">
+        <v>832</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>833</v>
+      </c>
+      <c r="O109" t="s">
+        <v>102</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>835</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>836</v>
+      </c>
+      <c r="J110" t="s">
+        <v>837</v>
+      </c>
+      <c r="K110" t="s">
+        <v>838</v>
+      </c>
+      <c r="L110" t="s">
+        <v>839</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>839</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_146.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_146.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="949">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kevin L</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Pearl N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r568154964-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>If I knew about the parking fee and the no breakfast I would have booked at Ayres across the street.   It’s been a few years since we’ve been back to this hotel (we’ve stayed at Ayres since it opened) and it looks like it was recently renovated.  The room with double beds is small and so is the sink area.  It’s clean but I prefer the other one.  More</t>
   </si>
   <si>
+    <t>AKD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r565932034-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -235,6 +244,9 @@
   </si>
   <si>
     <t>Stayed here one night. Room was clean, recently renovated. Lobby very trendy with lots of places to sit and relax. Enjoyed breakfast and Starbucks coffee in the morning. Right off 405 so convenient for travelMore</t>
+  </si>
+  <si>
+    <t>Jacqui S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r552622909-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -266,6 +278,9 @@
 At 4:00 my husband went down to see if queen room might be ready. It wasn’t. My family of 5 had dinner plans with local relatives and we ended up with all of us in the same room getting...A month ago I booked a king suite and a queen suite for my family of 5 to stay in the first weekend in January. After driving 10 hours I called the hotel at noon to see if we could check-in at 2pm instead of 3pm. I was told, yes, our rooms would be ready. We arrived at 2pm and were told the king room was available but the queen room was not. They told me the guest wasn’t checking out till 4pm and they needed to clean room afterwards. WHAT? I was lied to on the phone when I called and you’re letting a guest stay till 4pm in a room I reserved. They told me sorry but nothing they could do about it. They would let me know when it was available. The customer service was horrible and pretty much tough cookies to me and my family of 5. Needless to say we headed to the 1 room. Turned the corner and the hall to the rooms was trashed with remodeling material everywhere. The floors were covered in debris. WHAT? Remodeling and the mess we’d be walking through was never mentioned when I made reservations or when we checked-in. At 4:00 my husband went down to see if queen room might be ready. It wasn’t. My family of 5 had dinner plans with local relatives and we ended up with all of us in the same room getting ready to go out. When the room was finally ready around 5pm we were offered 4 free breakfasts for the inconvenience. Charged us full price for a room that my family didn’t get to use for the full time reserved. Nope, that was our 2nd stay there and we will not return.More</t>
   </si>
   <si>
+    <t>rubifu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r549395376-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -284,6 +299,9 @@
     <t>Always stay at Marriott as I'm gold member.  Specifically booked this one as it was close to family and stated had full gym.  Well hotel is under construction ( not mentioned on website when booked) and they have no gym, whirlpool , it's in mid construction and they are charging 7 per day to park in an empty lot.  Ridiculous Told me I could use gym at redesence inn which I tried and is a closet with 5 dumbells.  Totally useless.  When i complained about that they told me I could go to la fitness or 24 fitness - but they I had to pay.  Unacceptable This is a crappy property that has no right charging for parking and should be ashamed for lack of transparency on construction and amenities available as I would have never booked it.  I even tried emailing manager and got no response.  So I will resort to TripAdvisor and twitter.  More</t>
   </si>
   <si>
+    <t>bim55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r531840827-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -308,6 +326,9 @@
     <t>I just spent two comfortable nights at this hotel and found it to be typical MCY in every way.  Well placed, clean with friendly staff.It's located in the same parking lot as a Residence Inn so that could work for you also. Either way you can't go wrong. More</t>
   </si>
   <si>
+    <t>Susan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r495599039-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -338,6 +359,9 @@
     <t>Check in was very good.  Ruby was excellent very quick and efficient. I have been traveling for 3 months on business and this was the best experience so far when checking in. Room was spacious and clean. There was an issue with the air conditioning unit on the 2 Nd night . They sent someone to put a fan in to dry floor and take unit apart. The only thing I found to be a little weird was at 1030 at night they knocked on the door to remove the fan and take it out of room. A bit late but I just went with it. Pool area was nice whirlpool was in a separate area which was gated good idea so no children could be in the whirlpool. They had a washer and dryer for guests to use. Not sure why hotels feel the need to charge for parking though you are paying to stay at the hotel so why pay to park? I would stay here again and recommend to people. Please make sure to recognize Ruby as she does an outstanding job. More</t>
   </si>
   <si>
+    <t>gatrgrl05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r493545119-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -362,6 +386,9 @@
     <t>We have stayed here a few times while visiting our son and recommend it highly!  The location is convenient to shopping, beaches and all that SoCal has to offer.  It's close to the 405, but also is adjacent to quiet neighborhoods and traffic-free local streets... a real plus!  Our room was clean, comfortable and quiet. The pool and courtyard are nicely landscaped.  The front desk staff are great!  Our son left his sunglasses on a previous stay and Cheryl made sure she kept them safely until he could return and pick them up.  All in all, it's a nice property that offers a good value.  We'll be back! More</t>
   </si>
   <si>
+    <t>Lvlcy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r492003149-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -389,6 +416,9 @@
     <t>Between myself, my husband, and my children we have probably stayed here at least 30 times over the last several years. Nothing spectacular and sometimes better than others but clearly got the job done. The location was perfect for us and we like courtyards. What a surprise at check in that they now charge for parking! The lot is huge and never full. This feels like a rip off, and was probably the last straw for some very loyal customers. Let me be clear it was not the amount charged, but the fact it is charged at all. There are a lot of other newer hotels but we tend to stay with our old favorites. Probably not anymore .More</t>
   </si>
   <si>
+    <t>Carlie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r483511835-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -407,6 +437,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>TrvlAgtRet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r477126446-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
   </si>
   <si>
     <t>Booked stay at Courtyard in Huntington Beach as it was on my list of hotels near Orange Coast Memorial, where I was scheduled for surgery. Everything I requested was taken care of--early check in, quiet room on top floor. Staff extremely efficient and accommodating.More</t>
+  </si>
+  <si>
+    <t>Chloeme5</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r475679475-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -453,6 +489,9 @@
 As far as food goes, they do not serve complimentary breakfast but they have a...If you've stayed at one Courtyard Marriott you've stayed at them all. The decor and layout of each room is very standard across the chain. If I was to compare this hotel chain to clothing I'd call it business casual. Not fancy, not casual but good enough to get by. It's a nice and comfortable option for a short 1-2 night trip. This particular location was great. There is tons of free parking and easy access to the 405 freeway. It is only a 5 minute drive to the Garden Grove area. I would not recommend staying here without a car. There is not really any commercial businesses within walking distance. It is surrounded by many other hotels and 2 gas stations. It's a quiet area. I stayed in a king suite for one night. The room was clean, the furniture seemed relatively new and the space was set up in a way that is very functional and spacious. Each room has a balcony. Since my room was facing the pool, I was able to conveniently access the pool/jacuzzi area without having to go through the main hallway. While my room was located on the inner courtyard, I did not hear any street noise but I certainly heard my neighbors footsteps upstairs. I recommend staying on the top floor if you want to avoid this.As far as food goes, they do not serve complimentary breakfast but they have a bistro onsite which serves a full dining menu and Starbucks coffee. When I arrived on Saturday around 1:30pm, the bistro was only open for breakfast and dinner. For whatever reason they close during lunch. Perhaps it's open for lunch on weekdays. I really wanted my cup of joe, but luckily I was able to make some in my hotel room. It was a cheap unrecognizable coffee brand but it got the job done.Overall, a comfortable stay.More</t>
   </si>
   <si>
+    <t>Ronald S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r454879800-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -480,6 +519,9 @@
     <t>My wife and I have enjoyed staying at this property in the past, when visiting grandsons. The service and location has always been great. NOT this time!!Booked three nights "Deluxe Room", which was a disabled room. Asked for a non disabled room and was told that was the only room available. Understandable, but would have been good to be told in advance or at the time of booking the room. Early this morning at 5:45 am the room above seemed to be jogging in the room.Tonight requested an extra blanket at 7:45 and had to go to the front desk at 9:10 to ask for the blanket. As reflected in my other reviews I am quick to commend properties that go beyond normal service, this property at this time is not in that group.For the price, we will no longer stay at this property.More</t>
   </si>
   <si>
+    <t>Ndngrlrainey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r452804421-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>We booked a two night stay in a 1 bedroom suite. Because I do not like a lot of noise upon check-in we were offered the 2nd or 3rd floor. I took the 3rd floor so there were no little gremlins running over head. I also specifically asked for it to not be near the street or the freeway since it is directly adjacent to the property. The front desk staff said no problem it was interior and facing the pool, so we thought this would be perfect. We checked into our room which was nice and spacious, and clean. We did not stay in the room long as the kids wanted to swim. So we did, then went to dinner. When we got back the and it was time to turn in about 9:30 we soon realized that our room # 312 had a strong noise coming from the mechanical room next door. It sounded like a washer out of balance or a helicopter flying directly over head. We thought something was wrong so we called the front desk regarding the noise. The came up with maintenance and checked it out, and said it was the AC system and there was nothing they could do. They offered for us to move but since the kids were asleep on the sofa bed we just asked for ear plugs or the option to move if we could not sleep. They did...We booked a two night stay in a 1 bedroom suite. Because I do not like a lot of noise upon check-in we were offered the 2nd or 3rd floor. I took the 3rd floor so there were no little gremlins running over head. I also specifically asked for it to not be near the street or the freeway since it is directly adjacent to the property. The front desk staff said no problem it was interior and facing the pool, so we thought this would be perfect. We checked into our room which was nice and spacious, and clean. We did not stay in the room long as the kids wanted to swim. So we did, then went to dinner. When we got back the and it was time to turn in about 9:30 we soon realized that our room # 312 had a strong noise coming from the mechanical room next door. It sounded like a washer out of balance or a helicopter flying directly over head. We thought something was wrong so we called the front desk regarding the noise. The came up with maintenance and checked it out, and said it was the AC system and there was nothing they could do. They offered for us to move but since the kids were asleep on the sofa bed we just asked for ear plugs or the option to move if we could not sleep. They did not have ear plugs, but they did comp the room across the hall in case we wanted to move. So we wacked ourselves out with Advil PM, found some ear plugs in the bag and tried to make it work. The noise went on all night and it was a horrible nights sleep, plus we wound up feeling sick in the morning. The noise was so bad that it made us feel as though our sleep rhythm for what little sleep we got cycled to this whoop, whoop, whoop noise all night long. In the morning we got out went to our event, and by the time we came back we decided that rather than to move rooms we would just check out early and go home. Fortunately the night staff had documented the issue, and when I went to the front desk to check out they were very accommodating. They comp'd our room for the one night and did not charge us any fees for the early check out and cancellation of the second night. Overall the experience was ok only because the hotel staff made it right. The hotel and the room was nice "except for the noise". So we would consider staying here again, but definitely in another room at another place within the property, or maybe we should have gone to the Residence Inn which was right next door. Also FYI, the kids said the sofa sleeper was very lumpy with springs that poked them all night. So maybe they might want to consider some new mattresses on the pull outs as well.More</t>
   </si>
   <si>
+    <t>Charlie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r447471443-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -528,6 +573,9 @@
     <t>I've stayed at this hotel three or four times now when visiting the area for business.  The hotel is located in a good neighborhood and has convenient access to major streets/highways.  The hotel has a nice lobby with a convenient grab n go snack bar or breakfast area.  The rooms are sizeable and beds are comfortable although in general it just feels like a typical hotel room.  The only con I have is that each time I stay it feels overly humid in the rooms where the A/C units appear to run constantly but not do anything.More</t>
   </si>
   <si>
+    <t>ositao2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r445473975-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -546,6 +594,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Phillip S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r432430770-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -573,6 +624,9 @@
     <t>We stayed here for a wedding not to far away. No Complaints at all. Clean property, friendly employees and there is a Arco across the street open 24 hours. So obtaining snacks, beer etc... even late at night was a simple cross the street effort.The pool has lights that change every few seconds making the view from our suite a little more tropical feelingMore</t>
   </si>
   <si>
+    <t>Simon G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r427991346-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -597,6 +651,9 @@
     <t>Chose this property due to the freeway access to I-405 and it's close proximity to Huntington Beach. My wife and I were in town for the Marathon in Long Beach, but we wanted to stay where we could drive to the beach as well. This property is in good condition both exterior and interior. Our King room was just the right size and the bed was good. We enjoyed the pool and jacuzzi, both were excellent temperatures and pool towels were readily available. The jacuzzi was especially nice with a nice strong jets relaxing the tired muscles after a day at the beach or for my wife running the marathon. The check in staff were accommodating and friendly, the beach is only a short 10-15 min drive down Brookhurst Avenue. The only minor negative is each day we were there we would hang our towels up to reuse them as the card in the room states "save water" hang your towels up to reuse or leave on the floor for housekeeping to replace. We hung our towels up and each day they got replaced so a moot point, just trying to do our part! I recommend this property for a clean, quiet and safe place to spend a few nights while exploring the Southern California area.More</t>
   </si>
   <si>
+    <t>DarrinJones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r408896962-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -622,6 +679,9 @@
   </si>
   <si>
     <t>I recently stayed at this hotel with my wife and kids.  Not really much to say about it.  It's an older style Courtyard, though it's mostly been kept up to date.  The only things I thought were showing a little age were the plumbing fixtures, but the shower worked well, and the bed was comfortable.  The location is pretty convenient right off the 405.  One weird thing -- when we got into our room, the carpets were a little bit damp, as if they had just had them cleaned.  I wasn't quite sure how to feel about this... one one hand, eww damp carpets.  On the other, it was nice to have a room with freshly cleaned carpets, and they were close to dry by morning, and completely dry by the second night.  On balance, I didn't complain or anything, especially since the front desk had already accommodated my last-minute request for a room with two queens instead of a king.  Overall, I would likely return to this hotel for future travel.More</t>
+  </si>
+  <si>
+    <t>mkirby3200</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r405099464-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -648,6 +708,9 @@
 In our room the little screw cover on the toilet lid was missing. The pool gates were a little hokey; they obviously removed the card key access and just put in manual locks.  You just had to reach over and open the gate (similar to the gate leading to many backyards).  They left the holes for the old card key system so it looked kind of ghetto.  There was also a gate that for some reason was just a...We spent four nights in Anaheim and then another two in San Diego an finally one night in this hotel before we flew out of LGB.  We had planned to go to the beach this day so we booked something close to Huntington Beach (this hotel) and the airport.  The location of this hotel was perfect.When we checked in we were way early and our room was not ready but they had a different room type that was available and so we took that.  We had a first floor room that opened right to the pool.  That was actually really great.  Our five year old loved that.  He was was actually so excited about that he didn't want to go to the beach!Everything was very nice about this hotel with a few minor exceptions.  I travel a lot for work and stay in a lot of Courtyards.  I have a pretty high expectations so minor things get to me.In our room the little screw cover on the toilet lid was missing. The pool gates were a little hokey; they obviously removed the card key access and just put in manual locks.  You just had to reach over and open the gate (similar to the gate leading to many backyards).  They left the holes for the old card key system so it looked kind of ghetto.  There was also a gate that for some reason was just a piece of wood.  It was a sheet of plywood instead of a gate.  Again, these are pretty minor issues but with those small fixes the hotel would be great!The Bistro was great, the front desk was great.  Overall I really liked this hotel.  We will  probably come to this area and stay here again.More</t>
   </si>
   <si>
+    <t>Luv2travel478</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r403346872-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -666,6 +729,9 @@
     <t>Comfortable and convenient.  Room and hotel was up to date and clean and fresh.  Room smelled excellent.  Staff was friendly.  Pool didn't have Jacuzzi which was a bummer.  But room had direct access to pool courtyard.  That was nice.More</t>
   </si>
   <si>
+    <t>mm129988</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r391926679-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -693,6 +759,9 @@
     <t>I usually stay at Marriott's because they have dependable Wi-Fi service. The place be in a corner room with no Wi-Fi signal. They have no other rooms to move me too. I'm going to have to check out early in the morning and go somewhere to do business. Without Internet it's a complete waste of time. Avoid this MarriottMore</t>
   </si>
   <si>
+    <t>OhioRob196620</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r391112800-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -714,6 +783,9 @@
     <t>Very nice rooms, refrigerator, coffee pot, separate bedroom, pullout sofa. The pullout was not very comfortable ,but it did the job. The pool area was nice, nice fitness area. The food was a little over priced. Overall very nice place to stay, good location.More</t>
   </si>
   <si>
+    <t>TellMeWhatItIs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r379679693-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -729,6 +801,9 @@
     <t xml:space="preserve">If you need to stay in the area it's a decent place. Quiet at night, pretty clean based on my room. Breakfast spot is ok and loony is nice. I've stayed at other courtyards that were better overall. Staff are ok and if your looking to do other stuff everything is a drive. Not much in walking distance. </t>
   </si>
   <si>
+    <t>Brianna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r358870293-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -754,6 +829,9 @@
   </si>
   <si>
     <t>From the very start I had nothing but trouble with this hotel. I called for reservations because I wanted a room block. Room blocks are when rooms are blocked off next to each other, apparently not with this hotel. I was getting married down the street and thought this hotel would be great since I have never had issues in the past with Marriotts. I reserved only 2 rooms, one for my myself and my bridesmaids and one for my sister and her boyfriend because she has a newborn baby. I asked the rep several times to the to ensure my room would be right next door to my sister, she was maid of honor and needed to go back and forth from rooms for hair and makeup and to check on her baby. The rep reassured me they would be next to each other but to block the rooms I had to pay for them upfront, which okay is understandable, I pay for both. We then check into the hotel separately and then meet up at rehearsal then dinner. It wasn't until later that night that I found out (when my sister knocked on the joining room) that we realized we were not next to each other room wise, or even the SAME FLOOR. Obviously, I was upset since I had to pay for both rooms upfront for us to not even get what I was told we were...From the very start I had nothing but trouble with this hotel. I called for reservations because I wanted a room block. Room blocks are when rooms are blocked off next to each other, apparently not with this hotel. I was getting married down the street and thought this hotel would be great since I have never had issues in the past with Marriotts. I reserved only 2 rooms, one for my myself and my bridesmaids and one for my sister and her boyfriend because she has a newborn baby. I asked the rep several times to the to ensure my room would be right next door to my sister, she was maid of honor and needed to go back and forth from rooms for hair and makeup and to check on her baby. The rep reassured me they would be next to each other but to block the rooms I had to pay for them upfront, which okay is understandable, I pay for both. We then check into the hotel separately and then meet up at rehearsal then dinner. It wasn't until later that night that I found out (when my sister knocked on the joining room) that we realized we were not next to each other room wise, or even the SAME FLOOR. Obviously, I was upset since I had to pay for both rooms upfront for us to not even get what I was told we were going to get. I immediately go down to the lobby and explain my frustration and how I specifically asked for a room block and was told several times the rooms were next to each other. The receptionist said "sorry we don't do that and we are completely booked  we have nothing for you." Upset, I go to explain to my sister they have nothing available, she now is upset and we both go back downstairs. Low and behold with both of us complaining they magically have a room open up, not next to me but down the hall. Which fine is better than going floor to floor (which was a pain because they elevator was out of service too). The whole stay from start to finish was such a hassle, everything I asked for over and over when booking did not go as promised. I became a reward member because I haven't had issues in the past, but now I am very weary. I can honestly keep going on with how terrible the service was and I only stayed one night. I joined Hilton now, i'd rather pay more than deal with Merriott again.More</t>
+  </si>
+  <si>
+    <t>gonzo914</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r355169803-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -788,6 +866,9 @@
 Since he could not fix the closed captioning, I sent him away and turned the television up really loud so I could hear it. This...I am a black-card-holding, lifetime platinum Marriott customer so I know whereof I speak when I say this is the worst Courtyard I have ever been to in the 18 years i have been travelling for business and staying in Marriotts.Where do I start? It's hard to say, but lets start by mentioning that this is the first Courtyard I have stayed at in a long time that did not have a microwave. Staff is OK with that, though, because "We have one here you can come down and use." Right. I'm going to put pants on and come downstairs just to make some popcorn, not to mention being able to microwave a frozen dinner.But I'm not going to have a frozen dinner, anyway. The closet grocery store is inconveniently located on the far side of the 405, and this hotel has no shuttle. There is very little nearby for the walking traveller. Very poor location.Next on the list -- No closed captioning on the television, and I am hearing impaired. I called the desk about this, and they sent engineering up. The guy stared at the television for a few minues, oushed a lot of buttons on the remote, but accomplished nothing, although he did agree that "It's broken, all right."Since he could not fix the closed captioning, I sent him away and turned the television up really loud so I could hear it. This worked fine for half an hour, until the channel I was watching, and every channel in the specrum above it, just went dark. And now, even as I write this, two maintenance guys are trying to replace that television.The television going out is an inconvenience, but the lack of closed captioning is an ADA issue and therefore a deal breaker. The lack of a microwave is a deal breaker as well.There is a perfectly good Residence Inn next door, and it had rooms for the rest of the week. The staff assured my I could check my bag there until I get off work and can get back there and get checked in. I'll be staying there, tomorrow.The manager of the Courtyard should know that the lack of a microwave and the dysfunctional, non-ADA compliant television have cost them about 150 room nights.(Final note: I am sending the maintenance guys away now. The television is still not working properly. although they did get the closed captioning back on the channels I don't want to watch.)More</t>
   </si>
   <si>
+    <t>Cooking_Hawaiian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r352761091-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -803,6 +884,9 @@
     <t>I really enjoyed my stay here - the bed was very comfortable, the room was ok-sized... wifi worked great.  I liked that the bistro served hot snacks and breakfast in the morning with a good selection of items to choose from.  The fitness center was adequate with a full set of dumbells, a bench and a couple of cardio machines.</t>
   </si>
   <si>
+    <t>SBtravelgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r342341991-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -821,6 +905,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>MWATT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r341513377-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -836,6 +923,9 @@
     <t>This is an older Courtyard but it did not lack on anything as far as comfort and great customer service. The beds were very comfortable and the rooms were very quiet even though I was streetside. I would be glad to stay here again next time I am in the area</t>
   </si>
   <si>
+    <t>Marion G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r334118449-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -854,6 +944,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>P51rayf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r311419044-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -881,6 +974,9 @@
     <t>I had the opportunity to stay at the Courtyard by Marriott Huntington Beach Fountain Valley while in Orange County this week. Excellent location with the new Courtyard design including the Bistro, a nice addition. Great staff with a well designed lobby and nice room. Always Great!More</t>
   </si>
   <si>
+    <t>Arlo89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r304102374-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -902,6 +998,9 @@
     <t>The hotel was located very conveniently off the freeway, so access was easy. We asked for a room facing away from the freeway, and we did not hear any road noise. The room itself was on the small side, which was fine, but the sink/vanity/coffee area was very small, and it was not really possible to have more than one person in that area. And if someone was coming out of the bathroom into the sink area, there was the possibility of getting whacked with the bathroom door if you were accessing the little refrigerator at the same time. As with other Courtyards, there is no complimentary coffee or tea in the lobby, which is a shame, and breakfast is not included. There is a rather pricey bistro in the lobby, though, so you can buy a $4 cup of coffee and a $3 muffin there.More</t>
   </si>
   <si>
+    <t>Alexair S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r303012967-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -920,6 +1019,9 @@
     <t>...and so it was perfect for this type and category of hotel. Very friendly service, even when my room lights didn't work properly at night and help was needed. Spend even some time at the little pool which was used by some parents with their kids.More</t>
   </si>
   <si>
+    <t>Kscott9244</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r288912836-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -947,6 +1049,9 @@
     <t>Stayed here recently while visiting family. Good location and close to freeway. Excellent place to stay for a long period (over a week) and you can really get comfortable. Love the breakfasts and afternoon snacks.More</t>
   </si>
   <si>
+    <t>Kevin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r283769817-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -974,6 +1079,9 @@
     <t>Stayed here overnight on business.  Room was nice, clean, everything you'd expect from a Marriott.Staff was "okay," not overly friendly or not.So why a 3 star review?  Frankly, I almost forgot to write a review about this hotel, because it was so forgettable.  The hotel left little to no impression on me, one way or the other, so I felt that a solid 3 was the most appropriate.Bottom line, if you are looking for a convenient, reliable, hotel, and primarily need a quite place to sleep, this is a good option.  If you're looking for something more, you'd be unlikely to get anything more than a good room.More</t>
   </si>
   <si>
+    <t>nahlalee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r280913741-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -992,6 +1100,9 @@
     <t>Nice clean roomy hotel with decent prices. The location is pretty good. Right off the 405 freeway close to the beach. Only problem is that the 405 traffic is terrible in that stretch. Almost seems to be there 24 hours a day!!Free wifi is serviceable. I was able to get 0.7-3 mb/s download speed depending on time of day. Parking is free. Service is good enough.  Rooms show signs of age here and there but are clean and well kept. I would stay there again if in the area.More</t>
   </si>
   <si>
+    <t>Eduardo2626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r274819456-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1016,6 +1127,9 @@
     <t>We stayed here for one night during my daughter's weekend soccer tournament (held in Huntington Beach). It was a good location, friendly staff, room was roomy enough for 2 adults &amp; 1 child, pool and sitting area were nice. Would love it if they had outside heaters or a fire pit to warm the bones. Overall, a nice stay.More</t>
   </si>
   <si>
+    <t>TF271</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r273647904-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1034,6 +1148,9 @@
     <t>Went to this location &amp; I wanted a room.  I was given a quote and asked what if I had my military ID.  The clerk (can't remember her name) said "well if you have ID, then you can get the rate at.....Her attitude towards me caused me to go to another location.  I am a miltiary service person and of course I'd present my ID.  That rude encounter sent me to another location.More</t>
   </si>
   <si>
+    <t>kcandedgardo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r273582928-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1049,6 +1166,9 @@
     <t>The beach is not in walking distance.  It takes two hours to walk (and you have to be careful around the 405) but there is a bike path the whole way. The room was good.  The treadmill was in good repair when I wanted an early morning run.  There is a cafe/bistro type set up in the lobby which is expensive but nice if you are tired after a day or working or walking.  It was too cold to enjoy the pool but the deck had a comfortable set up for enjoying the sun.The staff was great and suggested a great park about a mile down Brookhurst with an exercise path.More</t>
   </si>
   <si>
+    <t>Aaron G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r271535669-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1073,6 +1193,9 @@
     <t>Stayed here for 2 nights to attended a business meeting. This property is very quite, great service and a clean comfortable room. Check in was a breeze and service at the hotel cafe/bar was great. No issues, great stay.More</t>
   </si>
   <si>
+    <t>Kimilou7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r269955685-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1091,6 +1214,9 @@
     <t>Our group was extremely satisfied with our stay at this hotel.  The staff was very pleasant and accommodating.  The Courtyard Marriott offers a delicious breakfast, pool, and lounge area.  Adriana Reynolds was great to work with.  She helped answer all our questions and I would definitely book with her again.thank you Courtyard Marriott!More</t>
   </si>
   <si>
+    <t>Gms4264</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r269770895-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1109,6 +1235,9 @@
     <t>A very convenient hotel for my visits to visit family in the area. The rooms are clean and comfortable, with plenty of amenities. Our stay included a breakfast and coffee in the bistro. The food was good, the coffee hot, and the service was quick.More</t>
   </si>
   <si>
+    <t>TonyNG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r259853510-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1136,6 +1265,9 @@
     <t>We stayed here for 5 night  Jan/15, the place was clean and well maintained just off 405 Freeway,The staff  was outstanding and polite and helpful, I have to give a shout out the bartender for her great service,We will definitely be returning!More</t>
   </si>
   <si>
+    <t>stacytina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r257691780-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1163,6 +1295,9 @@
     <t>I stayed here on business and found it serviceable.  They do not offer free breakfast but have a "restaurant" in the lobby.  It's really a counter where you can order food.  I didn't eat anything from here so can't comment.  There is a gas station across the street that sells some convenience food items.The room and property was clean.  The air conditioner was very noisy, and leaving the window open was problematic due to the closeness of the freeway.There are a number of restaurants within a mile or two, and Huntington Beach was about a ten minute drive.  The hotel itself is on a very busy intersection so not the most walkable area.More</t>
   </si>
   <si>
+    <t>Dave H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r257506741-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1181,6 +1316,9 @@
     <t>This courtyard has undergone the transition to the new "business traveler" friendly.  Rooms have ben updated as well as the lobby area.  Work out center is very small and has very few machines.  My biggest complaint is that they now charge for everything.  Used to really enjoy walking downstairs for a cup of coffee and paper in the early morning.  Now the coffee is $5.00 Starbucks.  The breakfast is very expensive for what you get so plan to go out to eat.  Not sure how the Residence Inn next door can be lower priced and include free breakfast?????More</t>
   </si>
   <si>
+    <t>travelguy21776</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r253178324-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1205,6 +1343,9 @@
     <t>Yes, some of the other reviews about friendly staff are true.  The front desk people and the restaurant staff are super nice, but things stop there. Cleanliness of the rooms are about average for the courtyard chain, but the rooms are tiny!!!  I don't think I have ever stayed in a room so small in the U.S.   We had a King room with a rollaway bed for the kids. After we brought all of our luggage in, we could barely get around between the beds and the hallway.  Furthermore, the rooms are a bit dated.  I don't think they have been updated in quite a while. The hotel is literally right on top of the 405 freeway, and the rooms are surprisingly well soundproofed.  But in the middle of the night, you can still hear the big rigs and motorcycles going by. There is no complimentary breakfasts like other hotel chains, and the food is extremely expensive. A small coffee, yogurt and toast costs 10 dollars. Luckily I had the government rate, so 129 in Orange County is not too bad.  But I think I would shop around next time. More</t>
   </si>
   <si>
+    <t>Barges867</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r244272845-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1232,6 +1373,9 @@
     <t>Thank you Courtyard Staff.  We were visiting Huntington Beach to volunteer for Samaritans Purse, Operation Christmas Child Shoebox.  The clerk noticed our shirts with the logo.  She told us that she had read an article about a couple and the shoebox story.  She actually looked up the article and when we got back that evening and envelope was under our door with the article.  As for the hotel it is very clean in all areas.  I love the outside patio that has comfortable  chairs to relax in.   This hotel is just of a busy highway, however the outside noise in the room was barely noticeable.   As always it's a Marriott and the beds are always great.More</t>
   </si>
   <si>
+    <t>MikeKerrey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r243067483-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1256,6 +1400,9 @@
     <t>Very clean and friendly Courtyard.  Great location with easy access off of the 405.  Quiet w nice breakfast.  We stayed here to visit relatives in Huntington Beach and to go to Disneyland. Worked great.  We would stay here again. Nice commons area too.  More</t>
   </si>
   <si>
+    <t>UCDSV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r231544498-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1283,6 +1430,9 @@
     <t>I stayed at the Fountain Valley Courtyard for two nights while on a business trip.  Everything was clean and the hotel is well-located for Orange County visits.  The front desk staff was also incredibly helpful in suggesting how to spend a few hours of free time.  I'll be back!More</t>
   </si>
   <si>
+    <t>Erin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r230575144-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1307,6 +1457,9 @@
     <t>We didn't think twice about booking since it had the Marriott name, but we were disappointed when we got to our room.  We found dirty towels on the floor when we walked in, and the carpets were so filthy.   There were huge stains, and we didn't feel comfortable walking without shoes on.  We went down the next morning, and the staff was fabulous.  They were so kind, and switched us rooms, and even gave us free breakfast.  The next room we were in was better, but not by much.  It seems the whole hotel could use new carpet, because the hallways were bad as well.  The beds were fair.  The bathrooms had dirt in the cracks, and were outdated.  Overall I wouldn't stay here again.  I would have given the hotel a 2 star if it wasn't for the staff.  They were great.  :)More</t>
   </si>
   <si>
+    <t>bonique e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r230339280-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1329,6 +1482,9 @@
   </si>
   <si>
     <t>I had the most amazing experience with the Courtyard Marriot in Huntington Beach.  After a very long day of working, I asked Eddie where I could refill a few 5 gallon water bottles.   Eddie immediately volunteered to fill them for me!  That type of service is hard to come by!   In fact Eddie insisted that he help me by filling the bottles.   Her further explained..."This is my home and I want you to feel at home in my house!"  WOWAn hour later I realized that I forgot my cell phone charger.   I called down and Michelle answered the phone.  Michelle informed me that if I was willing to leave my cell phone with her overnight, she would use her personal cord to charge my phone.  AGAIN...GREAT service.The next morning, I ran into Ashley and asked about my cell phone.   Ashley enthusiastically  exclaimed "Yes, room 235...I have your cell phone charger and some bottles of water!"  I worked with three staff members on the property and they acted cohesively as ONE unit.   I live in Los Angeles and we simply don't get this type of phenomenal service in the city.   I am looking forward to staying at the Courtyard Marriott again.  Kudos to the General Manager Steven Steeg for amazing leadership!More</t>
+  </si>
+  <si>
+    <t>MissesJai</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r227738202-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -1353,6 +1509,9 @@
 The balcony was a bit narrow but we still sat comfortably with a nice view of the pool and the mountains. The living room area was really spacious - particularly near the microwave/refrigerator area - it's almost...The only reason I can't give 5 stars is because the property is a bit dated, BUT, don't let that fool you. I've stayed at several Marriott properties, mainly Courtyard, and I'd have to say the staff at this location were the friendliest I've ever encountered. From the front desk staff, to the housekeeping staff, to the Bistro staff - all extremely professional, courteous, and accommodating. All my requests were honored with no hesitation and delivered with a warm smile. We stayed this past weekend (9/6-9/7) in a king suite. I asked for a corner room on their 3rd floor and was very pleased with the room. Yes, it's a bit dated, but it wasn't a throwback to the 80's or anything - all the room needed was a newer furniture. window dressings, and a wall thermostat instead of the old school heating/cooling unit that sits on the floor - and it would much more modern. That said, the room was still really nice, big, and comfortable. I especially liked the fact that the sleeping quarters were separate from the living room - I've stayed in other suites where they were combined and wasn't impressed. That was not the case with our room.The balcony was a bit narrow but we still sat comfortably with a nice view of the pool and the mountains. The living room area was really spacious - particularly near the microwave/refrigerator area - it's almost a waste of space. They could put another couch/loveseat adjacent to the original one along with a nice coffee table behind it and that would be a great use of the space. It would also allow seating for more than just 2 people - which is ideal if you plan to use the room for any kind of entertaining. My rate included breakfast for 2 the next morning and I took full advantage at The Bistro. The menu options are a bit limited - usual breakfast fare (eggs, bacon, sausage, etc.) and coffee/tea from Starbucks. There is also a Starbucks on site, if needed, and I'm sure it's very much needed! Breakfast was really tasty - and inclusive of everything you would expect at breakfast. We were very pleased. We ended up getting our food to go as we had woken up maybe 10 minutes beforehand and I knew we weren't in any kind of shape to eat outside of our suite. It all worked out very well.Bottom line, this is a really nice property. I would stay again and highly recommend if you're looking for a reasonably priced property with free WiFi, no resort fees, and free parking. Gotta love Marriott!More</t>
   </si>
   <si>
+    <t>Ian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r226968841-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1374,6 +1533,9 @@
     <t>This hotel was very nice. It was clean, quiet, and just what we needed to help us further enjoy our vacation in the area. The staff are all nice. Its in a good spot where you're not too far from all the attractions of huntington beach and orange county.More</t>
   </si>
   <si>
+    <t>Heather M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r225996740-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1398,6 +1560,9 @@
     <t>We stayed at this hotel for 2 nights and we absolutely loved it! We got a king size bed with a pull out couch for our daughter all of which were comfortable! The tv stations that were offered were great and we ordered pizza from one of the places they mentioned in their booklet and were pleasantly surprised at how good it was. The only thing is I wish they had vending machines or cheaper drinks because the drinka were limited in what they had to offer at their little market and they were completely over priced. We will definitely be coming back again!More</t>
   </si>
   <si>
+    <t>skeletoncrew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r218792954-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1425,6 +1590,9 @@
     <t>We stayed here for 3 nights and we had great stay. It's a big, spread out property, lovely grounds and nice little pool. Typical Courtyard, good wi fi, we took advantage of laundry which was $1.50 per wash and dry, friendly service but the best part was the location. Few blocks down Brookhurst street is Starbucks, Ralph's, Applebee's etc. The only thing that tick me off was the Starbucks coffee that hotel was selling in the lobby for more than what it cost at Starbucks but it was nothing like the Starbucks coffee. There's only few things worse than week coffee in my book so this put quite a dent in my morning. Other than that, our stay was good, staff are friendly and polite and I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Lessa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r216613735-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1452,6 +1620,9 @@
     <t>I checked into to the hotel after 10 on Friday the 11th of July without advanced reservations. They had only two remaining rooms, both double queens. The one they gave me was a handicapped equipped room. When I woke up in the morning I was covered in flea bites. I put my bags in my car and went back in to talk to the manager, passing two different families leaving the back door with dogs. When I showed the desk clerk the flea bites he said he would adjust the bill. I had paid $165 and he took $100 off.  I asked if they allowed dogs in all the rooms and he said dogs weren't allowed at all. When I told him I had passed dogs leaving the hotel, he just said, "Well, they aren't suppose to be there."  So paying $65 for a flea bite hotel is about right.More</t>
   </si>
   <si>
+    <t>Brads_Wifey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r216084299-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1470,6 +1641,9 @@
     <t>We picked this property because it was close to an event we were attending, and we were surprised and delighted by what we got for the money. Bed was comfortable, room was well appointed, grounds were neat, and you can't beat the location. This will definitely be our go-to hotel for our OC visits!More</t>
   </si>
   <si>
+    <t>Shar T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r209650755-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1494,6 +1668,9 @@
     <t>The front desk personnel is excellent.  I stay at this hotel at least once a month and am always greeted with a smile. The check in process is fast &amp; efficient. Ashley &amp; the manager, Steve, provide excellent customer service. This Courtyard is conveniently located by the 405 freeway and many restaurants. More</t>
   </si>
   <si>
+    <t>Julie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r209347723-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1515,6 +1692,9 @@
     <t>I have stayed at this hotel numerous times due to its location.  Huntington Beach and Newport Beach are not too far away, but it definitely isn't next to the ocean if that is what you need.  This is why the rate is reasonable.  The lobby area was remodeled and it is quite nice.  The hall carpets seem older as well as the hall ceiling which still has the popcorn texture on it.  Also, the rooms don't seem to be remodeled and that is evident by the bathroom tub/shower as well as the uncomfortable bed.  If you get a room near the freeway, it can be loud with the traffic.  The staff is friendly and the breakfast food/drinks are good.More</t>
   </si>
   <si>
+    <t>knc1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r208854764-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1533,6 +1713,9 @@
     <t>The hotel is easy to get to from the John Wayne airport. The staff were friendly and very helpful. The pool area is nice. The beds were comfortable and the room was clean. This hotel was in a safe location and near other attractionsMore</t>
   </si>
   <si>
+    <t>Eaar O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r205423886-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1560,6 +1743,9 @@
     <t>Ok, so they remodeled the lobby and it was worth it, saw a lot of people hanging out there. Checking in was painless and the staff was friendly. I was using a Marriott e-certifacte so the room was free and perhaps I paid a price for that. Was give a room directly across from the elevator. Room was small, in fact I almost broke my toe in the middle of the night, walking back from the bathroom. The couch left on 12 inches or so between the bed to walk by and get into. Paint peeling in the ceiling of the shower. Also, I've notice in my last few stays at a Marriott, my Silver Elite "Priority" late checkout has only gotten me an extra hour, which I imagine anybody can get if they ask. All that said, not much better in Fountain Valley.More</t>
   </si>
   <si>
+    <t>Polecat070</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r199400755-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1587,6 +1773,9 @@
     <t>I paid $173 for a solo traveller. The hotel is clean, modern(ish), staff are friendly , and there is WiFi. In general it is a decent place,but for a room costing that much the least I expect is for breakfast to be included in the price. What kind of hotel these days doesn't do this? It's so standard across the world. There IS a bistro in the lobby where you can get something to eat, so the least the hotel can do is provide some kind of voucher to their guests. The bistro is over priced too, by the way.More</t>
   </si>
   <si>
+    <t>MissMyDog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r193079976-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1614,6 +1803,9 @@
     <t>We spent two nights here while at the Surf City Marathon.  The hotel was very nice.  Great pool and hot tub.  The employees were friendly and had already arranged for us to have late check out and a taxi for me to get to the race start.  The room was nice and comfortable.  We would stay here again if in the area.More</t>
   </si>
   <si>
+    <t>Raerae1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r192036274-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1641,6 +1833,9 @@
     <t>We booked this hotel as we were going to a funeral and it was the closest with available rooms.  We arrived at this hotel and our initial though was it was okay a little outdated but satisfactory.  That night we pulled out the sofa sleeper to find out it was broke.  We had to sleep on the floor.  The blanket had something on it that made me super itchy.  The floor had some chemical that made it where I couldn't breathe so I spent most of the night in a chair.  I was told the bed however was quite comfortable.  The property was almost sold out when I booked and the one bedroom suite was the only thing that would accommodate four of us.  My mother-in-law is a smoker and was careful to make sure she smoked outside.  In the morning we noticed a sign outside that said the hotel has chemicals that may cause cancer and other problems.  We canceled our second night, we also had our newborn with us.  We got home and saw an additional charge on our card.  My husband called the hotel to find out we were charged an additional $250 because my mother in law put a cigarette butt in the trash can.  There response was she should of thrown it on the ground outside.  My husband talked to three people and no one even tried to compromise.  So we spend $400 on a...We booked this hotel as we were going to a funeral and it was the closest with available rooms.  We arrived at this hotel and our initial though was it was okay a little outdated but satisfactory.  That night we pulled out the sofa sleeper to find out it was broke.  We had to sleep on the floor.  The blanket had something on it that made me super itchy.  The floor had some chemical that made it where I couldn't breathe so I spent most of the night in a chair.  I was told the bed however was quite comfortable.  The property was almost sold out when I booked and the one bedroom suite was the only thing that would accommodate four of us.  My mother-in-law is a smoker and was careful to make sure she smoked outside.  In the morning we noticed a sign outside that said the hotel has chemicals that may cause cancer and other problems.  We canceled our second night, we also had our newborn with us.  We got home and saw an additional charge on our card.  My husband called the hotel to find out we were charged an additional $250 because my mother in law put a cigarette butt in the trash can.  There response was she should of thrown it on the ground outside.  My husband talked to three people and no one even tried to compromise.  So we spend $400 on a room for us to get exposed to chemicals that could cause cancer and reproductive problems.  Plus break out in a rash and sleep in a chair.  I wouldn't recommend this hotel to my enemy.More</t>
   </si>
   <si>
+    <t>Elizabeth P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r191286830-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1665,6 +1860,9 @@
     <t>So, I stayed here last night. The guy I'm dating sadly had a pipe bust in his house and the water had to be shut off so we decided to get a hotel rom for the evening. I only chose this hotel because it was close. I WAS IMPRESSED! Emily took very good care of us, was super sweet on the phone and in person… The lobby was modern, clean, and very cutely decorated! ( not to mention there is a snack bar, cold drinks and snack wall with a cute bar!)Our room was very clean and the bed was very comfortable! It was an emergency reservation and it was handled beautifully . Thank you again for taking good care of us! Fabulous service, friendly staff, clean and close if you live in HB, and not far from John Wayne Airport! :)More</t>
   </si>
   <si>
+    <t>Frank-Money</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r190209329-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1689,6 +1887,9 @@
     <t>Pros:-Clean-Modern-Located right off the freeway-Friendly service -Free Parking-Free WifiCons:  -Felt a bit over-priced at $150/night-Hate the way Courtyard Hotels put the TV to the side of the bed, rather than in front of it!More</t>
   </si>
   <si>
+    <t>HardKnocksOwner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r180447305-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1716,6 +1917,9 @@
     <t>Nice decor, clean rooms, and pretty grounds. Breakfast in the bistro is good quality at a decent price in a short time. Rooms are quiet, bathrooms are updated and the bed was comfortable.I will stay here again.More</t>
   </si>
   <si>
+    <t>lisaviva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r176120073-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1741,6 +1945,9 @@
   </si>
   <si>
     <t>Booked this hotel to be close to Huntington Beach for July 4th holiday.  You could bike to beach from this location or easily take a bus too.  We enjoyed the pool which is on the small, intimate side.  That room was what you expect from the quality of Marriott.  This hotel also had a bar and grille in lobby, but it has set hours.  However I came down looking for an espresso coffee and I found that the cafe was closed, not opening up for a few hours.  the front desk person offered to make the coffee for me.  It was great!  Will definitely stay again.  Lot's of stores and restaurants nearby and right off the 495 freeway.More</t>
+  </si>
+  <si>
+    <t>MarkSandieg0</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r175580599-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -1772,6 +1979,9 @@
 Finally, the last comment I'll make is with respect to the staff.  Like the interior of the hotel and the food at the restaurant - the staff were surprisingly 'fresh', energetic and helpful.  It seemed like they were constantly in motion to tidy things up and ensure that guests were being well taken care of.  One example occurred in the morning when I went to get a cup of the FREE Starbuck's coffee that they had in the lobby.  The dispenser was running out of coffee - so I mentioned it to the person at the...Most of us stay at a Courtyard because we know it will provide a predictable experience at a mid-range price.  There's nothing wrong with that - and it's a model that is clearly working for Marriott.However, I spent last weekend at the Fountain Valley Courtyard with my family during a beach-cities soccer tournament - and the experience really exceeded my expectations in many ways.While the hotel looks like "just another Courtyard" from the outside (clean, tan and well-maintained) - the inside has been completely redone and is very contemporary and stylish.  Lots of great lobby seating, numerous large screen TVs and an open-concept restaurant/bar that was very inviting. The food at the hotel was refreshingly good and freshly prepared.  The salads had crisp greens - and the breakfast dishes were made-to-order and better than most mid-range restaurants that you might go to.Finally, the last comment I'll make is with respect to the staff.  Like the interior of the hotel and the food at the restaurant - the staff were surprisingly 'fresh', energetic and helpful.  It seemed like they were constantly in motion to tidy things up and ensure that guests were being well taken care of.  One example occurred in the morning when I went to get a cup of the FREE Starbuck's coffee that they had in the lobby.  The dispenser was running out of coffee - so I mentioned it to the person at the front desk.  She IMMEDIATELY walked over, took the coffee canister to make another batch and then returned 1 minute later with two cups of fresh coffee in her hand so that I would not need to wait for the next batch to brew.  Great service!Overall, I'm sure that my experience at this Courtyard was exactly what Marriott had in mind when they made the decision to 'update' the hotel at this location.  I would stay at this hotel ANYTIME.More</t>
   </si>
   <si>
+    <t>johnadf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r171083900-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1796,6 +2006,9 @@
     <t>From the time we arrived to the time we left, everyone, even the back of house staff was friendly, and said "hello".  There wasnt that feeling of stressed out employees nor any lack of care.A true sign of good management!Accomodations were comfortable, clean and modern.  Of course Starbucks coffee is great to have too.More</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r167298263-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1820,6 +2033,9 @@
     <t>Lobby was best feature of hotel with good staff and adequate menu choices for snacks and breakfast.  Halls are dimly lit and gloomy.  Rooms are a but out of date with mismatched couch cushions.  Exterior door key cards not functional. Piled laundry in halls in evening was not appealing.More</t>
   </si>
   <si>
+    <t>cathym736</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r164843899-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1847,6 +2063,9 @@
     <t>This is a nice quiet and comfortable hotel. The pool was very nice, I swam in the morning and the pool was heated to a comfortable temperature.  Food bar has limited choices, but what we ate for breakfast was good.  comfortable beds.More</t>
   </si>
   <si>
+    <t>FirstClass2C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r158406639-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1874,6 +2093,9 @@
     <t>This Courtyard is in a good location to lots of restaurants and activities in the Fountain Valley area. The Bistro was excellent and the staff was excellent. Very friendly. My room was clean and comfortable. Got a great night sleep.More</t>
   </si>
   <si>
+    <t>rainb0w60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r157134707-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1898,6 +2120,9 @@
     <t>We spent 8 days in the hotel and had virtualy no complaints. The staff were very friendly and efficient. I requested some extra towels and within a few minutes there was a knock at the door...very impressed! They have a nice pool area and a separate jacuzzi area too. Very relaxing. We would have liked a grill for cooking out on the premises though. All in all it was a very nice hotel and we would stay here again if ever back in the area.More</t>
   </si>
   <si>
+    <t>Chanteclaire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r157134462-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1913,6 +2138,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Bill D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r153140243-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1931,6 +2159,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>MrsH1983</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r152542668-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1949,6 +2180,9 @@
     <t>I stay in Marriott properties whenever I travel and this was a typical Courtyard. Had clearly been updated in the rooms and lobby area, so those were nice with lots of amenities. Pool was small, but decent for a little lounge time during my work weekend. The front desk staff was friendly as was the bartender on staff one of the nights. The carpet in my room had several stains, always gross to see in any hotel. Also, I'm consistenly dissapointed with the comforters at the Courtyard- but that's across the board for the brand. I'd stay here again as I normally stay near disneyland and it was nice to be away from lots of families and children so I could get a good night's sleep.More</t>
   </si>
   <si>
+    <t>Lynda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r152220245-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1964,6 +2198,9 @@
     <t>We opted for the king suite type of room.This place is lacking attention.  The carpet in the room is very dirty-stains and spots everywhere.  The sofa has missing trim on the arm and when you sit down you feel as though you're going to the floor.  I'm almost afraid to check the bed.  Undoubtedly the worst maintained Marriott we have ever encountered.</t>
   </si>
   <si>
+    <t>kielni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r150305240-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -1991,6 +2228,9 @@
     <t>I stay here 2-3 times a year when visiting family in OC.  I keep coming back because - they have real two room suites with a door, not just some silly half height divider that doesn't actually block any noise or light- it's right next to freeway but not noisy- it's a great deal on weekends since it's aimed at business travelers- the service is always prompt and friendly They renovated the rooms a few years ago, but during my December 2012 stay they were starting to show some minor wear: chipped corners on the tables, worn spots in the carpet, etc.  The lobby has a coffee bar and some food for purchase in the mornings.  There are small booths that seat maybe 3-4 each with an individual TV; these are very convenient when  waiting for someone to get ready.More</t>
   </si>
   <si>
+    <t>Joel L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r149889675-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2009,6 +2249,9 @@
     <t>The room we stayed in needed an upgrade. It seemed old, damp, and tired. Not very vacations-like. The room was cramped, and the t.v. Is in a very odd place (we had a king bed, with sofa bed). When we got there, there were pieces of shredded cardboard all over in the entrance way that had not been vacuumed. Then, I went to pull out the sofabed for my daughter and it was completely messed up, like they had just stuffed it in without making it. So I went to straighten out the bed, and there where what looked like red nail polish chips in it. I also found an airport suitcase tag in the sheets. Needless to say, my daughter ended up sleeping in our bed that night (since we checked in after midnight and were all REALLY tired). I let them know the next morning, and the front desk lady just acted like it was no big deal and that she would 'let them know' (I wasn't sure what that ment). After the initial night, thing were ok- the pipes in the shower are old, and it would make this really annoying high-pitched sound the whole time it was on. The people who work at The Bistro restaurant were really nice, and it is reasonably priced. More</t>
   </si>
   <si>
+    <t>kilowatt953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r149612009-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2030,6 +2273,9 @@
     <t>Bed was a little stiff. Otherwise the room was fine. At the price of this room, a continental breakfast should have been included, but only coffee and tea were in the lobby for free. Starbucks and food items were available at extra charge.More</t>
   </si>
   <si>
+    <t>CAMurphthesurf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r138016467-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2051,6 +2297,9 @@
     <t>Stayed here when visiting relatives.  Typical Courtyard, mostly clean, good service, affordable rates.  We have a king suite, which is really a bedroom and separate living room with a foldout couch.  Good when the kids didn't want to sleep on the relatives floor.We were only there at night to sleep, quiet and comfortable bed.  Only complaint was that seems a fair number of smokers sat by the pool in the evening, wafting their poison up toward our window (we prefer fresh air to A/C, so it was open).Also, note this is really in Fountain Valley and not HB.  Your a good 5-6 miles from the beach.  Tradeoff is it is way more affordable than any of the hotels at the beach, but you either have to drive down or hop on your cruiser for a nice workout.More</t>
   </si>
   <si>
+    <t>Andrew P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r137772977-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2072,6 +2321,9 @@
     <t>This is a very nice hotel for the price.  I especially liked the fact that although it did not include breakfast in the rate we were charged, you could opt to include it if you wanted.  I did not try or see what was offered for breakfast but the $20.00 additional charge hardly seemed worth it.  You can get a heck of a breakfast for that right down the street.  The location is great for nearby shopping and restaurants.  They do have a restourant that opens at night but, there again, we did not try it so can't give a review on that.  Unless you are completely without transportation, I would suggest you use the nearby eateries.  The pool, exercise room and hot tub were great.  The hot tub is outside but covered so on a rainy cold night it would still be available.  You could not ask for a better staff.....helpful, ourtious and immediate response to any problems.  Our room, although well appointed was a little small but we made due.  It is a good value if you are in the area.More</t>
   </si>
   <si>
+    <t>mauionmymind08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r137629467-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2090,6 +2342,9 @@
     <t>I will admit that I'm a Hilton fan, but I will write this review as non-biased as possible. I stayed here due to the location as it was close to where I was doing business and no Hilton properties were in the area (other than one on Huntington Beach that was way beyond my expense allowance). The employees were extremely friendly and upon arrival to my room I realized the remote was missing, and they had it up to me within a few minutes. The hotel was fairly clean, but the rooms didn't have the cleanest smell. I probably wouldn't stay here again if I was in the area, but it was fine for the one night that I needed it.More</t>
   </si>
   <si>
+    <t>T S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r131785665-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2108,6 +2363,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>tome48us</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r131101436-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2123,6 +2381,9 @@
     <t>Reservation upon arrival confirmed but no balcony as requested by email and phone.Others in the group had no rooms though confirmed.  Found women's underwear on the floor of the room upon entering. Signs very poor for elevators and restroom location. Agents were overwhelmed with other customers when hotel was sold out..food very bad..ran out of coffee and cups in breakfast bar..directions difficult w/out gps. No room service after 10pm.</t>
   </si>
   <si>
+    <t>NYC_is_for_lovers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r130771835-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2150,6 +2411,9 @@
     <t>This hotel was more than I could expect for a reasonnable price, and it is so close to the beach (5-10 minutes by far - close enough for me!).  Last time I went to HB I stayed at a Howard Johnson location, for a really cheap price, but it was also a "just ok" place.  This time around, I payed a little extra money and wow!  I got everything I needed.  The pool and spa were perfectly clean, the gym had perfect A/C and just enough space to work-out, the rooms were clean, internet worked fine, housekeeping was excellent...   Really, I have nothing bad to say, except maybe for the fact that their food bar is crazy expensive, but I expected it.  There are plenty of Starbucks and other restaurants nearby, so you can just take your car and go elsewhere.  Anyways, you're in HB, what would you really worry about? ;)More</t>
   </si>
   <si>
+    <t>K8Mac1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r124137697-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2174,6 +2438,9 @@
     <t>Perfect location for Surf City Half Marathon, and now they have a shuttle to the start!  This is my fourth year staying here for the event.  Staff is nice and very accommodating, and rooms are always clean.  Great senior rates too!More</t>
   </si>
   <si>
+    <t>Citygir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r123976467-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2201,6 +2468,9 @@
     <t>If you need a place to stay in this part of town, this place is decent. Even the room facing the highway are very quite (I'm a light sleeper).I receive a cheaper rate ($20 less) by calling the hotel vs Booking online.Room: 333 was small and the TV was in an awkward angel. But ok for a short stay. Pro'sClean room, helpful staff, quick service restruant had good food and opens at 6am during the week. Good Sushi close by (1/2 mile) Kato Sushi.Con's Rock hard bed...More</t>
   </si>
   <si>
+    <t>LilMissTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r123237256-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2219,6 +2489,9 @@
     <t>It's just like every other Marriott (ya been in one, ya been in 'em all). However, the standout to this hotel was the wonderful lobby. Very hip and cool, almost wannabe-W Hotel. We liked it very much. The lobby was a nice place to hang out when waiting for our party. They also have computers/printers set up so that you can print your boarding pass and check email.The breakfast was good and they serve Starbucks in the lobby. Also, if you forgot any toiletries, they sell them in the...you guessed it! The lobby! Yes, the lobby is the place to be at the Courtyard Marriott.Location - this is just off the 405 freeway and right on the corner of the street so you might blow right by it. It's next to the Residence Inn. Ample and free parking (awesome). I'm not sure if they had free WiFi or not as we didn't use. I only stayed here one night and it was good. There were some serious parties going on but we didn't mind at all. Rooms are a bit on the tiny side (compared to most Marriott rooms), as is the bathroom, but it was okay.More</t>
   </si>
   <si>
+    <t>mercurysqueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r120437635-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2240,6 +2513,9 @@
     <t>My family and I chose this location as it was the property of choice for a local chocolate festival we were attending.  We were fortunate to get rooms that did not face the freeway so our room noise was minimal.  Front desk staff was very helpful and friendly. We really like the decor of this property - so NOT the usual Courtyard.  This place is hip, trendy, and offers perks that business and pleasure travelers alike find convenient, like ample room to work, good wi-fi, ability to print boarding passes, great lighting - the usual stuff.  The only "weird" thing was that in the room, the armoire blocked the A/C vents.  Odd, but somehow the room was cool enough to sleep. The room was typical Courtyard - small, but in this property, the decor had been updated.  Bed was comfy.  Bed linens were nice and clean.  Towels were aging - time for new ones.  Bathroom very clean but extremely limited counter space around the sink.  My pet peeve in hotels is dirty carpet and this property was no exception.  Halls were quite dirty, room moderately so, but that's just me - I always notice the carpets.  All in all, we found this to be a great value, close to everything, and we'd stay again.More</t>
   </si>
   <si>
+    <t>ObjectiveUnknown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r118721532-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2255,6 +2531,9 @@
     <t>It was a business trip. The room was very clean and close to freeway access. Very basic and worth the money. Plenty of free parkings.</t>
   </si>
   <si>
+    <t>KayEmKay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r116893908-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2273,6 +2552,9 @@
     <t>We arrived at the Courtyard in Fountain Valley and easily found parking in their huge parking lot. We were pleasantly surprised as we walked in to find a super modern, clean lobby. They had snacks for sale right next to the front desk and even a small cafe. Check in was easy, the staff was extremely friendly and helpful. We got our keys and headed to our room. The room was clean, cute, and modern, just like the lobby. The layout of the room made it feel plenty spacious which is always really important to me.  The bed was comfortable, there is free wi-fi and a nice flat screen tv. The hotel is only a 10-15 minute drive from Downtown Huntington which was exactly what we needed and the price was half that of anything actually in Huntington. Overall we were extremely pleased and will certainly be back if we take another trip down to Huntington!More</t>
   </si>
   <si>
+    <t>Travel-World101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r113438131-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2291,6 +2573,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>lucylee54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r105387132-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2310,6 +2595,9 @@
   </si>
   <si>
     <t>I really loved this hotel!!! I usually stay at the Hyatt Huntington  beach but did not like paying all the resort fees and Valet was around 22 a day and tips every time you take your car out(3 times a day 5x3= an extra 15 a day). Even though this is a bit farther from the beach I love this hotel and will be going here from now on.It is very quiet.  It is very easy to get to your car. You can use their luggage carts located by the stairwell which will make it a breeze to load your suitcases. The hotel looks like it was just renovated, everything looks  very new and modern;flat screens in every room free internet,fridge...etc...I highly recommend this hotel,very reasonable.More</t>
+  </si>
+  <si>
+    <t>mollitia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r100871010-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -2337,6 +2625,9 @@
  As  I was getting settled in my room the phone rang, It was the front desk offering a complimentary meal. Sometimes the kindness of strangers means the most and it did in this case. Thank you to Ashley &amp; the young gentleman (I apologize for not remembering your name) who checked me in. As for the hotel itself what a sigh of relief it was to see it was very clean, comfortable and relaxing which was great considering I had no idea what to expect. Everything you need is nearby i.e restaurants, fast food, market...My stay at the Courtyard Marriot was under unfortunate circumstances, Our beloved dog Molly was at the Emergency Vet hospital down the street and her chances of making it through the night were uncertain. That being said we wanted to stay close in case things took a turn for the worse we would have the opportunity to be by her side.  With no time or need to research amenities, or cleanliness for that matter our concern was location. Courtyard Marriot was the closest hotel. I  walked into the lobby puffy faced with blood shot eyes trying to look as "normal" as possible.  It was obvious to the staff things were not OK  so I shared my reason for needing a last minute room. They showed a genuine concern and were sympathetic to my situation even offereing up a story of similar experiences which was nice. As  I was getting settled in my room the phone rang, It was the front desk offering a complimentary meal. Sometimes the kindness of strangers means the most and it did in this case. Thank you to Ashley &amp; the young gentleman (I apologize for not remembering your name) who checked me in. As for the hotel itself what a sigh of relief it was to see it was very clean, comfortable and relaxing which was great considering I had no idea what to expect. Everything you need is nearby i.e restaurants, fast food, market etc...I would definitely stay here again. If the service I received from this Courtyard Marriot is how they do business you bet i'll be booking with them again (under better circumstances) :) What more could you ask for? Customer Service and willingness to go above and beyond expectations A+ Rooms A+As for Molly she didn't make it... thanks again to the staff for the simple,meaningful acts of kindess.More</t>
   </si>
   <si>
+    <t>junk4us</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r46244309-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2358,6 +2649,9 @@
     <t>First, the hotel is right next door to the Residence Inn. They share the same parking lot/entrance.  So make sure you go to the correct hotel. The room was clean as expected every day.  Decent location. Not to far from the beach or from Lil Saigon.  We checked in late at night and they desk offered us a wake-up call. Since I had to be awake by 6am, we said yes. We never received one.  At the end of our stay, we got our easy check-out confirmation slipped under the door.  A few weeks later, we also received an extra $5.00 charge on our credit card. I called and found out this was for the water bottles they leave in the hotel room.  We brought our own beverages and never used the hotel's.  They agreed to remove the charge but more than a month later, the charged was not reversed.More</t>
   </si>
   <si>
+    <t>trip12345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r38487460-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2373,6 +2667,9 @@
     <t>Had a brief one night at the Courtyard but the room was very clean and modern.The pool looked nice but did not use it and the service was good. The hotel is an older Courtyard but the rooms and lobby are well kept. Would return if in area. About a ten minute drive to huntington beach pier.</t>
   </si>
   <si>
+    <t>TehachapiCaOliverg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r37094471-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2388,6 +2685,9 @@
     <t>The pictures of this hotel do not reveal the age and the pool is the smallest I have ever seen.  The front desk clerk was clearly not interested in our concerns.</t>
   </si>
   <si>
+    <t>PlannerGeek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r22679817-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2406,6 +2706,9 @@
     <t>December 2008</t>
   </si>
   <si>
+    <t>beckat916</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r21411440-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2424,6 +2727,9 @@
     <t>The hotel was nice and clean with a friendly staff.  The only issues were that the bed was uncomfortable and made my back hurt.  My wife said that the bed hurt her side and was uncomfortable.  The other issue was that the air conditioning unit in our room was extremely loud and made it hard to sleep with it on.  They serve a breakfast in the lobby that is set up like it would be included but there is a small sign stating that they charge 12 dollars if you eat.The stay is worth it if you get a deal, but DO NOT pay the 190 a night.  It is worth no more than 110 a night!!More</t>
   </si>
   <si>
+    <t>Supachic311</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r20016373-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2440,6 +2746,9 @@
   </si>
   <si>
     <t>I visited the courtyard during the summer. I came from ny to see my sister who lives in cali. Upon the arrival we had a fast check in and got right to our room. We got 2 rooms that were ajoing, it was a nice size room for 5 people. It was nice and clean and there was alot of space to move around. It was a nice quiet hotel. Even though it's near the highway it was very helpful because you could take it anywhere you needed to go. It was never a noisy place. The outdoor pool was nice and very enjoyable and so was the jacuzzi. Not to many people where staying there since it was at the end of the month and kids where going back to school. Even when people did come there was never alot of noise or problems. Breakfest in the moring was the normal that you get at the courtyard. They gave free cookies, tea and coffee. They also had a little snack area to buy food. The people that worked there where friendly and helpful as well. They also have a excerise room and an area for you to work on the internet for the business men or women and they also have wireless internet in the rooms. The whole experince was great, it was a nice and i would return here again for the convience and the stay.More</t>
+  </si>
+  <si>
+    <t>bryan240</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r15207354-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -2471,6 +2780,9 @@
 Check in was a breeze and everyone was incredibly friendly.  It's got the 24 hour convenience store inside the lobby as well as the full Courtyard Cafe.  Parking was well-lit and open.  The room was beautiful and clean, with our room having a lovely Courtyard view.  This Courtyard is staggered: one room with a balcony...one room with...Under promise and over deliver is the way I like a hotel to be and this Courtyard achieves new heights in overdelivering.I stayed here for two days on a four day trip.  I'm a very frequent Marriott customer and I know my way around most any Courtyard, or so I thought.I picked this hotel for its convenient location.  It's right on the I-405 freeway and it's about equal distance to the beach as it is to Anaheim (where Disneyland is if you don't know), which was optimal for my trip.Pulling up, this particular Courtyard is clearly immaculately maintained - moreso than any Courtyard by Marriott I've ever stayed at.  Every blade of grass was beautifully trimmed and there weren't any grass clippings to be found.  The driveway was beautiful and the entrance to the lobby was just spotless.  I knew when I walked in that this was the "older" style Courtyard with the actual courtyard in the middle and all of the little extras you don't see in the newer ones like the massive spa, refrigerators in the rooms, etc.Check in was a breeze and everyone was incredibly friendly.  It's got the 24 hour convenience store inside the lobby as well as the full Courtyard Cafe.  Parking was well-lit and open.  The room was beautiful and clean, with our room having a lovely Courtyard view.  This Courtyard is staggered: one room with a balcony...one room with a window throughout the courtyard.  We had a window and it was fine.  We had a lovely view of the immaculate courtyard and the sidewalks around the pool/spa area.What really made this hotel nice was the huge gazebo in the courtyard.  My guest and I had a full schedule and it was just wonderful to come home after a long day and relax.  The gazebo is the obligatory Marriott outdoor smoking area, but I didn't see any smokers...just people relaxing and chatting.  The hotel really was to have played a minor part in our trip, but it was just such a nice place to come home to at night and relax and unwind that I looked forward to coming home.  The hotel is well maintained and there's a vibrant lobby and courtyard in the evenings and it feels "busy, relaxed" if I had to put words to it.There are plenty of decent restaurants in the area and it's just close to everything.  I was flying out of LAX.  From the Fountain Valley Courtyard to LAX took us 32 minutes with no traffic on a Sunday.  It's about 5-10 minutes to get to Orange County/Santa Ana (SNA) airport without traffic.The check-out process was the only place I hit even the most minor snag...I had to go to the desk to correct a billing mistake and it was done in 10 seconds and I walked out with a corrected receipt with their deepest apologies.  I was continually impressed by the staff.I would recommend this hotel for anyone.  It's a great value compared to places closer to Disneyland or Huntington Beach and you will get a much higher level of service here than you'd expect.More</t>
   </si>
   <si>
+    <t>SlackJacket</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r15057054-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2486,6 +2798,9 @@
     <t>If you've stayed at one Courtyard, you've stayed at them all.  This one is very convenient to I-405, and is as comfortable as any other.  I arrived at 7:30pm on the tail end of a heat wave, and my room had been sitting vacant without the A/C turned on; it was HOT!  I turned it on high and left for an hour.  By 9:30 it was cool enough to go to bed.Breakfast was available, but not included.  The property was quite clean, as expected.</t>
   </si>
   <si>
+    <t>Sara U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r12832086-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2507,6 +2822,9 @@
     <t>I booked this hotel at the very last possible minute when a friend came into town and wanted to go to Disneyland.  It is a very short drive (15 minutes) to Disneyland and a short drive to Huntington Beach.  Although there aren't any restaurants in the immediate area around the hotel, there are several less than 5 miles away.  The desk service was excellent -- the girl was very friendly and helpful to offer suggestions.  The rooms were standard issue, although I didn't find the beds to be the most comfortable and the linens weren't my choice.  They offer free internet, printing, copying, etc, which are all very convenient.  There is an enclosed hot tub, an outdoor pool, and a basic exercise room.  The hotel was VERY quiet, and I had no complaints.More</t>
   </si>
   <si>
+    <t>ArizonaMomof3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r7582736-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2525,6 +2843,9 @@
     <t>May 2007</t>
   </si>
   <si>
+    <t>billfaith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r6764132-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2546,6 +2867,9 @@
     <t>I paid $69 a night for this hotel thru marriots website.  Hotels.com quoted $69 but added a $40 booking fee which made it much cheaper to go right thru marriot.  The hotel is a little older than some courtyards but for the price its not bad.  Our bed was comfortable and everything seemed clean.  There is interent access in each room and its a decent speed.  They have a nice little business center where you can use the internet and print things.  They have a breakfast buffet thats $10.95 but I didnt try it.   If you have never been to the huntington beach area its quite busy but fountain valley is a little quieter than surrounding areas and its right off the 405 but not noisy.   All of southern CA sucks for being busy but this area is about as good as it gets.  I would say for under $90 its a good deal, but over that there may be nicer places.More</t>
   </si>
   <si>
+    <t>janetdheidler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r5981178-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2565,6 +2889,9 @@
   </si>
   <si>
     <t>Upon arrival we requested an upstairs quiet location. This was given to us plus some. The room is decorated very "Zen" like with wonderful simple touches. The bedding was very clean and lots of pillows, too.  It was one of the cleaniest rooms I have experienced. The staff at the front desk was very efficient and very friendly. Last July my brother and wife stayed at the Marriott location by the Long Beach Airport and their stay was enjoyable, too. The only glitch was the breakfast in the morning as we were not aware that there was a cost and fortunately the head waiter waived this fee because of this unknown factor. It is now our favorite hotel as the last few stays have been with a Best Western and not very favorable. Thanks again to the staff at Courtyard Marriott.Janet HeidlerSun City, CAMore</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d76968-r1848775-Courtyard_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -3084,43 +3411,47 @@
       <c r="A2" t="n">
         <v>27513</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>568</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3138,50 +3469,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27513</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3193,56 +3528,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27513</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3254,56 +3593,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27513</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>132195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3315,47 +3658,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27513</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>73915</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -3374,41 +3721,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27513</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
@@ -3425,56 +3776,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27513</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3486,47 +3841,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27513</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>132197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -3543,56 +3902,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27513</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132198</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3604,56 +3967,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27513</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>132199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3671,50 +4038,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27513</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>132200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3732,56 +4103,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27513</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>138</v>
       </c>
-      <c r="J13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>128</v>
-      </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3795,50 +4170,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27513</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>1283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3854,56 +4233,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27513</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>132202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3921,47 +4304,51 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27513</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>90393</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
@@ -3978,56 +4365,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27513</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132203</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4041,50 +4432,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27513</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>56481</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -4102,56 +4497,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27513</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>7766</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4167,56 +4566,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27513</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>132204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4234,56 +4637,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27513</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>132205</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4299,56 +4706,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27513</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132206</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4366,56 +4777,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27513</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>132207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4427,56 +4842,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27513</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>132208</v>
+      </c>
+      <c r="C24" t="s">
+        <v>243</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4488,56 +4907,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27513</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>132209</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4551,50 +4974,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27513</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>20544</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -4610,56 +5037,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="X26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27513</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>267</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -4677,56 +5108,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27513</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>132211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4744,50 +5179,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27513</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132212</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4801,50 +5240,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27513</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>289</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="K30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4864,50 +5307,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27513</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>100019</v>
+      </c>
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4927,50 +5374,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27513</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>80706</v>
+      </c>
+      <c r="C32" t="s">
+        <v>302</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4988,56 +5439,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27513</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>132214</v>
+      </c>
+      <c r="C33" t="s">
+        <v>312</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5055,56 +5510,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="X33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Y33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27513</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>132215</v>
+      </c>
+      <c r="C34" t="s">
+        <v>320</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="J34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="K34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5120,56 +5579,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="X34" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Y34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27513</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132216</v>
+      </c>
+      <c r="C35" t="s">
+        <v>327</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5187,56 +5650,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="X35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="Y35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27513</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>3788</v>
+      </c>
+      <c r="C36" t="s">
+        <v>337</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="J36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="K36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="O36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -5252,56 +5719,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="X36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="Y36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27513</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>132217</v>
+      </c>
+      <c r="C37" t="s">
+        <v>347</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5317,56 +5788,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="X37" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="Y37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>27513</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>132218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>354</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="J38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="L38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5382,56 +5857,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="X38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Y38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27513</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="K39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5445,56 +5924,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="X39" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Y39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27513</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>72259</v>
+      </c>
+      <c r="C40" t="s">
+        <v>370</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" t="s">
+        <v>373</v>
+      </c>
+      <c r="L40" t="s">
+        <v>374</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
         <v>333</v>
       </c>
-      <c r="J40" t="s">
-        <v>328</v>
-      </c>
-      <c r="K40" t="s">
-        <v>334</v>
-      </c>
-      <c r="L40" t="s">
-        <v>335</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s">
-        <v>299</v>
-      </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5512,56 +5995,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="X40" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Y40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>27513</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>5471</v>
+      </c>
+      <c r="C41" t="s">
+        <v>376</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="J41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="K41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="O41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5573,47 +6060,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="X41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="Y41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27513</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>132220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>385</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="K42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="L42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
@@ -5630,47 +6121,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="X42" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="Y42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27513</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>132221</v>
+      </c>
+      <c r="C43" t="s">
+        <v>392</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="J43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="K43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="L43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -5687,56 +6182,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="X43" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="Y43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27513</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>132222</v>
+      </c>
+      <c r="C44" t="s">
+        <v>399</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="J44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="K44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="L44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5754,56 +6253,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="X44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="Y44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27513</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>132223</v>
+      </c>
+      <c r="C45" t="s">
+        <v>409</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="J45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="K45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="L45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="O45" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5819,56 +6322,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="X45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="Y45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27513</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>29372</v>
+      </c>
+      <c r="C46" t="s">
+        <v>419</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="J46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="K46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="O46" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5886,47 +6393,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="X46" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27513</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>132224</v>
+      </c>
+      <c r="C47" t="s">
+        <v>426</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="J47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="K47" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
@@ -5943,56 +6454,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="X47" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="Y47" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27513</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>79785</v>
+      </c>
+      <c r="C48" t="s">
+        <v>435</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="J48" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="L48" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="O48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6008,56 +6523,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="X48" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="Y48" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27513</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>132225</v>
+      </c>
+      <c r="C49" t="s">
+        <v>445</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="J49" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="K49" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="L49" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6069,56 +6588,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="X49" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="Y49" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27513</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>132226</v>
+      </c>
+      <c r="C50" t="s">
+        <v>454</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="J50" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="K50" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="L50" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="O50" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6136,56 +6659,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="X50" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="Y50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27513</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>51632</v>
+      </c>
+      <c r="C51" t="s">
+        <v>464</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="J51" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="K51" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="L51" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6201,56 +6728,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="X51" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="Y51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27513</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>132227</v>
+      </c>
+      <c r="C52" t="s">
+        <v>473</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="J52" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="K52" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="L52" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="O52" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6266,56 +6797,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="X52" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="Y52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27513</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>28102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>482</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="J53" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="K53" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="L53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="O53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6333,56 +6868,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="X53" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="Y53" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27513</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>2860</v>
+      </c>
+      <c r="C54" t="s">
+        <v>489</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="J54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="L54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6400,56 +6939,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="X54" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="Y54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27513</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>18650</v>
+      </c>
+      <c r="C55" t="s">
+        <v>497</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="J55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="K55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="L55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6461,56 +7004,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="X55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="Y55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27513</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>132228</v>
+      </c>
+      <c r="C56" t="s">
+        <v>506</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="J56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="K56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="L56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6526,56 +7073,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="X56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="Y56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27513</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>132229</v>
+      </c>
+      <c r="C57" t="s">
+        <v>516</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="J57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="K57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="L57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="O57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6587,56 +7138,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="X57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="Y57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>27513</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>132230</v>
+      </c>
+      <c r="C58" t="s">
+        <v>526</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="J58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="K58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="L58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="O58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6652,47 +7207,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="X58" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="Y58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27513</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>132231</v>
+      </c>
+      <c r="C59" t="s">
+        <v>533</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="J59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="K59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="L59" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -6719,56 +7278,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="X59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="Y59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27513</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>10047</v>
+      </c>
+      <c r="C60" t="s">
+        <v>542</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="J60" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="K60" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="L60" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="O60" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6790,56 +7353,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="X60" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="Y60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27513</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>132232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>550</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="J61" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="K61" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="L61" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6861,56 +7428,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="X61" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="Y61" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27513</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>132233</v>
+      </c>
+      <c r="C62" t="s">
+        <v>557</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="J62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="K62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="L62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="O62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6932,56 +7503,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="X62" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="Y62" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>27513</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>132234</v>
+      </c>
+      <c r="C63" t="s">
+        <v>567</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="J63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="K63" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="L63" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="O63" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -7003,56 +7578,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="X63" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="Y63" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>27513</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>132235</v>
+      </c>
+      <c r="C64" t="s">
+        <v>577</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="J64" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="K64" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="L64" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="O64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -7074,56 +7653,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="X64" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="Y64" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27513</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>132236</v>
+      </c>
+      <c r="C65" t="s">
+        <v>587</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="J65" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="K65" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="L65" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7135,56 +7718,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="X65" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="Y65" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>27513</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>28542</v>
+      </c>
+      <c r="C66" t="s">
+        <v>597</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="J66" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="K66" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="L66" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="O66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7206,56 +7793,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="X66" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="Y66" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>27513</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>132237</v>
+      </c>
+      <c r="C67" t="s">
+        <v>606</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="J67" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="K67" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="L67" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="O67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7277,56 +7868,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="X67" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="Y67" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>27513</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>132238</v>
+      </c>
+      <c r="C68" t="s">
+        <v>615</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="J68" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="K68" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="L68" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="O68" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7348,56 +7943,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="X68" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="Y68" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>27513</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>81218</v>
+      </c>
+      <c r="C69" t="s">
+        <v>625</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="J69" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="K69" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="L69" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="O69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7419,56 +8018,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="X69" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="Y69" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>27513</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>132239</v>
+      </c>
+      <c r="C70" t="s">
+        <v>635</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="J70" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="K70" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="L70" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7490,56 +8093,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="X70" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="Y70" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>27513</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>132240</v>
+      </c>
+      <c r="C71" t="s">
+        <v>643</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="J71" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="K71" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="L71" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7561,47 +8168,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="X71" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="Y71" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>27513</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C72" t="s">
+        <v>652</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="J72" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="K72" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="L72" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
@@ -7628,56 +8239,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="X72" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="Y72" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>27513</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>132241</v>
+      </c>
+      <c r="C73" t="s">
+        <v>661</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="J73" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="K73" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="L73" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7699,56 +8314,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="X73" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="Y73" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>27513</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>132242</v>
+      </c>
+      <c r="C74" t="s">
+        <v>671</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="J74" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="K74" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="L74" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="O74" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7770,56 +8389,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="X74" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="Y74" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>27513</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>132243</v>
+      </c>
+      <c r="C75" t="s">
+        <v>681</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="J75" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="K75" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="L75" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="O75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7841,56 +8464,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="X75" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="Y75" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>27513</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>132244</v>
+      </c>
+      <c r="C76" t="s">
+        <v>690</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="J76" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="K76" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="L76" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7914,50 +8541,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>27513</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>53871</v>
+      </c>
+      <c r="C77" t="s">
+        <v>696</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="J77" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="K77" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="L77" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="O77" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7981,50 +8612,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>27513</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>132245</v>
+      </c>
+      <c r="C78" t="s">
+        <v>703</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="J78" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="K78" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="L78" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="O78" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8048,41 +8683,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>27513</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>79771</v>
+      </c>
+      <c r="C79" t="s">
+        <v>710</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="J79" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="K79" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="L79" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
@@ -8111,50 +8750,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>27513</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>132246</v>
+      </c>
+      <c r="C80" t="s">
+        <v>716</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>639</v>
+        <v>718</v>
       </c>
       <c r="J80" t="s">
-        <v>640</v>
+        <v>719</v>
       </c>
       <c r="K80" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="L80" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8176,47 +8819,51 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="X80" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="Y80" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>27513</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>26652</v>
+      </c>
+      <c r="C81" t="s">
+        <v>726</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="J81" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="K81" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="L81" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
@@ -8243,56 +8890,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="X81" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="Y81" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>27513</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>132247</v>
+      </c>
+      <c r="C82" t="s">
+        <v>733</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="J82" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="K82" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="L82" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="O82" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8314,56 +8965,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="X82" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="Y82" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>27513</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>132248</v>
+      </c>
+      <c r="C83" t="s">
+        <v>741</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="J83" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="K83" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="L83" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8387,50 +9042,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>27513</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>37742</v>
+      </c>
+      <c r="C84" t="s">
+        <v>749</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="J84" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="K84" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="L84" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8454,50 +9113,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>27513</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>132249</v>
+      </c>
+      <c r="C85" t="s">
+        <v>757</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="J85" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="K85" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="L85" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="O85" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8521,50 +9184,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>679</v>
+        <v>763</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>27513</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>10744</v>
+      </c>
+      <c r="C86" t="s">
+        <v>764</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="J86" t="s">
-        <v>682</v>
+        <v>767</v>
       </c>
       <c r="K86" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
       <c r="L86" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>685</v>
+        <v>770</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -8588,50 +9255,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>27513</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>132250</v>
+      </c>
+      <c r="C87" t="s">
+        <v>771</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="J87" t="s">
-        <v>688</v>
+        <v>774</v>
       </c>
       <c r="K87" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
       <c r="L87" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>685</v>
+        <v>770</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8655,50 +9326,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>27513</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>132251</v>
+      </c>
+      <c r="C88" t="s">
+        <v>777</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="J88" t="s">
-        <v>693</v>
+        <v>780</v>
       </c>
       <c r="K88" t="s">
-        <v>694</v>
+        <v>781</v>
       </c>
       <c r="L88" t="s">
-        <v>695</v>
+        <v>782</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8720,47 +9395,51 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>697</v>
+        <v>784</v>
       </c>
       <c r="X88" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
       <c r="Y88" t="s">
-        <v>699</v>
+        <v>786</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>27513</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>132252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>787</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>701</v>
+        <v>789</v>
       </c>
       <c r="J89" t="s">
-        <v>702</v>
+        <v>790</v>
       </c>
       <c r="K89" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
       <c r="L89" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -8787,56 +9466,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="X89" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="Y89" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>27513</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>69126</v>
+      </c>
+      <c r="C90" t="s">
+        <v>796</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>708</v>
+        <v>797</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>709</v>
+        <v>798</v>
       </c>
       <c r="J90" t="s">
-        <v>710</v>
+        <v>799</v>
       </c>
       <c r="K90" t="s">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="L90" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="O90" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8858,56 +9541,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
       <c r="X90" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="Y90" t="s">
-        <v>716</v>
+        <v>805</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>27513</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>79302</v>
+      </c>
+      <c r="C91" t="s">
+        <v>806</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>717</v>
+        <v>807</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="J91" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="K91" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="L91" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="O91" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8931,50 +9618,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>27513</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>132253</v>
+      </c>
+      <c r="C92" t="s">
+        <v>813</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>723</v>
+        <v>814</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>724</v>
+        <v>815</v>
       </c>
       <c r="J92" t="s">
-        <v>725</v>
+        <v>816</v>
       </c>
       <c r="K92" t="s">
-        <v>726</v>
+        <v>817</v>
       </c>
       <c r="L92" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>728</v>
+        <v>819</v>
       </c>
       <c r="O92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8998,50 +9689,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>27513</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>132254</v>
+      </c>
+      <c r="C93" t="s">
+        <v>821</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>730</v>
+        <v>822</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>731</v>
+        <v>823</v>
       </c>
       <c r="J93" t="s">
-        <v>732</v>
+        <v>824</v>
       </c>
       <c r="K93" t="s">
-        <v>733</v>
+        <v>825</v>
       </c>
       <c r="L93" t="s">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="O93" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9065,50 +9760,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>734</v>
+        <v>826</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>27513</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>132255</v>
+      </c>
+      <c r="C94" t="s">
+        <v>827</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>735</v>
+        <v>828</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>736</v>
+        <v>829</v>
       </c>
       <c r="J94" t="s">
-        <v>737</v>
+        <v>830</v>
       </c>
       <c r="K94" t="s">
-        <v>738</v>
+        <v>831</v>
       </c>
       <c r="L94" t="s">
-        <v>739</v>
+        <v>832</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="O94" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9128,50 +9827,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>740</v>
+        <v>833</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>27513</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>132256</v>
+      </c>
+      <c r="C95" t="s">
+        <v>834</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>741</v>
+        <v>835</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>742</v>
+        <v>836</v>
       </c>
       <c r="J95" t="s">
-        <v>743</v>
+        <v>837</v>
       </c>
       <c r="K95" t="s">
-        <v>744</v>
+        <v>838</v>
       </c>
       <c r="L95" t="s">
-        <v>745</v>
+        <v>839</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>746</v>
+        <v>840</v>
       </c>
       <c r="O95" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -9191,50 +9894,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>745</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>27513</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>132257</v>
+      </c>
+      <c r="C96" t="s">
+        <v>841</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>747</v>
+        <v>842</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="J96" t="s">
-        <v>749</v>
+        <v>844</v>
       </c>
       <c r="K96" t="s">
-        <v>750</v>
+        <v>845</v>
       </c>
       <c r="L96" t="s">
-        <v>751</v>
+        <v>846</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>752</v>
+        <v>847</v>
       </c>
       <c r="O96" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9258,50 +9965,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>753</v>
+        <v>848</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>27513</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>132258</v>
+      </c>
+      <c r="C97" t="s">
+        <v>849</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>754</v>
+        <v>850</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>755</v>
+        <v>851</v>
       </c>
       <c r="J97" t="s">
-        <v>756</v>
+        <v>852</v>
       </c>
       <c r="K97" t="s">
-        <v>757</v>
+        <v>853</v>
       </c>
       <c r="L97" t="s">
-        <v>758</v>
+        <v>854</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>759</v>
+        <v>855</v>
       </c>
       <c r="O97" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9325,50 +10036,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>760</v>
+        <v>856</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>27513</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>132259</v>
+      </c>
+      <c r="C98" t="s">
+        <v>857</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>761</v>
+        <v>858</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>762</v>
+        <v>859</v>
       </c>
       <c r="J98" t="s">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="K98" t="s">
-        <v>764</v>
+        <v>861</v>
       </c>
       <c r="L98" t="s">
-        <v>765</v>
+        <v>862</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
       <c r="O98" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9392,50 +10107,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>767</v>
+        <v>864</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>27513</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>132260</v>
+      </c>
+      <c r="C99" t="s">
+        <v>865</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>768</v>
+        <v>866</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>769</v>
+        <v>867</v>
       </c>
       <c r="J99" t="s">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="K99" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
       <c r="L99" t="s">
-        <v>772</v>
+        <v>870</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
       <c r="O99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9459,50 +10178,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>772</v>
+        <v>870</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>27513</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>132261</v>
+      </c>
+      <c r="C100" t="s">
+        <v>871</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>773</v>
+        <v>872</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>774</v>
+        <v>873</v>
       </c>
       <c r="J100" t="s">
-        <v>775</v>
+        <v>874</v>
       </c>
       <c r="K100" t="s">
-        <v>776</v>
+        <v>875</v>
       </c>
       <c r="L100" t="s">
-        <v>777</v>
+        <v>876</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
       <c r="O100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
@@ -9526,50 +10249,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>777</v>
+        <v>876</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>27513</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>132262</v>
+      </c>
+      <c r="C101" t="s">
+        <v>877</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>778</v>
+        <v>878</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>779</v>
+        <v>879</v>
       </c>
       <c r="J101" t="s">
-        <v>780</v>
+        <v>880</v>
       </c>
       <c r="K101" t="s">
-        <v>781</v>
+        <v>881</v>
       </c>
       <c r="L101" t="s">
-        <v>782</v>
+        <v>882</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="O101" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9593,41 +10320,45 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>782</v>
+        <v>882</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>27513</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>132263</v>
+      </c>
+      <c r="C102" t="s">
+        <v>884</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>784</v>
+        <v>885</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>785</v>
+        <v>886</v>
       </c>
       <c r="J102" t="s">
-        <v>786</v>
+        <v>887</v>
       </c>
       <c r="K102" t="s">
-        <v>787</v>
+        <v>888</v>
       </c>
       <c r="L102" t="s">
-        <v>788</v>
+        <v>889</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
@@ -9646,41 +10377,45 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>789</v>
+        <v>890</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>27513</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>132264</v>
+      </c>
+      <c r="C103" t="s">
+        <v>891</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>790</v>
+        <v>892</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>791</v>
+        <v>893</v>
       </c>
       <c r="J103" t="s">
-        <v>792</v>
+        <v>894</v>
       </c>
       <c r="K103" t="s">
-        <v>793</v>
+        <v>895</v>
       </c>
       <c r="L103" t="s">
-        <v>794</v>
+        <v>896</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
@@ -9707,50 +10442,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>795</v>
+        <v>897</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>27513</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>132265</v>
+      </c>
+      <c r="C104" t="s">
+        <v>898</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>796</v>
+        <v>899</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>797</v>
+        <v>900</v>
       </c>
       <c r="J104" t="s">
-        <v>798</v>
+        <v>901</v>
       </c>
       <c r="K104" t="s">
-        <v>799</v>
+        <v>902</v>
       </c>
       <c r="L104" t="s">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>801</v>
+        <v>904</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9774,50 +10513,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>802</v>
+        <v>905</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>27513</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>132266</v>
+      </c>
+      <c r="C105" t="s">
+        <v>906</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>803</v>
+        <v>907</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>804</v>
+        <v>908</v>
       </c>
       <c r="J105" t="s">
-        <v>805</v>
+        <v>909</v>
       </c>
       <c r="K105" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="L105" t="s">
-        <v>807</v>
+        <v>911</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>801</v>
+        <v>904</v>
       </c>
       <c r="O105" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -9839,50 +10582,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>807</v>
+        <v>911</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>27513</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>20009</v>
+      </c>
+      <c r="C106" t="s">
+        <v>912</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>808</v>
+        <v>913</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>809</v>
+        <v>914</v>
       </c>
       <c r="J106" t="s">
-        <v>810</v>
+        <v>915</v>
       </c>
       <c r="K106" t="s">
-        <v>811</v>
+        <v>916</v>
       </c>
       <c r="L106" t="s">
-        <v>812</v>
+        <v>917</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>813</v>
+        <v>918</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9906,50 +10653,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>814</v>
+        <v>919</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>27513</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>132267</v>
+      </c>
+      <c r="C107" t="s">
+        <v>920</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>815</v>
+        <v>921</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>816</v>
+        <v>922</v>
       </c>
       <c r="J107" t="s">
-        <v>817</v>
+        <v>923</v>
       </c>
       <c r="K107" t="s">
-        <v>818</v>
+        <v>924</v>
       </c>
       <c r="L107" t="s">
-        <v>819</v>
+        <v>925</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>820</v>
+        <v>926</v>
       </c>
       <c r="O107" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9973,50 +10724,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>819</v>
+        <v>925</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>27513</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>132268</v>
+      </c>
+      <c r="C108" t="s">
+        <v>927</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>821</v>
+        <v>928</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>822</v>
+        <v>929</v>
       </c>
       <c r="J108" t="s">
-        <v>823</v>
+        <v>930</v>
       </c>
       <c r="K108" t="s">
-        <v>824</v>
+        <v>931</v>
       </c>
       <c r="L108" t="s">
-        <v>825</v>
+        <v>932</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>826</v>
+        <v>933</v>
       </c>
       <c r="O108" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -10040,50 +10795,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>827</v>
+        <v>934</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>27513</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>132269</v>
+      </c>
+      <c r="C109" t="s">
+        <v>935</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>828</v>
+        <v>936</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>829</v>
+        <v>937</v>
       </c>
       <c r="J109" t="s">
-        <v>830</v>
+        <v>938</v>
       </c>
       <c r="K109" t="s">
-        <v>831</v>
+        <v>939</v>
       </c>
       <c r="L109" t="s">
-        <v>832</v>
+        <v>940</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>833</v>
+        <v>941</v>
       </c>
       <c r="O109" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10107,41 +10866,45 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>834</v>
+        <v>942</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>27513</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>943</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>835</v>
+        <v>944</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>836</v>
+        <v>945</v>
       </c>
       <c r="J110" t="s">
-        <v>837</v>
+        <v>946</v>
       </c>
       <c r="K110" t="s">
-        <v>838</v>
+        <v>947</v>
       </c>
       <c r="L110" t="s">
-        <v>839</v>
+        <v>948</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
@@ -10160,7 +10923,7 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>839</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_146.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_146.xlsx
@@ -3477,7 +3477,7 @@
         <v>27513</v>
       </c>
       <c r="B3" t="n">
-        <v>132193</v>
+        <v>162984</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -3542,7 +3542,7 @@
         <v>27513</v>
       </c>
       <c r="B4" t="n">
-        <v>132194</v>
+        <v>162985</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -3607,7 +3607,7 @@
         <v>27513</v>
       </c>
       <c r="B5" t="n">
-        <v>132195</v>
+        <v>162986</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -3729,7 +3729,7 @@
         <v>27513</v>
       </c>
       <c r="B7" t="n">
-        <v>132196</v>
+        <v>162987</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -3855,7 +3855,7 @@
         <v>27513</v>
       </c>
       <c r="B9" t="n">
-        <v>132197</v>
+        <v>162988</v>
       </c>
       <c r="C9" t="s">
         <v>113</v>
@@ -3916,7 +3916,7 @@
         <v>27513</v>
       </c>
       <c r="B10" t="n">
-        <v>132198</v>
+        <v>162989</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -3981,7 +3981,7 @@
         <v>27513</v>
       </c>
       <c r="B11" t="n">
-        <v>132199</v>
+        <v>162990</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
@@ -4046,7 +4046,7 @@
         <v>27513</v>
       </c>
       <c r="B12" t="n">
-        <v>132200</v>
+        <v>162991</v>
       </c>
       <c r="C12" t="s">
         <v>139</v>
@@ -4117,7 +4117,7 @@
         <v>27513</v>
       </c>
       <c r="B13" t="n">
-        <v>132201</v>
+        <v>162992</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -4247,7 +4247,7 @@
         <v>27513</v>
       </c>
       <c r="B15" t="n">
-        <v>132202</v>
+        <v>162993</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -4379,7 +4379,7 @@
         <v>27513</v>
       </c>
       <c r="B17" t="n">
-        <v>132203</v>
+        <v>162994</v>
       </c>
       <c r="C17" t="s">
         <v>183</v>
@@ -4580,7 +4580,7 @@
         <v>27513</v>
       </c>
       <c r="B20" t="n">
-        <v>132204</v>
+        <v>162995</v>
       </c>
       <c r="C20" t="s">
         <v>209</v>
@@ -4651,7 +4651,7 @@
         <v>27513</v>
       </c>
       <c r="B21" t="n">
-        <v>132205</v>
+        <v>162996</v>
       </c>
       <c r="C21" t="s">
         <v>219</v>
@@ -4720,7 +4720,7 @@
         <v>27513</v>
       </c>
       <c r="B22" t="n">
-        <v>132206</v>
+        <v>162997</v>
       </c>
       <c r="C22" t="s">
         <v>226</v>
@@ -4791,7 +4791,7 @@
         <v>27513</v>
       </c>
       <c r="B23" t="n">
-        <v>132207</v>
+        <v>162998</v>
       </c>
       <c r="C23" t="s">
         <v>233</v>
@@ -4856,7 +4856,7 @@
         <v>27513</v>
       </c>
       <c r="B24" t="n">
-        <v>132208</v>
+        <v>162999</v>
       </c>
       <c r="C24" t="s">
         <v>243</v>
@@ -4921,7 +4921,7 @@
         <v>27513</v>
       </c>
       <c r="B25" t="n">
-        <v>132209</v>
+        <v>163000</v>
       </c>
       <c r="C25" t="s">
         <v>251</v>
@@ -5051,7 +5051,7 @@
         <v>27513</v>
       </c>
       <c r="B27" t="n">
-        <v>132210</v>
+        <v>163001</v>
       </c>
       <c r="C27" t="s">
         <v>267</v>
@@ -5122,7 +5122,7 @@
         <v>27513</v>
       </c>
       <c r="B28" t="n">
-        <v>132211</v>
+        <v>163002</v>
       </c>
       <c r="C28" t="s">
         <v>276</v>
@@ -5187,7 +5187,7 @@
         <v>27513</v>
       </c>
       <c r="B29" t="n">
-        <v>132212</v>
+        <v>163003</v>
       </c>
       <c r="C29" t="s">
         <v>282</v>
@@ -5248,7 +5248,7 @@
         <v>27513</v>
       </c>
       <c r="B30" t="n">
-        <v>132213</v>
+        <v>163004</v>
       </c>
       <c r="C30" t="s">
         <v>289</v>
@@ -5453,7 +5453,7 @@
         <v>27513</v>
       </c>
       <c r="B33" t="n">
-        <v>132214</v>
+        <v>163005</v>
       </c>
       <c r="C33" t="s">
         <v>312</v>
@@ -5524,7 +5524,7 @@
         <v>27513</v>
       </c>
       <c r="B34" t="n">
-        <v>132215</v>
+        <v>163006</v>
       </c>
       <c r="C34" t="s">
         <v>320</v>
@@ -5593,7 +5593,7 @@
         <v>27513</v>
       </c>
       <c r="B35" t="n">
-        <v>132216</v>
+        <v>163007</v>
       </c>
       <c r="C35" t="s">
         <v>327</v>
@@ -5733,7 +5733,7 @@
         <v>27513</v>
       </c>
       <c r="B37" t="n">
-        <v>132217</v>
+        <v>163008</v>
       </c>
       <c r="C37" t="s">
         <v>347</v>
@@ -5802,7 +5802,7 @@
         <v>27513</v>
       </c>
       <c r="B38" t="n">
-        <v>132218</v>
+        <v>163009</v>
       </c>
       <c r="C38" t="s">
         <v>354</v>
@@ -5871,7 +5871,7 @@
         <v>27513</v>
       </c>
       <c r="B39" t="n">
-        <v>132219</v>
+        <v>163010</v>
       </c>
       <c r="C39" t="s">
         <v>363</v>
@@ -6074,7 +6074,7 @@
         <v>27513</v>
       </c>
       <c r="B42" t="n">
-        <v>132220</v>
+        <v>163011</v>
       </c>
       <c r="C42" t="s">
         <v>385</v>
@@ -6135,7 +6135,7 @@
         <v>27513</v>
       </c>
       <c r="B43" t="n">
-        <v>132221</v>
+        <v>163012</v>
       </c>
       <c r="C43" t="s">
         <v>392</v>
@@ -6196,7 +6196,7 @@
         <v>27513</v>
       </c>
       <c r="B44" t="n">
-        <v>132222</v>
+        <v>163013</v>
       </c>
       <c r="C44" t="s">
         <v>399</v>
@@ -6267,7 +6267,7 @@
         <v>27513</v>
       </c>
       <c r="B45" t="n">
-        <v>132223</v>
+        <v>163014</v>
       </c>
       <c r="C45" t="s">
         <v>409</v>
@@ -6407,7 +6407,7 @@
         <v>27513</v>
       </c>
       <c r="B47" t="n">
-        <v>132224</v>
+        <v>163015</v>
       </c>
       <c r="C47" t="s">
         <v>426</v>
@@ -6537,7 +6537,7 @@
         <v>27513</v>
       </c>
       <c r="B49" t="n">
-        <v>132225</v>
+        <v>163016</v>
       </c>
       <c r="C49" t="s">
         <v>445</v>
@@ -6602,7 +6602,7 @@
         <v>27513</v>
       </c>
       <c r="B50" t="n">
-        <v>132226</v>
+        <v>163017</v>
       </c>
       <c r="C50" t="s">
         <v>454</v>
@@ -6742,7 +6742,7 @@
         <v>27513</v>
       </c>
       <c r="B52" t="n">
-        <v>132227</v>
+        <v>163018</v>
       </c>
       <c r="C52" t="s">
         <v>473</v>
@@ -7018,7 +7018,7 @@
         <v>27513</v>
       </c>
       <c r="B56" t="n">
-        <v>132228</v>
+        <v>163019</v>
       </c>
       <c r="C56" t="s">
         <v>506</v>
@@ -7087,7 +7087,7 @@
         <v>27513</v>
       </c>
       <c r="B57" t="n">
-        <v>132229</v>
+        <v>163020</v>
       </c>
       <c r="C57" t="s">
         <v>516</v>
@@ -7152,7 +7152,7 @@
         <v>27513</v>
       </c>
       <c r="B58" t="n">
-        <v>132230</v>
+        <v>163021</v>
       </c>
       <c r="C58" t="s">
         <v>526</v>
@@ -7221,7 +7221,7 @@
         <v>27513</v>
       </c>
       <c r="B59" t="n">
-        <v>132231</v>
+        <v>163022</v>
       </c>
       <c r="C59" t="s">
         <v>533</v>
@@ -7367,7 +7367,7 @@
         <v>27513</v>
       </c>
       <c r="B61" t="n">
-        <v>132232</v>
+        <v>163023</v>
       </c>
       <c r="C61" t="s">
         <v>550</v>
@@ -7442,7 +7442,7 @@
         <v>27513</v>
       </c>
       <c r="B62" t="n">
-        <v>132233</v>
+        <v>163024</v>
       </c>
       <c r="C62" t="s">
         <v>557</v>
@@ -7517,7 +7517,7 @@
         <v>27513</v>
       </c>
       <c r="B63" t="n">
-        <v>132234</v>
+        <v>163025</v>
       </c>
       <c r="C63" t="s">
         <v>567</v>
@@ -7592,7 +7592,7 @@
         <v>27513</v>
       </c>
       <c r="B64" t="n">
-        <v>132235</v>
+        <v>163026</v>
       </c>
       <c r="C64" t="s">
         <v>577</v>
@@ -7667,7 +7667,7 @@
         <v>27513</v>
       </c>
       <c r="B65" t="n">
-        <v>132236</v>
+        <v>163027</v>
       </c>
       <c r="C65" t="s">
         <v>587</v>
@@ -7807,7 +7807,7 @@
         <v>27513</v>
       </c>
       <c r="B67" t="n">
-        <v>132237</v>
+        <v>163028</v>
       </c>
       <c r="C67" t="s">
         <v>606</v>
@@ -7882,7 +7882,7 @@
         <v>27513</v>
       </c>
       <c r="B68" t="n">
-        <v>132238</v>
+        <v>163029</v>
       </c>
       <c r="C68" t="s">
         <v>615</v>
@@ -8032,7 +8032,7 @@
         <v>27513</v>
       </c>
       <c r="B70" t="n">
-        <v>132239</v>
+        <v>163030</v>
       </c>
       <c r="C70" t="s">
         <v>635</v>
@@ -8107,7 +8107,7 @@
         <v>27513</v>
       </c>
       <c r="B71" t="n">
-        <v>132240</v>
+        <v>163031</v>
       </c>
       <c r="C71" t="s">
         <v>643</v>
@@ -8253,7 +8253,7 @@
         <v>27513</v>
       </c>
       <c r="B73" t="n">
-        <v>132241</v>
+        <v>163032</v>
       </c>
       <c r="C73" t="s">
         <v>661</v>
@@ -8328,7 +8328,7 @@
         <v>27513</v>
       </c>
       <c r="B74" t="n">
-        <v>132242</v>
+        <v>163033</v>
       </c>
       <c r="C74" t="s">
         <v>671</v>
@@ -8403,7 +8403,7 @@
         <v>27513</v>
       </c>
       <c r="B75" t="n">
-        <v>132243</v>
+        <v>163034</v>
       </c>
       <c r="C75" t="s">
         <v>681</v>
@@ -8478,7 +8478,7 @@
         <v>27513</v>
       </c>
       <c r="B76" t="n">
-        <v>132244</v>
+        <v>163035</v>
       </c>
       <c r="C76" t="s">
         <v>690</v>
@@ -8620,7 +8620,7 @@
         <v>27513</v>
       </c>
       <c r="B78" t="n">
-        <v>132245</v>
+        <v>163036</v>
       </c>
       <c r="C78" t="s">
         <v>703</v>
@@ -8758,7 +8758,7 @@
         <v>27513</v>
       </c>
       <c r="B80" t="n">
-        <v>132246</v>
+        <v>163037</v>
       </c>
       <c r="C80" t="s">
         <v>716</v>
@@ -8904,7 +8904,7 @@
         <v>27513</v>
       </c>
       <c r="B82" t="n">
-        <v>132247</v>
+        <v>163038</v>
       </c>
       <c r="C82" t="s">
         <v>733</v>
@@ -8979,7 +8979,7 @@
         <v>27513</v>
       </c>
       <c r="B83" t="n">
-        <v>132248</v>
+        <v>163039</v>
       </c>
       <c r="C83" t="s">
         <v>741</v>
@@ -9121,7 +9121,7 @@
         <v>27513</v>
       </c>
       <c r="B85" t="n">
-        <v>132249</v>
+        <v>163040</v>
       </c>
       <c r="C85" t="s">
         <v>757</v>
@@ -9263,7 +9263,7 @@
         <v>27513</v>
       </c>
       <c r="B87" t="n">
-        <v>132250</v>
+        <v>163041</v>
       </c>
       <c r="C87" t="s">
         <v>771</v>
@@ -9334,7 +9334,7 @@
         <v>27513</v>
       </c>
       <c r="B88" t="n">
-        <v>132251</v>
+        <v>163042</v>
       </c>
       <c r="C88" t="s">
         <v>777</v>
@@ -9409,7 +9409,7 @@
         <v>27513</v>
       </c>
       <c r="B89" t="n">
-        <v>132252</v>
+        <v>163043</v>
       </c>
       <c r="C89" t="s">
         <v>787</v>
@@ -9626,7 +9626,7 @@
         <v>27513</v>
       </c>
       <c r="B92" t="n">
-        <v>132253</v>
+        <v>163044</v>
       </c>
       <c r="C92" t="s">
         <v>813</v>
@@ -9697,7 +9697,7 @@
         <v>27513</v>
       </c>
       <c r="B93" t="n">
-        <v>132254</v>
+        <v>163045</v>
       </c>
       <c r="C93" t="s">
         <v>821</v>
@@ -9768,7 +9768,7 @@
         <v>27513</v>
       </c>
       <c r="B94" t="n">
-        <v>132255</v>
+        <v>163046</v>
       </c>
       <c r="C94" t="s">
         <v>827</v>
@@ -9835,7 +9835,7 @@
         <v>27513</v>
       </c>
       <c r="B95" t="n">
-        <v>132256</v>
+        <v>163047</v>
       </c>
       <c r="C95" t="s">
         <v>834</v>
@@ -9902,7 +9902,7 @@
         <v>27513</v>
       </c>
       <c r="B96" t="n">
-        <v>132257</v>
+        <v>163048</v>
       </c>
       <c r="C96" t="s">
         <v>841</v>
@@ -9973,7 +9973,7 @@
         <v>27513</v>
       </c>
       <c r="B97" t="n">
-        <v>132258</v>
+        <v>163049</v>
       </c>
       <c r="C97" t="s">
         <v>849</v>
@@ -10044,7 +10044,7 @@
         <v>27513</v>
       </c>
       <c r="B98" t="n">
-        <v>132259</v>
+        <v>163050</v>
       </c>
       <c r="C98" t="s">
         <v>857</v>
@@ -10115,7 +10115,7 @@
         <v>27513</v>
       </c>
       <c r="B99" t="n">
-        <v>132260</v>
+        <v>163051</v>
       </c>
       <c r="C99" t="s">
         <v>865</v>
@@ -10186,7 +10186,7 @@
         <v>27513</v>
       </c>
       <c r="B100" t="n">
-        <v>132261</v>
+        <v>163052</v>
       </c>
       <c r="C100" t="s">
         <v>871</v>
@@ -10257,7 +10257,7 @@
         <v>27513</v>
       </c>
       <c r="B101" t="n">
-        <v>132262</v>
+        <v>163053</v>
       </c>
       <c r="C101" t="s">
         <v>877</v>
@@ -10328,7 +10328,7 @@
         <v>27513</v>
       </c>
       <c r="B102" t="n">
-        <v>132263</v>
+        <v>163054</v>
       </c>
       <c r="C102" t="s">
         <v>884</v>
@@ -10385,7 +10385,7 @@
         <v>27513</v>
       </c>
       <c r="B103" t="n">
-        <v>132264</v>
+        <v>163055</v>
       </c>
       <c r="C103" t="s">
         <v>891</v>
@@ -10450,7 +10450,7 @@
         <v>27513</v>
       </c>
       <c r="B104" t="n">
-        <v>132265</v>
+        <v>163056</v>
       </c>
       <c r="C104" t="s">
         <v>898</v>
@@ -10521,7 +10521,7 @@
         <v>27513</v>
       </c>
       <c r="B105" t="n">
-        <v>132266</v>
+        <v>163057</v>
       </c>
       <c r="C105" t="s">
         <v>906</v>
@@ -10661,7 +10661,7 @@
         <v>27513</v>
       </c>
       <c r="B107" t="n">
-        <v>132267</v>
+        <v>163058</v>
       </c>
       <c r="C107" t="s">
         <v>920</v>
@@ -10732,7 +10732,7 @@
         <v>27513</v>
       </c>
       <c r="B108" t="n">
-        <v>132268</v>
+        <v>163059</v>
       </c>
       <c r="C108" t="s">
         <v>927</v>
@@ -10803,7 +10803,7 @@
         <v>27513</v>
       </c>
       <c r="B109" t="n">
-        <v>132269</v>
+        <v>163060</v>
       </c>
       <c r="C109" t="s">
         <v>935</v>
